--- a/static/course_data/subjects.xlsx
+++ b/static/course_data/subjects.xlsx
@@ -429,10 +429,10 @@
         <v>61</v>
       </c>
       <c r="C2">
-        <v>175.1478621933302</v>
+        <v>164.9478621933302</v>
       </c>
       <c r="D2">
-        <v>68.1650064966264</v>
+        <v>63.75607314150258</v>
       </c>
       <c r="E2">
         <v>65110.76963630375</v>
@@ -452,10 +452,10 @@
         <v>73</v>
       </c>
       <c r="C3">
-        <v>179.9167012957764</v>
+        <v>174.5167012957764</v>
       </c>
       <c r="D3">
-        <v>73.1592197981703</v>
+        <v>76.87084767605594</v>
       </c>
       <c r="E3">
         <v>109450.0557349269</v>
@@ -475,10 +475,10 @@
         <v>78</v>
       </c>
       <c r="C4">
-        <v>192.5399401004117</v>
+        <v>187.1399401004117</v>
       </c>
       <c r="D4">
-        <v>58.43234367458733</v>
+        <v>77.0598913074256</v>
       </c>
       <c r="E4">
         <v>133598.9512982624</v>
@@ -498,10 +498,10 @@
         <v>78</v>
       </c>
       <c r="C5">
-        <v>181.6536420546907</v>
+        <v>171.4536420546907</v>
       </c>
       <c r="D5">
-        <v>92.37536384665432</v>
+        <v>87.44165444611376</v>
       </c>
       <c r="E5">
         <v>140448.7160060113</v>
@@ -521,10 +521,10 @@
         <v>36</v>
       </c>
       <c r="C6">
-        <v>171.7228598861575</v>
+        <v>166.3228598861575</v>
       </c>
       <c r="D6">
-        <v>62.4679246918192</v>
+        <v>61.32737213299284</v>
       </c>
       <c r="E6">
         <v>41890.43750976687</v>
@@ -544,10 +544,10 @@
         <v>63</v>
       </c>
       <c r="C7">
-        <v>179.0982870249532</v>
+        <v>173.6982870249531</v>
       </c>
       <c r="D7">
-        <v>75.22184618200143</v>
+        <v>77.54669821216612</v>
       </c>
       <c r="E7">
         <v>118448.8546480448</v>
@@ -567,10 +567,10 @@
         <v>41</v>
       </c>
       <c r="C8">
-        <v>187.0280860685176</v>
+        <v>181.6280860685175</v>
       </c>
       <c r="D8">
-        <v>54.81311577316379</v>
+        <v>69.23132314070956</v>
       </c>
       <c r="E8">
         <v>37717.99386855238</v>
@@ -590,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>163.4404640359631</v>
+        <v>158.0404640359631</v>
       </c>
       <c r="D9">
-        <v>89.61558283444494</v>
+        <v>69.42543933643364</v>
       </c>
       <c r="E9">
         <v>14533.22838177212</v>
@@ -613,10 +613,10 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>172.1038366647112</v>
+        <v>166.7038366647112</v>
       </c>
       <c r="D10">
-        <v>63.66964191962953</v>
+        <v>62.48124495048953</v>
       </c>
       <c r="E10">
         <v>22802.26600019414</v>
@@ -636,10 +636,10 @@
         <v>60</v>
       </c>
       <c r="C11">
-        <v>169.3647604213168</v>
+        <v>163.9647604213168</v>
       </c>
       <c r="D11">
-        <v>51.84261134404585</v>
+        <v>52.3504302687684</v>
       </c>
       <c r="E11">
         <v>90133.87046703867</v>
@@ -659,10 +659,10 @@
         <v>71</v>
       </c>
       <c r="C12">
-        <v>159.1503001479466</v>
+        <v>153.7503001479466</v>
       </c>
       <c r="D12">
-        <v>69.11217195544609</v>
+        <v>53.27308990920125</v>
       </c>
       <c r="E12">
         <v>116024.2228564992</v>
@@ -682,10 +682,10 @@
         <v>66</v>
       </c>
       <c r="C13">
-        <v>170.295144794506</v>
+        <v>160.095144794506</v>
       </c>
       <c r="D13">
-        <v>89.99990798220516</v>
+        <v>72.1141184551802</v>
       </c>
       <c r="E13">
         <v>80984.78394645819</v>
@@ -705,10 +705,10 @@
         <v>48</v>
       </c>
       <c r="C14">
-        <v>156.5177590750479</v>
+        <v>146.3177590750479</v>
       </c>
       <c r="D14">
-        <v>71.68742563896441</v>
+        <v>47.09933681707407</v>
       </c>
       <c r="E14">
         <v>61349.11145465202</v>
@@ -728,10 +728,10 @@
         <v>77</v>
       </c>
       <c r="C15">
-        <v>176.2829353092607</v>
+        <v>170.8829353092607</v>
       </c>
       <c r="D15">
-        <v>76.08994112776237</v>
+        <v>75.19966433922455</v>
       </c>
       <c r="E15">
         <v>118568.0792745151</v>
@@ -751,10 +751,10 @@
         <v>34</v>
       </c>
       <c r="C16">
-        <v>184.4494227632209</v>
+        <v>174.2494227632209</v>
       </c>
       <c r="D16">
-        <v>87.61728438549177</v>
+        <v>87.33015472600363</v>
       </c>
       <c r="E16">
         <v>33092.93972917492</v>
@@ -774,10 +774,10 @@
         <v>44</v>
       </c>
       <c r="C17">
-        <v>179.7602746986121</v>
+        <v>169.5602746986121</v>
       </c>
       <c r="D17">
-        <v>74.81503495809476</v>
+        <v>72.90962624229707</v>
       </c>
       <c r="E17">
         <v>48718.73324527336</v>
@@ -797,10 +797,10 @@
         <v>78</v>
       </c>
       <c r="C18">
-        <v>169.4306607210368</v>
+        <v>159.2306607210369</v>
       </c>
       <c r="D18">
-        <v>63.39105284463552</v>
+        <v>55.31613765421031</v>
       </c>
       <c r="E18">
         <v>140448.7160060113</v>
@@ -820,10 +820,10 @@
         <v>53</v>
       </c>
       <c r="C19">
-        <v>160.276156302506</v>
+        <v>150.076156302506</v>
       </c>
       <c r="D19">
-        <v>43.58835360401461</v>
+        <v>36.85021897118717</v>
       </c>
       <c r="E19">
         <v>71180.36741214807</v>
@@ -843,10 +843,10 @@
         <v>76</v>
       </c>
       <c r="C20">
-        <v>154.7593351621735</v>
+        <v>144.5593351621735</v>
       </c>
       <c r="D20">
-        <v>84.22684640641459</v>
+        <v>50.89872333541546</v>
       </c>
       <c r="E20">
         <v>90547.91715423753</v>
@@ -866,10 +866,10 @@
         <v>67</v>
       </c>
       <c r="C21">
-        <v>175.2947895753119</v>
+        <v>169.8947895753119</v>
       </c>
       <c r="D21">
-        <v>81.3197841074651</v>
+        <v>77.80672885760427</v>
       </c>
       <c r="E21">
         <v>117544.6310938138</v>
@@ -889,10 +889,10 @@
         <v>60</v>
       </c>
       <c r="C22">
-        <v>175.4129889138989</v>
+        <v>165.212988913899</v>
       </c>
       <c r="D22">
-        <v>70.04812087535738</v>
+        <v>65.24436997501103</v>
       </c>
       <c r="E22">
         <v>104720.617138241</v>
@@ -912,10 +912,10 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>158.2599890563189</v>
+        <v>152.8599890563189</v>
       </c>
       <c r="D23">
-        <v>56.54412288271922</v>
+        <v>45.74721388469253</v>
       </c>
       <c r="E23">
         <v>22276.54810221001</v>
@@ -935,10 +935,10 @@
         <v>62</v>
       </c>
       <c r="C24">
-        <v>163.1243204668017</v>
+        <v>157.7243204668017</v>
       </c>
       <c r="D24">
-        <v>64.63579034120578</v>
+        <v>54.6278668928482</v>
       </c>
       <c r="E24">
         <v>85668.11897004061</v>
@@ -958,10 +958,10 @@
         <v>31</v>
       </c>
       <c r="C25">
-        <v>182.7248032222524</v>
+        <v>172.5248032222524</v>
       </c>
       <c r="D25">
-        <v>60.97239520567936</v>
+        <v>65.97755060948877</v>
       </c>
       <c r="E25">
         <v>26069.34174747791</v>
@@ -981,10 +981,10 @@
         <v>75</v>
       </c>
       <c r="C26">
-        <v>176.8687882780902</v>
+        <v>166.6687882780903</v>
       </c>
       <c r="D26">
-        <v>81.13317387730726</v>
+        <v>74.0911403989839</v>
       </c>
       <c r="E26">
         <v>132424.3238856699</v>
@@ -1004,10 +1004,10 @@
         <v>24</v>
       </c>
       <c r="C27">
-        <v>186.4219517586737</v>
+        <v>181.0219517586737</v>
       </c>
       <c r="D27">
-        <v>81.9676820243489</v>
+        <v>90.71840131507308</v>
       </c>
       <c r="E27">
         <v>18668.91641422341</v>
@@ -1027,10 +1027,10 @@
         <v>56</v>
       </c>
       <c r="C28">
-        <v>164.5621305254409</v>
+        <v>159.1621305254409</v>
       </c>
       <c r="D28">
-        <v>58.12303839327296</v>
+        <v>52.13546699721259</v>
       </c>
       <c r="E28">
         <v>89819.91376534835</v>
@@ -1050,10 +1050,10 @@
         <v>57</v>
       </c>
       <c r="C29">
-        <v>175.6889809371363</v>
+        <v>170.2889809371362</v>
       </c>
       <c r="D29">
-        <v>67.25805040080384</v>
+        <v>68.36169250605137</v>
       </c>
       <c r="E29">
         <v>101937.1119087779</v>
@@ -1073,10 +1073,10 @@
         <v>26</v>
       </c>
       <c r="C30">
-        <v>163.4334961918308</v>
+        <v>158.0334961918308</v>
       </c>
       <c r="D30">
-        <v>72.92344234724618</v>
+        <v>59.73007199509026</v>
       </c>
       <c r="E30">
         <v>21050.49296261388</v>
@@ -1096,10 +1096,10 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>178.3320048364919</v>
+        <v>168.1320048364919</v>
       </c>
       <c r="D31">
-        <v>76.47985481110575</v>
+        <v>72.54685982979214</v>
       </c>
       <c r="E31">
         <v>28811.07835268796</v>
@@ -1119,10 +1119,10 @@
         <v>74</v>
       </c>
       <c r="C32">
-        <v>146.8287069250776</v>
+        <v>141.4287069250776</v>
       </c>
       <c r="D32">
-        <v>80.07642795784942</v>
+        <v>45.60324073225158</v>
       </c>
       <c r="E32">
         <v>150788.2916949887</v>
@@ -1142,10 +1142,10 @@
         <v>25</v>
       </c>
       <c r="C33">
-        <v>173.9005939466462</v>
+        <v>163.7005939466462</v>
       </c>
       <c r="D33">
-        <v>79.61434482088396</v>
+        <v>69.82498870162786</v>
       </c>
       <c r="E33">
         <v>23059.84766464043</v>
@@ -1165,10 +1165,10 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>177.8533768601076</v>
+        <v>172.4533768601076</v>
       </c>
       <c r="D34">
-        <v>63.72869075871107</v>
+        <v>67.90960154145374</v>
       </c>
       <c r="E34">
         <v>34789.65103139541</v>
@@ -1188,10 +1188,10 @@
         <v>74</v>
       </c>
       <c r="C35">
-        <v>159.025423342289</v>
+        <v>148.825423342289</v>
       </c>
       <c r="D35">
-        <v>87.2344116566245</v>
+        <v>57.2401977941887</v>
       </c>
       <c r="E35">
         <v>143434.2599304699</v>
@@ -1211,10 +1211,10 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>172.1229540678331</v>
+        <v>166.7229540678331</v>
       </c>
       <c r="D36">
-        <v>69.22427433579034</v>
+        <v>66.20536698921006</v>
       </c>
       <c r="E36">
         <v>44393.73485642287</v>
@@ -1234,10 +1234,10 @@
         <v>74</v>
       </c>
       <c r="C37">
-        <v>170.7747477676116</v>
+        <v>165.3747477676116</v>
       </c>
       <c r="D37">
-        <v>81.09011222060796</v>
+        <v>72.62488065897911</v>
       </c>
       <c r="E37">
         <v>111706.7139531174</v>
@@ -1257,10 +1257,10 @@
         <v>33</v>
       </c>
       <c r="C38">
-        <v>165.6619440070796</v>
+        <v>155.4619440070796</v>
       </c>
       <c r="D38">
-        <v>71.15867782713714</v>
+        <v>56.10456925478886</v>
       </c>
       <c r="E38">
         <v>34971.74723569577</v>
@@ -1280,10 +1280,10 @@
         <v>43</v>
       </c>
       <c r="C39">
-        <v>168.6920741910682</v>
+        <v>163.2920741910682</v>
       </c>
       <c r="D39">
-        <v>47.49648066498812</v>
+        <v>49.04913003795113</v>
       </c>
       <c r="E39">
         <v>49480.5342626649</v>
@@ -1303,10 +1303,10 @@
         <v>26</v>
       </c>
       <c r="C40">
-        <v>169.6379000308778</v>
+        <v>164.2379000308778</v>
       </c>
       <c r="D40">
-        <v>49.38642155425069</v>
+        <v>50.99617011611076</v>
       </c>
       <c r="E40">
         <v>28415.19332940101</v>
@@ -1326,10 +1326,10 @@
         <v>53</v>
       </c>
       <c r="C41">
-        <v>149.4959915687798</v>
+        <v>139.2959915687798</v>
       </c>
       <c r="D41">
-        <v>86.43751673884887</v>
+        <v>45.7552767605946</v>
       </c>
       <c r="E41">
         <v>86939.89708405189</v>
@@ -1349,10 +1349,10 @@
         <v>24</v>
       </c>
       <c r="C42">
-        <v>177.404696812979</v>
+        <v>167.2046968129791</v>
       </c>
       <c r="D42">
-        <v>68.41636385902063</v>
+        <v>66.14041894581311</v>
       </c>
       <c r="E42">
         <v>17758.42261675367</v>
@@ -1372,10 +1372,10 @@
         <v>35</v>
       </c>
       <c r="C43">
-        <v>169.1909952586011</v>
+        <v>163.7909952586011</v>
       </c>
       <c r="D43">
-        <v>55.56449083913259</v>
+        <v>54.58244029423722</v>
       </c>
       <c r="E43">
         <v>40157.18039808118</v>
@@ -1395,10 +1395,10 @@
         <v>25</v>
       </c>
       <c r="C44">
-        <v>162.3207438224637</v>
+        <v>152.1207438224637</v>
       </c>
       <c r="D44">
-        <v>93.40680015667918</v>
+        <v>64.32054216916247</v>
       </c>
       <c r="E44">
         <v>17083.15531611039</v>
@@ -1418,10 +1418,10 @@
         <v>38</v>
       </c>
       <c r="C45">
-        <v>180.7202236657939</v>
+        <v>175.3202236657939</v>
       </c>
       <c r="D45">
-        <v>68.94777448451941</v>
+        <v>74.52768505406536</v>
       </c>
       <c r="E45">
         <v>55487.53556210942</v>
@@ -1441,10 +1441,10 @@
         <v>43</v>
       </c>
       <c r="C46">
-        <v>173.3554653583851</v>
+        <v>167.9554653583851</v>
       </c>
       <c r="D46">
-        <v>73.19529530877695</v>
+        <v>70.12684315503917</v>
       </c>
       <c r="E46">
         <v>60435.6610236577</v>
@@ -1464,10 +1464,10 @@
         <v>20</v>
       </c>
       <c r="C47">
-        <v>176.6100139762159</v>
+        <v>171.2100139762159</v>
       </c>
       <c r="D47">
-        <v>61.98360397504435</v>
+        <v>65.50153724645617</v>
       </c>
       <c r="E47">
         <v>21186.78380391846</v>
@@ -1487,10 +1487,10 @@
         <v>78</v>
       </c>
       <c r="C48">
-        <v>152.9839107533411</v>
+        <v>147.5839107533411</v>
       </c>
       <c r="D48">
-        <v>76.63259661414648</v>
+        <v>50.73995960684573</v>
       </c>
       <c r="E48">
         <v>133598.9512982624</v>
@@ -1510,10 +1510,10 @@
         <v>34</v>
       </c>
       <c r="C49">
-        <v>167.3500712209778</v>
+        <v>161.9500712209777</v>
       </c>
       <c r="D49">
-        <v>57.10905199617309</v>
+        <v>53.96411975154776</v>
       </c>
       <c r="E49">
         <v>31478.97801361988</v>
@@ -1533,10 +1533,10 @@
         <v>74</v>
       </c>
       <c r="C50">
-        <v>156.7724793849898</v>
+        <v>146.5724793849898</v>
       </c>
       <c r="D50">
-        <v>84.32041562314059</v>
+        <v>53.24185199892185</v>
       </c>
       <c r="E50">
         <v>117434.0396500566</v>
@@ -1556,10 +1556,10 @@
         <v>68</v>
       </c>
       <c r="C51">
-        <v>173.2747602492611</v>
+        <v>167.8747602492611</v>
       </c>
       <c r="D51">
-        <v>63.44260197616855</v>
+        <v>63.42394206199575</v>
       </c>
       <c r="E51">
         <v>120186.0224105698</v>
@@ -1579,10 +1579,10 @@
         <v>63</v>
       </c>
       <c r="C52">
-        <v>170.7440436750819</v>
+        <v>160.5440436750819</v>
       </c>
       <c r="D52">
-        <v>46.74954033460517</v>
+        <v>46.46727522060797</v>
       </c>
       <c r="E52">
         <v>101949.8739939844</v>
@@ -1602,10 +1602,10 @@
         <v>41</v>
       </c>
       <c r="C53">
-        <v>170.4107929558261</v>
+        <v>165.0107929558261</v>
       </c>
       <c r="D53">
-        <v>66.19068467940474</v>
+        <v>62.53432685971939</v>
       </c>
       <c r="E53">
         <v>62186.45877921931</v>
@@ -1625,10 +1625,10 @@
         <v>42</v>
       </c>
       <c r="C54">
-        <v>182.5963720226051</v>
+        <v>177.1963720226051</v>
       </c>
       <c r="D54">
-        <v>55.89986864259355</v>
+        <v>66.31158216426563</v>
       </c>
       <c r="E54">
         <v>39106.30076518418</v>
@@ -1648,10 +1648,10 @@
         <v>22</v>
       </c>
       <c r="C55">
-        <v>178.9166664809797</v>
+        <v>173.5166664809797</v>
       </c>
       <c r="D55">
-        <v>75.15462823390625</v>
+        <v>77.30617732803499</v>
       </c>
       <c r="E55">
         <v>18107.80121033011</v>
@@ -1671,10 +1671,10 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>175.0561710678477</v>
+        <v>169.6561710678477</v>
       </c>
       <c r="D56">
-        <v>62.4222434934909</v>
+        <v>64.37779603256871</v>
       </c>
       <c r="E56">
         <v>63007.59289800404</v>
@@ -1694,10 +1694,10 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>163.1658332693757</v>
+        <v>152.9658332693757</v>
       </c>
       <c r="D57">
-        <v>51.38431893666458</v>
+        <v>43.1058826754107</v>
       </c>
       <c r="E57">
         <v>110000.0421573613</v>
@@ -1717,10 +1717,10 @@
         <v>67</v>
       </c>
       <c r="C58">
-        <v>161.2350893507839</v>
+        <v>155.8350893507839</v>
       </c>
       <c r="D58">
-        <v>63.91888821240136</v>
+        <v>52.43969515065717</v>
       </c>
       <c r="E58">
         <v>117544.6310938138</v>
@@ -1740,10 +1740,10 @@
         <v>41</v>
       </c>
       <c r="C59">
-        <v>169.9438533805769</v>
+        <v>159.743853380577</v>
       </c>
       <c r="D59">
-        <v>69.95663200608671</v>
+        <v>59.7179436698793</v>
       </c>
       <c r="E59">
         <v>53524.38109690213</v>
@@ -1763,10 +1763,10 @@
         <v>48</v>
       </c>
       <c r="C60">
-        <v>184.6656234448829</v>
+        <v>174.4656234448829</v>
       </c>
       <c r="D60">
-        <v>29.58272405957379</v>
+        <v>44.36864693640589</v>
       </c>
       <c r="E60">
         <v>50228.4042219323</v>
@@ -1786,10 +1786,10 @@
         <v>72</v>
       </c>
       <c r="C61">
-        <v>162.7420646397398</v>
+        <v>157.3420646397398</v>
       </c>
       <c r="D61">
-        <v>40.55688143893137</v>
+        <v>40.45877256249658</v>
       </c>
       <c r="E61">
         <v>144716.7451261289</v>
@@ -1809,10 +1809,10 @@
         <v>43</v>
       </c>
       <c r="C62">
-        <v>152.6718251060165</v>
+        <v>147.2718251060165</v>
       </c>
       <c r="D62">
-        <v>42.90450130301381</v>
+        <v>34.46328835037423</v>
       </c>
       <c r="E62">
         <v>60435.6610236577</v>
@@ -1832,10 +1832,10 @@
         <v>38</v>
       </c>
       <c r="C63">
-        <v>176.9995928403775</v>
+        <v>166.7995928403775</v>
       </c>
       <c r="D63">
-        <v>60.92055054927732</v>
+        <v>60.73455757514686</v>
       </c>
       <c r="E63">
         <v>32013.52312103954</v>
@@ -1855,10 +1855,10 @@
         <v>51</v>
       </c>
       <c r="C64">
-        <v>170.3200428083122</v>
+        <v>164.9200428083122</v>
       </c>
       <c r="D64">
-        <v>71.71615344782434</v>
+        <v>66.03417036129605</v>
       </c>
       <c r="E64">
         <v>52327.26845449425</v>
@@ -1878,10 +1878,10 @@
         <v>55</v>
       </c>
       <c r="C65">
-        <v>172.1128828392603</v>
+        <v>161.9128828392603</v>
       </c>
       <c r="D65">
-        <v>74.72383832184175</v>
+        <v>64.8375473249783</v>
       </c>
       <c r="E65">
         <v>68086.49957131884</v>
@@ -1901,10 +1901,10 @@
         <v>75</v>
       </c>
       <c r="C66">
-        <v>170.8739113755059</v>
+        <v>165.4739113755058</v>
       </c>
       <c r="D66">
-        <v>71.20616203642352</v>
+        <v>66.26363283827878</v>
       </c>
       <c r="E66">
         <v>153855.1140605122</v>
@@ -1924,10 +1924,10 @@
         <v>41</v>
       </c>
       <c r="C67">
-        <v>176.5052473648659</v>
+        <v>166.3052473648659</v>
       </c>
       <c r="D67">
-        <v>92.24565226861361</v>
+        <v>81.05528212949808</v>
       </c>
       <c r="E67">
         <v>59153.58939629416</v>
@@ -1947,10 +1947,10 @@
         <v>45</v>
       </c>
       <c r="C68">
-        <v>163.812749142725</v>
+        <v>153.612749142725</v>
       </c>
       <c r="D68">
-        <v>49.30191684466628</v>
+        <v>42.51593774330329</v>
       </c>
       <c r="E68">
         <v>68018.0360562756</v>
@@ -1970,10 +1970,10 @@
         <v>47</v>
       </c>
       <c r="C69">
-        <v>170.8914476930132</v>
+        <v>160.6914476930132</v>
       </c>
       <c r="D69">
-        <v>48.48770409543216</v>
+        <v>47.63532387652617</v>
       </c>
       <c r="E69">
         <v>59441.97187321645</v>
@@ -1993,10 +1993,10 @@
         <v>51</v>
       </c>
       <c r="C70">
-        <v>172.4414862441928</v>
+        <v>162.2414862441928</v>
       </c>
       <c r="D70">
-        <v>75.34309702724462</v>
+        <v>65.56710924541913</v>
       </c>
       <c r="E70">
         <v>55010.14487851872</v>
@@ -2016,10 +2016,10 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>161.5531928847548</v>
+        <v>151.3531928847548</v>
       </c>
       <c r="D71">
-        <v>44.21740423003813</v>
+        <v>38.11300674830963</v>
       </c>
       <c r="E71">
         <v>78330.64677271155</v>
@@ -2039,10 +2039,10 @@
         <v>71</v>
       </c>
       <c r="C72">
-        <v>160.9742383330703</v>
+        <v>155.5742383330703</v>
       </c>
       <c r="D72">
-        <v>81.81956107113903</v>
+        <v>62.14286937266793</v>
       </c>
       <c r="E72">
         <v>85952.85833253083</v>
@@ -2062,10 +2062,10 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <v>178.167717002031</v>
+        <v>172.767717002031</v>
       </c>
       <c r="D73">
-        <v>80.46726481824871</v>
+        <v>80.38450664282739</v>
       </c>
       <c r="E73">
         <v>89610.12655628375</v>
@@ -2085,10 +2085,10 @@
         <v>69</v>
       </c>
       <c r="C74">
-        <v>176.9196853901827</v>
+        <v>166.7196853901827</v>
       </c>
       <c r="D74">
-        <v>91.90902246248629</v>
+        <v>81.33731624921808</v>
       </c>
       <c r="E74">
         <v>78330.64677271155</v>
@@ -2108,10 +2108,10 @@
         <v>40</v>
       </c>
       <c r="C75">
-        <v>157.4471956548325</v>
+        <v>147.2471956548325</v>
       </c>
       <c r="D75">
-        <v>60.5391797529279</v>
+        <v>42.77722340214633</v>
       </c>
       <c r="E75">
         <v>42228.62685891241</v>
@@ -2131,10 +2131,10 @@
         <v>72</v>
       </c>
       <c r="C76">
-        <v>182.5172295118088</v>
+        <v>172.3172295118088</v>
       </c>
       <c r="D76">
-        <v>46.3813877339527</v>
+        <v>55.23690347186716</v>
       </c>
       <c r="E76">
         <v>124558.8568523312</v>
@@ -2154,10 +2154,10 @@
         <v>25</v>
       </c>
       <c r="C77">
-        <v>161.1825230810779</v>
+        <v>155.7825230810779</v>
       </c>
       <c r="D77">
-        <v>55.83583743097941</v>
+        <v>47.88139582677259</v>
       </c>
       <c r="E77">
         <v>29609.43050634577</v>
@@ -2177,10 +2177,10 @@
         <v>59</v>
       </c>
       <c r="C78">
-        <v>184.8999456986834</v>
+        <v>179.4999456986833</v>
       </c>
       <c r="D78">
-        <v>80.51851032921331</v>
+        <v>87.86215569871834</v>
       </c>
       <c r="E78">
         <v>65110.46814800367</v>
@@ -2200,10 +2200,10 @@
         <v>67</v>
       </c>
       <c r="C79">
-        <v>174.9109937520415</v>
+        <v>164.7109937520416</v>
       </c>
       <c r="D79">
-        <v>60.84132167608601</v>
+        <v>58.78432199408399</v>
       </c>
       <c r="E79">
         <v>123571.273203109</v>
@@ -2223,10 +2223,10 @@
         <v>27</v>
       </c>
       <c r="C80">
-        <v>170.9023389040005</v>
+        <v>165.5023389040005</v>
       </c>
       <c r="D80">
-        <v>82.73840600619837</v>
+        <v>73.84629277714807</v>
       </c>
       <c r="E80">
         <v>24619.39311767575</v>
@@ -2246,10 +2246,10 @@
         <v>72</v>
       </c>
       <c r="C81">
-        <v>169.4812252442551</v>
+        <v>159.2812252442551</v>
       </c>
       <c r="D81">
-        <v>46.49046049668677</v>
+        <v>45.34448217740882</v>
       </c>
       <c r="E81">
         <v>112705.5144277741</v>
@@ -2269,10 +2269,10 @@
         <v>18</v>
       </c>
       <c r="C82">
-        <v>181.2758787738564</v>
+        <v>171.0758787738564</v>
       </c>
       <c r="D82">
-        <v>97.66543010165842</v>
+        <v>90.73932633517715</v>
       </c>
       <c r="E82">
         <v>17207.35327274301</v>
@@ -2292,10 +2292,10 @@
         <v>37</v>
       </c>
       <c r="C83">
-        <v>170.4003531757361</v>
+        <v>165.0003531757361</v>
       </c>
       <c r="D83">
-        <v>57.41401855672025</v>
+        <v>56.81942078697169</v>
       </c>
       <c r="E83">
         <v>48238.43164762117</v>
@@ -2315,10 +2315,10 @@
         <v>74</v>
       </c>
       <c r="C84">
-        <v>157.6601591423112</v>
+        <v>147.4601591423112</v>
       </c>
       <c r="D84">
-        <v>63.98635815435237</v>
+        <v>44.60607515211822</v>
       </c>
       <c r="E84">
         <v>117434.0396500566</v>
@@ -2338,10 +2338,10 @@
         <v>54</v>
       </c>
       <c r="C85">
-        <v>162.6975324066034</v>
+        <v>157.2975324066034</v>
       </c>
       <c r="D85">
-        <v>56.28838768844448</v>
+        <v>49.44111689892204</v>
       </c>
       <c r="E85">
         <v>85051.35421753397</v>
@@ -2361,10 +2361,10 @@
         <v>35</v>
       </c>
       <c r="C86">
-        <v>145.229025863927</v>
+        <v>139.829025863927</v>
       </c>
       <c r="D86">
-        <v>104.2526736386612</v>
+        <v>53.47153210655589</v>
       </c>
       <c r="E86">
         <v>49048.09089815187</v>
@@ -2384,10 +2384,10 @@
         <v>38</v>
       </c>
       <c r="C87">
-        <v>170.8630437145664</v>
+        <v>165.4630437145664</v>
       </c>
       <c r="D87">
-        <v>78.19115463980219</v>
+        <v>70.82522285714788</v>
       </c>
       <c r="E87">
         <v>50207.19841119757</v>
@@ -2407,10 +2407,10 @@
         <v>71</v>
       </c>
       <c r="C88">
-        <v>182.8191918692452</v>
+        <v>177.4191918692452</v>
       </c>
       <c r="D88">
-        <v>56.17630553899456</v>
+        <v>66.71699933106117</v>
       </c>
       <c r="E88">
         <v>128226.5968933307</v>
@@ -2430,10 +2430,10 @@
         <v>66</v>
       </c>
       <c r="C89">
-        <v>165.2960850598745</v>
+        <v>159.8960850598745</v>
       </c>
       <c r="D89">
-        <v>56.66427464941577</v>
+        <v>51.90850766053731</v>
       </c>
       <c r="E89">
         <v>94090.8951289469</v>
@@ -2453,10 +2453,10 @@
         <v>21</v>
       </c>
       <c r="C90">
-        <v>159.7709573742254</v>
+        <v>154.3709573742254</v>
       </c>
       <c r="D90">
-        <v>68.9346229544053</v>
+        <v>53.79170167489031</v>
       </c>
       <c r="E90">
         <v>15280.27571970032</v>
@@ -2476,10 +2476,10 @@
         <v>80</v>
       </c>
       <c r="C91">
-        <v>181.6400248836372</v>
+        <v>171.4400248836372</v>
       </c>
       <c r="D91">
-        <v>66.39138762301461</v>
+        <v>68.86203130356482</v>
       </c>
       <c r="E91">
         <v>132002.2705380499</v>
@@ -2499,10 +2499,10 @@
         <v>60</v>
       </c>
       <c r="C92">
-        <v>164.7258794948576</v>
+        <v>159.3258794948576</v>
       </c>
       <c r="D92">
-        <v>70.11063512218142</v>
+        <v>59.39151475412193</v>
       </c>
       <c r="E92">
         <v>99613.33237376863</v>
@@ -2522,10 +2522,10 @@
         <v>19</v>
       </c>
       <c r="C93">
-        <v>187.8937619908276</v>
+        <v>182.4937619908276</v>
       </c>
       <c r="D93">
-        <v>49.96580086694318</v>
+        <v>65.96679744123523</v>
       </c>
       <c r="E93">
         <v>17750.92523046813</v>
@@ -2545,10 +2545,10 @@
         <v>38</v>
       </c>
       <c r="C94">
-        <v>176.191260197697</v>
+        <v>165.991260197697</v>
       </c>
       <c r="D94">
-        <v>69.21323173333198</v>
+        <v>65.47206190368722</v>
       </c>
       <c r="E94">
         <v>32013.52312103954</v>
@@ -2568,10 +2568,10 @@
         <v>54</v>
       </c>
       <c r="C95">
-        <v>159.0145787298949</v>
+        <v>148.8145787298949</v>
       </c>
       <c r="D95">
-        <v>74.78593853154608</v>
+        <v>51.15081446234083</v>
       </c>
       <c r="E95">
         <v>89412.0303965325</v>
@@ -2591,10 +2591,10 @@
         <v>22</v>
       </c>
       <c r="C96">
-        <v>175.8762789745513</v>
+        <v>170.4762789745513</v>
       </c>
       <c r="D96">
-        <v>95.74128947757586</v>
+        <v>88.61778195841444</v>
       </c>
       <c r="E96">
         <v>14825.41372151996</v>
@@ -2614,10 +2614,10 @@
         <v>34</v>
       </c>
       <c r="C97">
-        <v>184.3347811477955</v>
+        <v>174.1347811477955</v>
       </c>
       <c r="D97">
-        <v>94.17633111701976</v>
+        <v>92.05785131096448</v>
       </c>
       <c r="E97">
         <v>33092.93972917492</v>
@@ -2637,10 +2637,10 @@
         <v>66</v>
       </c>
       <c r="C98">
-        <v>159.6231987097842</v>
+        <v>149.4231987097842</v>
       </c>
       <c r="D98">
-        <v>71.32583728822331</v>
+        <v>50.07846990731125</v>
       </c>
       <c r="E98">
         <v>109318.0238897663</v>
@@ -2660,10 +2660,10 @@
         <v>65</v>
       </c>
       <c r="C99">
-        <v>169.8809195061693</v>
+        <v>164.4809195061693</v>
       </c>
       <c r="D99">
-        <v>67.3439738031627</v>
+        <v>62.7682893921239</v>
       </c>
       <c r="E99">
         <v>101632.1656737395</v>
@@ -2683,10 +2683,10 @@
         <v>28</v>
       </c>
       <c r="C100">
-        <v>169.5571670803674</v>
+        <v>164.1571670803674</v>
       </c>
       <c r="D100">
-        <v>81.00840391938235</v>
+        <v>71.21984717580727</v>
       </c>
       <c r="E100">
         <v>35095.95693275402</v>
@@ -2706,10 +2706,10 @@
         <v>63</v>
       </c>
       <c r="C101">
-        <v>184.9951807375346</v>
+        <v>174.7951807375346</v>
       </c>
       <c r="D101">
-        <v>83.01728245382888</v>
+        <v>84.53148067599132</v>
       </c>
       <c r="E101">
         <v>92248.06075380825</v>
@@ -2729,10 +2729,10 @@
         <v>58</v>
       </c>
       <c r="C102">
-        <v>169.8983483537006</v>
+        <v>164.4983483537006</v>
       </c>
       <c r="D102">
-        <v>67.73888616416168</v>
+        <v>63.03996727518786</v>
       </c>
       <c r="E102">
         <v>63462.15140268637</v>
@@ -2752,10 +2752,10 @@
         <v>48</v>
       </c>
       <c r="C103">
-        <v>175.3730335847253</v>
+        <v>165.1730335847253</v>
       </c>
       <c r="D103">
-        <v>52.68086453358686</v>
+        <v>53.88562761061583</v>
       </c>
       <c r="E103">
         <v>45448.53958823971</v>
@@ -2775,10 +2775,10 @@
         <v>45</v>
       </c>
       <c r="C104">
-        <v>168.1935836645773</v>
+        <v>157.9935836645773</v>
       </c>
       <c r="D104">
-        <v>45.78457827441845</v>
+        <v>43.95019280642192</v>
       </c>
       <c r="E104">
         <v>45593.85306049644</v>
@@ -2798,10 +2798,10 @@
         <v>61</v>
       </c>
       <c r="C105">
-        <v>166.486759520556</v>
+        <v>161.086759520556</v>
       </c>
       <c r="D105">
-        <v>48.2010224832546</v>
+        <v>47.7704705469617</v>
       </c>
       <c r="E105">
         <v>102114.0134272585</v>
@@ -2821,10 +2821,10 @@
         <v>49</v>
       </c>
       <c r="C106">
-        <v>167.1658096137788</v>
+        <v>156.9658096137788</v>
       </c>
       <c r="D106">
-        <v>54.67774455693159</v>
+        <v>48.23736274954359</v>
       </c>
       <c r="E106">
         <v>69931.04035100664</v>
@@ -2844,10 +2844,10 @@
         <v>38</v>
       </c>
       <c r="C107">
-        <v>176.8741706903734</v>
+        <v>166.6741706903734</v>
       </c>
       <c r="D107">
-        <v>81.06451163090144</v>
+        <v>74.05134206121686</v>
       </c>
       <c r="E107">
         <v>52781.37651970825</v>
@@ -2867,10 +2867,10 @@
         <v>24</v>
       </c>
       <c r="C108">
-        <v>169.4478887405278</v>
+        <v>159.2478887405278</v>
       </c>
       <c r="D108">
-        <v>74.79998142667351</v>
+        <v>62.09177639576936</v>
       </c>
       <c r="E108">
         <v>16068.48526893478</v>
@@ -2890,10 +2890,10 @@
         <v>27</v>
       </c>
       <c r="C109">
-        <v>174.6446306164881</v>
+        <v>169.2446306164881</v>
       </c>
       <c r="D109">
-        <v>86.39031670867682</v>
+        <v>80.59404487828391</v>
       </c>
       <c r="E109">
         <v>20156.65426755755</v>
@@ -2913,10 +2913,10 @@
         <v>78</v>
       </c>
       <c r="C110">
-        <v>182.1940615044434</v>
+        <v>176.7940615044434</v>
       </c>
       <c r="D110">
-        <v>58.08463157850588</v>
+        <v>67.64376615036016</v>
       </c>
       <c r="E110">
         <v>98972.53738572223</v>
@@ -2936,10 +2936,10 @@
         <v>45</v>
       </c>
       <c r="C111">
-        <v>164.4050507860157</v>
+        <v>154.2050507860157</v>
       </c>
       <c r="D111">
-        <v>81.00580387058969</v>
+        <v>60.17075236347813</v>
       </c>
       <c r="E111">
         <v>45593.85306049644</v>
@@ -2959,10 +2959,10 @@
         <v>65</v>
       </c>
       <c r="C112">
-        <v>162.0024635365492</v>
+        <v>156.6024635365492</v>
       </c>
       <c r="D112">
-        <v>80.05327288225585</v>
+        <v>62.29286365395784</v>
       </c>
       <c r="E112">
         <v>124133.8074716967</v>
@@ -2982,10 +2982,10 @@
         <v>53</v>
       </c>
       <c r="C113">
-        <v>169.3804358547585</v>
+        <v>159.1804358547585</v>
       </c>
       <c r="D113">
-        <v>77.52024465180891</v>
+        <v>63.63094941704322</v>
       </c>
       <c r="E113">
         <v>58277.55581571541</v>
@@ -3005,10 +3005,10 @@
         <v>37</v>
       </c>
       <c r="C114">
-        <v>174.7861621700658</v>
+        <v>164.5861621700658</v>
       </c>
       <c r="D114">
-        <v>63.15812648269971</v>
+        <v>60.16725864471144</v>
       </c>
       <c r="E114">
         <v>33993.04824878889</v>
@@ -3028,10 +3028,10 @@
         <v>30</v>
       </c>
       <c r="C115">
-        <v>175.4185550453257</v>
+        <v>165.2185550453258</v>
       </c>
       <c r="D115">
-        <v>70.60829004066422</v>
+        <v>65.61527302033159</v>
       </c>
       <c r="E115">
         <v>33500.99848692448</v>
@@ -3051,10 +3051,10 @@
         <v>36</v>
       </c>
       <c r="C116">
-        <v>167.2380077655237</v>
+        <v>157.0380077655237</v>
       </c>
       <c r="D116">
-        <v>83.83172574259525</v>
+        <v>64.92734856869116</v>
       </c>
       <c r="E116">
         <v>32624.30553581019</v>
@@ -3074,10 +3074,10 @@
         <v>67</v>
       </c>
       <c r="C117">
-        <v>170.0844562603826</v>
+        <v>159.8844562603826</v>
       </c>
       <c r="D117">
-        <v>44.19677556235506</v>
+        <v>44.43233560825276</v>
       </c>
       <c r="E117">
         <v>111811.9117885173</v>
@@ -3097,10 +3097,10 @@
         <v>28</v>
       </c>
       <c r="C118">
-        <v>174.1793375043724</v>
+        <v>168.7793375043724</v>
       </c>
       <c r="D118">
-        <v>71.6320933259306</v>
+        <v>69.90188048140054</v>
       </c>
       <c r="E118">
         <v>21286.77391166947</v>
@@ -3120,10 +3120,10 @@
         <v>52</v>
       </c>
       <c r="C119">
-        <v>162.8308756871134</v>
+        <v>152.6308756871134</v>
       </c>
       <c r="D119">
-        <v>62.24156784007739</v>
+        <v>48.54754490175554</v>
       </c>
       <c r="E119">
         <v>76450.59760973162</v>
@@ -3143,10 +3143,10 @@
         <v>51</v>
       </c>
       <c r="C120">
-        <v>186.5127286476509</v>
+        <v>181.1127286476509</v>
       </c>
       <c r="D120">
-        <v>35.37176281546783</v>
+        <v>53.02482058469638</v>
       </c>
       <c r="E120">
         <v>70634.42419969299</v>
@@ -3166,10 +3166,10 @@
         <v>61</v>
       </c>
       <c r="C121">
-        <v>177.4998615612925</v>
+        <v>167.2998615612925</v>
       </c>
       <c r="D121">
-        <v>85.18685233716545</v>
+        <v>77.52059215972274</v>
       </c>
       <c r="E121">
         <v>107349.51085103</v>
@@ -3189,10 +3189,10 @@
         <v>21</v>
       </c>
       <c r="C122">
-        <v>183.4023723515635</v>
+        <v>178.0023723515635</v>
       </c>
       <c r="D122">
-        <v>79.9705595378999</v>
+        <v>85.77964532785046</v>
       </c>
       <c r="E122">
         <v>16887.31634559023</v>
@@ -3212,10 +3212,10 @@
         <v>30</v>
       </c>
       <c r="C123">
-        <v>155.5939449642447</v>
+        <v>150.1939449642447</v>
       </c>
       <c r="D123">
-        <v>70.87133321231627</v>
+        <v>50.63130147728989</v>
       </c>
       <c r="E123">
         <v>23607.75462742032</v>
@@ -3235,10 +3235,10 @@
         <v>54</v>
       </c>
       <c r="C124">
-        <v>150.2546878170797</v>
+        <v>144.8546878170797</v>
       </c>
       <c r="D124">
-        <v>55.24272403608803</v>
+        <v>38.23535775316205</v>
       </c>
       <c r="E124">
         <v>76957.64775065525</v>
@@ -3258,10 +3258,10 @@
         <v>76</v>
       </c>
       <c r="C125">
-        <v>155.0709554512403</v>
+        <v>149.6709554512403</v>
       </c>
       <c r="D125">
-        <v>68.55188079548998</v>
+        <v>48.95166080628724</v>
       </c>
       <c r="E125">
         <v>116265.827054177</v>
@@ -3281,10 +3281,10 @@
         <v>19</v>
       </c>
       <c r="C126">
-        <v>165.5980664544522</v>
+        <v>160.1980664544522</v>
       </c>
       <c r="D126">
-        <v>69.24900371635137</v>
+        <v>59.7459812125509</v>
       </c>
       <c r="E126">
         <v>16061.70135328615</v>
@@ -3304,10 +3304,10 @@
         <v>67</v>
       </c>
       <c r="C127">
-        <v>169.2007153310777</v>
+        <v>159.0007153310777</v>
       </c>
       <c r="D127">
-        <v>77.27076776833842</v>
+        <v>63.29052032445881</v>
       </c>
       <c r="E127">
         <v>91543.85074170164</v>
@@ -3327,10 +3327,10 @@
         <v>18</v>
       </c>
       <c r="C128">
-        <v>159.67915280856</v>
+        <v>154.27915280856</v>
       </c>
       <c r="D128">
-        <v>78.42491710095352</v>
+        <v>58.85212643578111</v>
       </c>
       <c r="E128">
         <v>13401.10020339856</v>
@@ -3350,10 +3350,10 @@
         <v>57</v>
       </c>
       <c r="C129">
-        <v>177.4854481146692</v>
+        <v>172.0854481146692</v>
       </c>
       <c r="D129">
-        <v>84.64381599561038</v>
+        <v>82.64150849619254</v>
       </c>
       <c r="E129">
         <v>68330.48954743211</v>
@@ -3373,10 +3373,10 @@
         <v>42</v>
       </c>
       <c r="C130">
-        <v>195.496914955273</v>
+        <v>190.096914955273</v>
       </c>
       <c r="D130">
-        <v>73.8505248719716</v>
+        <v>93.56611907450487</v>
       </c>
       <c r="E130">
         <v>52787.98451960007</v>
@@ -3396,10 +3396,10 @@
         <v>76</v>
       </c>
       <c r="C131">
-        <v>164.1182005869619</v>
+        <v>158.7182005869619</v>
       </c>
       <c r="D131">
-        <v>69.24801781990276</v>
+        <v>58.27665018207422</v>
       </c>
       <c r="E131">
         <v>156942.4506691892</v>
@@ -3419,10 +3419,10 @@
         <v>54</v>
       </c>
       <c r="C132">
-        <v>176.1260837526887</v>
+        <v>165.9260837526887</v>
       </c>
       <c r="D132">
-        <v>88.20442054036863</v>
+        <v>77.92754528482382</v>
       </c>
       <c r="E132">
         <v>73204.37898078447</v>
@@ -3442,10 +3442,10 @@
         <v>53</v>
       </c>
       <c r="C133">
-        <v>168.0981349507679</v>
+        <v>162.6981349507679</v>
       </c>
       <c r="D133">
-        <v>81.11062808048118</v>
+        <v>69.66429153854587</v>
       </c>
       <c r="E133">
         <v>55435.32587989122</v>
@@ -3465,10 +3465,10 @@
         <v>23</v>
       </c>
       <c r="C134">
-        <v>192.4924244011623</v>
+        <v>187.0924244011623</v>
       </c>
       <c r="D134">
-        <v>70.9180796761551</v>
+        <v>87.89200224906016</v>
       </c>
       <c r="E134">
         <v>26128.33859857935</v>
@@ -3488,10 +3488,10 @@
         <v>24</v>
       </c>
       <c r="C135">
-        <v>183.8974491551903</v>
+        <v>173.6974491551903</v>
       </c>
       <c r="D135">
-        <v>65.97749538238429</v>
+        <v>70.73296585985781</v>
       </c>
       <c r="E135">
         <v>23971.36317788183</v>
@@ -3511,10 +3511,10 @@
         <v>21</v>
       </c>
       <c r="C136">
-        <v>164.8879842756295</v>
+        <v>154.6879842756296</v>
       </c>
       <c r="D136">
-        <v>79.47875697853792</v>
+        <v>59.87172540157752</v>
       </c>
       <c r="E136">
         <v>21683.74340738421</v>
@@ -3534,10 +3534,10 @@
         <v>52</v>
       </c>
       <c r="C137">
-        <v>166.5219193262757</v>
+        <v>161.1219193262757</v>
       </c>
       <c r="D137">
-        <v>63.2412950909004</v>
+        <v>56.99086916423481</v>
       </c>
       <c r="E137">
         <v>88822.92218002725</v>
@@ -3557,10 +3557,10 @@
         <v>75</v>
       </c>
       <c r="C138">
-        <v>172.1718225718908</v>
+        <v>161.9718225718908</v>
       </c>
       <c r="D138">
-        <v>67.70818308670773</v>
+        <v>60.55154186071271</v>
       </c>
       <c r="E138">
         <v>146351.5116042727</v>
@@ -3580,10 +3580,10 @@
         <v>58</v>
       </c>
       <c r="C139">
-        <v>154.9055410159032</v>
+        <v>144.7055410159032</v>
       </c>
       <c r="D139">
-        <v>77.92968321657884</v>
+        <v>48.25054879872205</v>
       </c>
       <c r="E139">
         <v>81487.0153987349</v>
@@ -3603,10 +3603,10 @@
         <v>78</v>
       </c>
       <c r="C140">
-        <v>173.0106930040248</v>
+        <v>162.8106930040248</v>
       </c>
       <c r="D140">
-        <v>78.84733670598035</v>
+        <v>68.3677665014505</v>
       </c>
       <c r="E140">
         <v>127083.253557345</v>
@@ -3626,10 +3626,10 @@
         <v>51</v>
       </c>
       <c r="C141">
-        <v>173.7584698620778</v>
+        <v>163.5584698620778</v>
       </c>
       <c r="D141">
-        <v>73.74107224623668</v>
+        <v>65.9362381382207</v>
       </c>
       <c r="E141">
         <v>49775.23745766294</v>
@@ -3649,10 +3649,10 @@
         <v>46</v>
       </c>
       <c r="C142">
-        <v>163.1862386472529</v>
+        <v>157.7862386472529</v>
       </c>
       <c r="D142">
-        <v>69.48864697344891</v>
+        <v>57.49074696700016</v>
       </c>
       <c r="E142">
         <v>44823.89044777242</v>
@@ -3672,10 +3672,10 @@
         <v>22</v>
       </c>
       <c r="C143">
-        <v>177.2068356965047</v>
+        <v>171.8068356965047</v>
       </c>
       <c r="D143">
-        <v>56.25082631652415</v>
+        <v>61.93398913998416</v>
       </c>
       <c r="E143">
         <v>16384.61609346352</v>
@@ -3695,10 +3695,10 @@
         <v>44</v>
       </c>
       <c r="C144">
-        <v>186.9119050379051</v>
+        <v>176.7119050379051</v>
       </c>
       <c r="D144">
-        <v>79.44691974117688</v>
+        <v>83.95881713876379</v>
       </c>
       <c r="E144">
         <v>65763.41116507807</v>
@@ -3718,10 +3718,10 @@
         <v>50</v>
       </c>
       <c r="C145">
-        <v>169.3148159935038</v>
+        <v>159.1148159935038</v>
       </c>
       <c r="D145">
-        <v>87.86290985252407</v>
+        <v>69.67444228390883</v>
       </c>
       <c r="E145">
         <v>72082.67178954354</v>
@@ -3741,10 +3741,10 @@
         <v>74</v>
       </c>
       <c r="C146">
-        <v>165.3343910666513</v>
+        <v>159.9343910666513</v>
       </c>
       <c r="D146">
-        <v>77.71635788875714</v>
+        <v>64.55914317980141</v>
       </c>
       <c r="E146">
         <v>136438.8885273467</v>
@@ -3764,10 +3764,10 @@
         <v>63</v>
       </c>
       <c r="C147">
-        <v>175.847123608307</v>
+        <v>165.647123608307</v>
       </c>
       <c r="D147">
-        <v>72.0216884791727</v>
+        <v>66.97430394320436</v>
       </c>
       <c r="E147">
         <v>75526.32425094888</v>
@@ -3787,10 +3787,10 @@
         <v>69</v>
       </c>
       <c r="C148">
-        <v>177.9517536403082</v>
+        <v>172.5517536403082</v>
       </c>
       <c r="D148">
-        <v>88.35531580408033</v>
+        <v>85.86885714238511</v>
       </c>
       <c r="E148">
         <v>135766.8299103073</v>
@@ -3810,10 +3810,10 @@
         <v>27</v>
       </c>
       <c r="C149">
-        <v>173.6085812926071</v>
+        <v>168.2085812926071</v>
       </c>
       <c r="D149">
-        <v>75.93994526739247</v>
+        <v>72.26013368905286</v>
       </c>
       <c r="E149">
         <v>33232.70463707065</v>
@@ -3833,10 +3833,10 @@
         <v>71</v>
       </c>
       <c r="C150">
-        <v>165.1758645873269</v>
+        <v>159.7758645873269</v>
       </c>
       <c r="D150">
-        <v>109.2409938837172</v>
+        <v>83.23250795397887</v>
       </c>
       <c r="E150">
         <v>141712.3058103183</v>
@@ -3856,10 +3856,10 @@
         <v>23</v>
       </c>
       <c r="C151">
-        <v>166.5230053078911</v>
+        <v>161.1230053078911</v>
       </c>
       <c r="D151">
-        <v>66.17672639700304</v>
+        <v>58.7861055805961</v>
       </c>
       <c r="E151">
         <v>15847.63844739139</v>
@@ -3879,10 +3879,10 @@
         <v>51</v>
       </c>
       <c r="C152">
-        <v>157.3344132300504</v>
+        <v>147.1344132300504</v>
       </c>
       <c r="D152">
-        <v>61.06200468154117</v>
+        <v>42.92154158216542</v>
       </c>
       <c r="E152">
         <v>49775.23745766294</v>
@@ -3902,10 +3902,10 @@
         <v>25</v>
       </c>
       <c r="C153">
-        <v>162.3343354359422</v>
+        <v>152.1343354359422</v>
       </c>
       <c r="D153">
-        <v>71.45308792231536</v>
+        <v>52.89189316754126</v>
       </c>
       <c r="E153">
         <v>17083.15531611039</v>
@@ -3925,10 +3925,10 @@
         <v>79</v>
       </c>
       <c r="C154">
-        <v>172.0572968465048</v>
+        <v>161.8572968465048</v>
       </c>
       <c r="D154">
-        <v>50.93660670346861</v>
+        <v>50.0651970660527</v>
       </c>
       <c r="E154">
         <v>129534.9786630671</v>
@@ -3948,10 +3948,10 @@
         <v>48</v>
       </c>
       <c r="C155">
-        <v>163.9162712438782</v>
+        <v>158.5162712438782</v>
       </c>
       <c r="D155">
-        <v>41.86536429354354</v>
+        <v>42.05293150041111</v>
       </c>
       <c r="E155">
         <v>71277.49844896869</v>
@@ -3971,10 +3971,10 @@
         <v>26</v>
       </c>
       <c r="C156">
-        <v>166.768299817603</v>
+        <v>156.568299817603</v>
       </c>
       <c r="D156">
-        <v>75.051637183824</v>
+        <v>59.42592508544607</v>
       </c>
       <c r="E156">
         <v>27029.36799780265</v>
@@ -3994,10 +3994,10 @@
         <v>72</v>
       </c>
       <c r="C157">
-        <v>153.8473174079125</v>
+        <v>148.4473174079125</v>
       </c>
       <c r="D157">
-        <v>46.51668360459328</v>
+        <v>37.07028057592547</v>
       </c>
       <c r="E157">
         <v>107208.8016271885</v>
@@ -4017,10 +4017,10 @@
         <v>38</v>
       </c>
       <c r="C158">
-        <v>174.3367850824967</v>
+        <v>168.9367850824967</v>
       </c>
       <c r="D158">
-        <v>98.30978164497765</v>
+        <v>88.45263841241906</v>
       </c>
       <c r="E158">
         <v>41106.17736513544</v>
@@ -4040,10 +4040,10 @@
         <v>25</v>
       </c>
       <c r="C159">
-        <v>167.8202469471917</v>
+        <v>162.4202469471917</v>
       </c>
       <c r="D159">
-        <v>59.06860936591523</v>
+        <v>55.59684591863376</v>
       </c>
       <c r="E159">
         <v>24242.15133667065</v>
@@ -4063,10 +4063,10 @@
         <v>21</v>
       </c>
       <c r="C160">
-        <v>180.233244629488</v>
+        <v>170.033244629488</v>
       </c>
       <c r="D160">
-        <v>73.01538640575858</v>
+        <v>72.14501756755725</v>
       </c>
       <c r="E160">
         <v>17753.14756947739</v>
@@ -4086,10 +4086,10 @@
         <v>39</v>
       </c>
       <c r="C161">
-        <v>168.6586472703356</v>
+        <v>163.2586472703356</v>
       </c>
       <c r="D161">
-        <v>58.80255673745948</v>
+        <v>56.17529613358914</v>
       </c>
       <c r="E161">
         <v>52202.04344967655</v>
@@ -4109,10 +4109,10 @@
         <v>45</v>
       </c>
       <c r="C162">
-        <v>170.4672382504251</v>
+        <v>160.2672382504252</v>
       </c>
       <c r="D162">
-        <v>89.49090911220708</v>
+        <v>72.01387088225282</v>
       </c>
       <c r="E162">
         <v>68018.0360562756</v>
@@ -4132,10 +4132,10 @@
         <v>62</v>
       </c>
       <c r="C163">
-        <v>164.0491180628724</v>
+        <v>153.8491180628724</v>
       </c>
       <c r="D163">
-        <v>60.38196094553751</v>
+        <v>48.66988885710172</v>
       </c>
       <c r="E163">
         <v>81490.03550593041</v>
@@ -4155,10 +4155,10 @@
         <v>21</v>
       </c>
       <c r="C164">
-        <v>150.5028353928643</v>
+        <v>145.1028353928643</v>
       </c>
       <c r="D164">
-        <v>62.19429934434303</v>
+        <v>41.58224307488359</v>
       </c>
       <c r="E164">
         <v>22795.49270541717</v>
@@ -4178,10 +4178,10 @@
         <v>56</v>
       </c>
       <c r="C165">
-        <v>164.6997408505182</v>
+        <v>154.4997408505182</v>
       </c>
       <c r="D165">
-        <v>64.76755348090353</v>
+        <v>51.64807105746871</v>
       </c>
       <c r="E165">
         <v>63295.0234500029</v>
@@ -4201,10 +4201,10 @@
         <v>38</v>
       </c>
       <c r="C166">
-        <v>159.3964449256481</v>
+        <v>153.9964449256481</v>
       </c>
       <c r="D166">
-        <v>69.80387982043217</v>
+        <v>53.8905470008997</v>
       </c>
       <c r="E166">
         <v>33654.89155031444</v>
@@ -4224,10 +4224,10 @@
         <v>25</v>
       </c>
       <c r="C167">
-        <v>160.9151179090308</v>
+        <v>155.5151179090308</v>
       </c>
       <c r="D167">
-        <v>55.27933930476343</v>
+        <v>47.34292576708189</v>
       </c>
       <c r="E167">
         <v>26791.72064887709</v>
@@ -4247,10 +4247,10 @@
         <v>37</v>
       </c>
       <c r="C168">
-        <v>169.6502458982513</v>
+        <v>159.4502458982513</v>
       </c>
       <c r="D168">
-        <v>48.24064590722705</v>
+        <v>46.51425638422654</v>
       </c>
       <c r="E168">
         <v>33993.04824878889</v>
@@ -4270,10 +4270,10 @@
         <v>49</v>
       </c>
       <c r="C169">
-        <v>155.736027437865</v>
+        <v>145.536027437865</v>
       </c>
       <c r="D169">
-        <v>74.80235088203696</v>
+        <v>47.72282725317195</v>
       </c>
       <c r="E169">
         <v>63276.22199177335</v>
@@ -4293,10 +4293,10 @@
         <v>18</v>
       </c>
       <c r="C170">
-        <v>156.9746299616107</v>
+        <v>151.5746299616107</v>
       </c>
       <c r="D170">
-        <v>96.20216655450736</v>
+        <v>65.08830040402279</v>
       </c>
       <c r="E170">
         <v>10971.892861602</v>
@@ -4316,10 +4316,10 @@
         <v>23</v>
       </c>
       <c r="C171">
-        <v>158.0924194543072</v>
+        <v>147.8924194543072</v>
       </c>
       <c r="D171">
-        <v>76.10986952277433</v>
+        <v>50.81858379426516</v>
       </c>
       <c r="E171">
         <v>20348.77056092841</v>
@@ -4339,10 +4339,10 @@
         <v>45</v>
       </c>
       <c r="C172">
-        <v>168.2945717971058</v>
+        <v>162.8945717971058</v>
       </c>
       <c r="D172">
-        <v>74.66770814528867</v>
+        <v>65.83030684782375</v>
       </c>
       <c r="E172">
         <v>52972.49974360649</v>
@@ -4362,10 +4362,10 @@
         <v>61</v>
       </c>
       <c r="C173">
-        <v>178.1405177531633</v>
+        <v>167.9405177531633</v>
       </c>
       <c r="D173">
-        <v>74.4964222694649</v>
+        <v>70.99541032340626</v>
       </c>
       <c r="E173">
         <v>107349.51085103</v>
@@ -4385,10 +4385,10 @@
         <v>48</v>
       </c>
       <c r="C174">
-        <v>164.7985371470865</v>
+        <v>159.3985371470865</v>
       </c>
       <c r="D174">
-        <v>78.87445153862419</v>
+        <v>64.66983154085641</v>
       </c>
       <c r="E174">
         <v>52803.66957560888</v>
@@ -4408,10 +4408,10 @@
         <v>27</v>
       </c>
       <c r="C175">
-        <v>189.3460204125905</v>
+        <v>179.1460204125905</v>
       </c>
       <c r="D175">
-        <v>67.52302824314772</v>
+        <v>77.18559584029808</v>
       </c>
       <c r="E175">
         <v>31611.92650652292</v>
@@ -4431,10 +4431,10 @@
         <v>37</v>
       </c>
       <c r="C176">
-        <v>169.4780428354531</v>
+        <v>164.0780428354531</v>
       </c>
       <c r="D176">
-        <v>62.12728674030416</v>
+        <v>59.03336226059282</v>
       </c>
       <c r="E176">
         <v>32335.18772272046</v>
@@ -4454,10 +4454,10 @@
         <v>25</v>
       </c>
       <c r="C177">
-        <v>159.4251434424488</v>
+        <v>149.2251434424488</v>
       </c>
       <c r="D177">
-        <v>84.0876566323213</v>
+        <v>56.15981262738858</v>
       </c>
       <c r="E177">
         <v>17083.15531611039</v>
@@ -4477,10 +4477,10 @@
         <v>39</v>
       </c>
       <c r="C178">
-        <v>168.4191001924832</v>
+        <v>163.0191001924832</v>
       </c>
       <c r="D178">
-        <v>46.16879330667675</v>
+        <v>48.00088816934007</v>
       </c>
       <c r="E178">
         <v>47234.36221120632</v>
@@ -4500,10 +4500,10 @@
         <v>55</v>
       </c>
       <c r="C179">
-        <v>167.6158848209696</v>
+        <v>157.4158848209696</v>
       </c>
       <c r="D179">
-        <v>94.40638490008303</v>
+        <v>71.4290266641638</v>
       </c>
       <c r="E179">
         <v>91907.16112336449</v>
@@ -4523,10 +4523,10 @@
         <v>46</v>
       </c>
       <c r="C180">
-        <v>172.7949990444545</v>
+        <v>162.5949990444545</v>
       </c>
       <c r="D180">
-        <v>66.72169011165312</v>
+        <v>60.5429410011695</v>
       </c>
       <c r="E180">
         <v>63608.12833613312</v>
@@ -4546,10 +4546,10 @@
         <v>26</v>
       </c>
       <c r="C181">
-        <v>189.620777634206</v>
+        <v>179.420777634206</v>
       </c>
       <c r="D181">
-        <v>55.64842807129499</v>
+        <v>68.02264760569609</v>
       </c>
       <c r="E181">
         <v>20023.84830628353</v>
@@ -4569,10 +4569,10 @@
         <v>61</v>
       </c>
       <c r="C182">
-        <v>182.4693061123004</v>
+        <v>177.0693061123004</v>
       </c>
       <c r="D182">
-        <v>71.22878341435059</v>
+        <v>78.01632096336347</v>
       </c>
       <c r="E182">
         <v>68449.07018144379</v>
@@ -4592,10 +4592,10 @@
         <v>64</v>
       </c>
       <c r="C183">
-        <v>171.8786032329176</v>
+        <v>161.6786032329177</v>
       </c>
       <c r="D183">
-        <v>88.27358785571214</v>
+        <v>72.94949698286096</v>
       </c>
       <c r="E183">
         <v>69972.60417478814</v>
@@ -4615,10 +4615,10 @@
         <v>18</v>
       </c>
       <c r="C184">
-        <v>182.8141221317109</v>
+        <v>177.4141221317109</v>
       </c>
       <c r="D184">
-        <v>45.83013398893285</v>
+        <v>58.70323253883253</v>
       </c>
       <c r="E184">
         <v>18089.59314076612</v>
@@ -4638,10 +4638,10 @@
         <v>58</v>
       </c>
       <c r="C185">
-        <v>183.7526451724148</v>
+        <v>173.5526451724148</v>
       </c>
       <c r="D185">
-        <v>88.69783937657962</v>
+        <v>87.30540062397846</v>
       </c>
       <c r="E185">
         <v>73732.50061684776</v>
@@ -4661,10 +4661,10 @@
         <v>69</v>
       </c>
       <c r="C186">
-        <v>184.2060848215677</v>
+        <v>178.8060848215677</v>
       </c>
       <c r="D186">
-        <v>74.0586021100671</v>
+        <v>82.00451024299707</v>
       </c>
       <c r="E186">
         <v>91007.22767558999</v>
@@ -4684,10 +4684,10 @@
         <v>56</v>
       </c>
       <c r="C187">
-        <v>164.4272511494306</v>
+        <v>154.2272511494307</v>
       </c>
       <c r="D187">
-        <v>51.21352697690793</v>
+        <v>44.03986324107848</v>
       </c>
       <c r="E187">
         <v>63295.0234500029</v>
@@ -4707,10 +4707,10 @@
         <v>43</v>
       </c>
       <c r="C188">
-        <v>186.579745254706</v>
+        <v>176.3797452547061</v>
       </c>
       <c r="D188">
-        <v>78.71253331778965</v>
+        <v>83.03435600806517</v>
       </c>
       <c r="E188">
         <v>38535.4788305549</v>
@@ -4730,10 +4730,10 @@
         <v>28</v>
       </c>
       <c r="C189">
-        <v>174.5282079646213</v>
+        <v>164.3282079646214</v>
       </c>
       <c r="D189">
-        <v>70.98900736753046</v>
+        <v>64.96441868079178</v>
       </c>
       <c r="E189">
         <v>33384.30691544545</v>
@@ -4753,10 +4753,10 @@
         <v>69</v>
       </c>
       <c r="C190">
-        <v>166.3156708676438</v>
+        <v>156.1156708676438</v>
       </c>
       <c r="D190">
-        <v>69.17952469134228</v>
+        <v>55.65525564388714</v>
       </c>
       <c r="E190">
         <v>86568.7528072569</v>
@@ -4776,10 +4776,10 @@
         <v>52</v>
       </c>
       <c r="C191">
-        <v>157.1326037242439</v>
+        <v>146.932603724244</v>
       </c>
       <c r="D191">
-        <v>71.34706677458645</v>
+        <v>47.56481723546158</v>
       </c>
       <c r="E191">
         <v>56635.99569129538</v>
@@ -4799,10 +4799,10 @@
         <v>77</v>
       </c>
       <c r="C192">
-        <v>153.6547871135788</v>
+        <v>148.2547871135788</v>
       </c>
       <c r="D192">
-        <v>64.60137140090877</v>
+        <v>45.64969037603455</v>
       </c>
       <c r="E192">
         <v>97075.33283543361</v>
@@ -4822,10 +4822,10 @@
         <v>41</v>
       </c>
       <c r="C193">
-        <v>169.8972336071376</v>
+        <v>159.6972336071376</v>
       </c>
       <c r="D193">
-        <v>52.66924258044639</v>
+        <v>49.35125086450035</v>
       </c>
       <c r="E193">
         <v>35878.46560090454</v>
@@ -4845,10 +4845,10 @@
         <v>50</v>
       </c>
       <c r="C194">
-        <v>167.4396540470041</v>
+        <v>157.2396540470041</v>
       </c>
       <c r="D194">
-        <v>40.79800062485902</v>
+        <v>40.52453062986513</v>
       </c>
       <c r="E194">
         <v>65223.09862718407</v>
@@ -4868,10 +4868,10 @@
         <v>37</v>
       </c>
       <c r="C195">
-        <v>179.1804028722046</v>
+        <v>173.7804028722046</v>
       </c>
       <c r="D195">
-        <v>62.1903029853661</v>
+        <v>68.01837695170916</v>
       </c>
       <c r="E195">
         <v>53311.71179053087</v>
@@ -4891,10 +4891,10 @@
         <v>44</v>
       </c>
       <c r="C196">
-        <v>168.7274362661679</v>
+        <v>158.5274362661679</v>
       </c>
       <c r="D196">
-        <v>43.42453262450719</v>
+        <v>42.97349653554009</v>
       </c>
       <c r="E196">
         <v>53842.52714816134</v>
@@ -4914,10 +4914,10 @@
         <v>32</v>
       </c>
       <c r="C197">
-        <v>172.1767068575814</v>
+        <v>161.9767068575814</v>
       </c>
       <c r="D197">
-        <v>59.65545943281165</v>
+        <v>55.56550127449152</v>
       </c>
       <c r="E197">
         <v>40787.80035020566</v>
@@ -4937,10 +4937,10 @@
         <v>50</v>
       </c>
       <c r="C198">
-        <v>174.3243366577362</v>
+        <v>164.1243366577362</v>
       </c>
       <c r="D198">
-        <v>61.42650871907215</v>
+        <v>58.62664224543236</v>
       </c>
       <c r="E198">
         <v>65223.09862718407</v>
@@ -4960,10 +4960,10 @@
         <v>69</v>
       </c>
       <c r="C199">
-        <v>164.8426926718207</v>
+        <v>159.4426926718207</v>
       </c>
       <c r="D199">
-        <v>70.47013013933747</v>
+        <v>59.72215068570466</v>
       </c>
       <c r="E199">
         <v>111156.4788954761</v>
@@ -4983,10 +4983,10 @@
         <v>24</v>
       </c>
       <c r="C200">
-        <v>167.0239669835797</v>
+        <v>156.8239669835797</v>
       </c>
       <c r="D200">
-        <v>53.28529330054769</v>
+        <v>47.32600756728075</v>
       </c>
       <c r="E200">
         <v>17758.42261675367</v>
@@ -5006,10 +5006,10 @@
         <v>51</v>
       </c>
       <c r="C201">
-        <v>163.4629801670468</v>
+        <v>153.2629801670468</v>
       </c>
       <c r="D201">
-        <v>74.3804801487932</v>
+        <v>55.59615443991994</v>
       </c>
       <c r="E201">
         <v>60795.61231886692</v>
@@ -5029,10 +5029,10 @@
         <v>62</v>
       </c>
       <c r="C202">
-        <v>188.6875672588148</v>
+        <v>183.2875672588148</v>
       </c>
       <c r="D202">
-        <v>70.53273350905177</v>
+        <v>83.73126803847653</v>
       </c>
       <c r="E202">
         <v>70139.12355911547</v>
@@ -5052,10 +5052,10 @@
         <v>77</v>
       </c>
       <c r="C203">
-        <v>172.3740972165161</v>
+        <v>162.1740972165161</v>
       </c>
       <c r="D203">
-        <v>71.74299797041466</v>
+        <v>63.25779046912361</v>
       </c>
       <c r="E203">
         <v>92340.91298626475</v>
@@ -5075,10 +5075,10 @@
         <v>75</v>
       </c>
       <c r="C204">
-        <v>156.8004425035712</v>
+        <v>151.4004425035712</v>
       </c>
       <c r="D204">
-        <v>83.48641071133576</v>
+        <v>58.33251728704682</v>
       </c>
       <c r="E204">
         <v>139213.864158142</v>
@@ -5098,10 +5098,10 @@
         <v>68</v>
       </c>
       <c r="C205">
-        <v>161.8851145556086</v>
+        <v>151.6851145556086</v>
       </c>
       <c r="D205">
-        <v>58.23390860278951</v>
+        <v>45.60379673824275</v>
       </c>
       <c r="E205">
         <v>93600.96836758917</v>
@@ -5121,10 +5121,10 @@
         <v>63</v>
       </c>
       <c r="C206">
-        <v>165.5050074780397</v>
+        <v>155.3050074780397</v>
       </c>
       <c r="D206">
-        <v>74.00527879773045</v>
+        <v>57.52012721664084</v>
       </c>
       <c r="E206">
         <v>112672.0358396284</v>
@@ -5144,10 +5144,10 @@
         <v>59</v>
       </c>
       <c r="C207">
-        <v>174.1072376373242</v>
+        <v>168.7072376373242</v>
       </c>
       <c r="D207">
-        <v>59.92336010374298</v>
+        <v>61.78385671794544</v>
       </c>
       <c r="E207">
         <v>79526.1053810716</v>
@@ -5167,10 +5167,10 @@
         <v>22</v>
       </c>
       <c r="C208">
-        <v>173.1307849670028</v>
+        <v>167.7307849670028</v>
       </c>
       <c r="D208">
-        <v>38.67249164582513</v>
+        <v>46.51241764811677</v>
       </c>
       <c r="E208">
         <v>14825.41372151996</v>
@@ -5190,10 +5190,10 @@
         <v>75</v>
       </c>
       <c r="C209">
-        <v>174.3104085120399</v>
+        <v>164.1104085120399</v>
       </c>
       <c r="D209">
-        <v>95.45762832719876</v>
+        <v>80.43139803008377</v>
       </c>
       <c r="E209">
         <v>108419.8664207571</v>
@@ -5213,10 +5213,10 @@
         <v>47</v>
       </c>
       <c r="C210">
-        <v>156.8557123999028</v>
+        <v>146.6557123999029</v>
       </c>
       <c r="D210">
-        <v>111.3555953306101</v>
+        <v>65.95046001861996</v>
       </c>
       <c r="E210">
         <v>72602.58839642578</v>
@@ -5236,10 +5236,10 @@
         <v>45</v>
       </c>
       <c r="C211">
-        <v>193.2129057953224</v>
+        <v>183.0129057953224</v>
       </c>
       <c r="D211">
-        <v>105.0161482160274</v>
+        <v>112.0808279270437</v>
       </c>
       <c r="E211">
         <v>61545.26412503721</v>
@@ -5259,10 +5259,10 @@
         <v>35</v>
       </c>
       <c r="C212">
-        <v>179.6617714710514</v>
+        <v>174.2617714710514</v>
       </c>
       <c r="D212">
-        <v>65.47543825543531</v>
+        <v>70.90175176823611</v>
       </c>
       <c r="E212">
         <v>32877.91854880939</v>
@@ -5282,10 +5282,10 @@
         <v>53</v>
       </c>
       <c r="C213">
-        <v>169.6343189997575</v>
+        <v>164.2343189997574</v>
       </c>
       <c r="D213">
-        <v>36.44485450095745</v>
+        <v>42.6803997990697</v>
       </c>
       <c r="E213">
         <v>91397.40092636994</v>
@@ -5305,10 +5305,10 @@
         <v>20</v>
       </c>
       <c r="C214">
-        <v>164.6863343453774</v>
+        <v>154.4863343453774</v>
       </c>
       <c r="D214">
-        <v>97.98399156255607</v>
+        <v>69.7337855513339</v>
       </c>
       <c r="E214">
         <v>16500.28381725625</v>
@@ -5328,10 +5328,10 @@
         <v>38</v>
       </c>
       <c r="C215">
-        <v>157.5815102345217</v>
+        <v>147.3815102345217</v>
       </c>
       <c r="D215">
-        <v>64.20557067428328</v>
+        <v>44.6360221105251</v>
       </c>
       <c r="E215">
         <v>47758.56445047663</v>
@@ -5351,10 +5351,10 @@
         <v>63</v>
       </c>
       <c r="C216">
-        <v>183.6176578160452</v>
+        <v>173.4176578160452</v>
       </c>
       <c r="D216">
-        <v>35.23081423246793</v>
+        <v>47.89093598381343</v>
       </c>
       <c r="E216">
         <v>112672.0358396284</v>
@@ -5374,10 +5374,10 @@
         <v>75</v>
       </c>
       <c r="C217">
-        <v>178.8963403614776</v>
+        <v>168.6963403614776</v>
       </c>
       <c r="D217">
-        <v>71.67098200721134</v>
+        <v>69.84424384853057</v>
       </c>
       <c r="E217">
         <v>146351.5116042727</v>
@@ -5397,10 +5397,10 @@
         <v>33</v>
       </c>
       <c r="C218">
-        <v>159.1773945906403</v>
+        <v>148.9773945906403</v>
       </c>
       <c r="D218">
-        <v>78.72379160659031</v>
+        <v>53.25008042906519</v>
       </c>
       <c r="E218">
         <v>34971.74723569577</v>
@@ -5420,10 +5420,10 @@
         <v>73</v>
       </c>
       <c r="C219">
-        <v>163.7941372595643</v>
+        <v>158.3941372595643</v>
       </c>
       <c r="D219">
-        <v>50.38961837005882</v>
+        <v>46.94282409345207</v>
       </c>
       <c r="E219">
         <v>89610.12655628375</v>
@@ -5443,10 +5443,10 @@
         <v>54</v>
       </c>
       <c r="C220">
-        <v>158.2917324062662</v>
+        <v>148.0917324062662</v>
       </c>
       <c r="D220">
-        <v>82.71183920053369</v>
+        <v>54.20507609850171</v>
       </c>
       <c r="E220">
         <v>59934.67633154365</v>
@@ -5466,10 +5466,10 @@
         <v>59</v>
       </c>
       <c r="C221">
-        <v>177.748627961384</v>
+        <v>172.348627961384</v>
       </c>
       <c r="D221">
-        <v>52.79480315613166</v>
+        <v>59.90090410678987</v>
       </c>
       <c r="E221">
         <v>97133.40445817714</v>
@@ -5489,10 +5489,10 @@
         <v>80</v>
       </c>
       <c r="C222">
-        <v>180.938178477321</v>
+        <v>170.738178477321</v>
       </c>
       <c r="D222">
-        <v>80.09378395419097</v>
+        <v>77.87833738595185</v>
       </c>
       <c r="E222">
         <v>119440.5936485334</v>
@@ -5512,10 +5512,10 @@
         <v>22</v>
       </c>
       <c r="C223">
-        <v>165.3786090802379</v>
+        <v>155.1786090802379</v>
       </c>
       <c r="D223">
-        <v>87.70002898336368</v>
+        <v>64.945238880057</v>
       </c>
       <c r="E223">
         <v>15585.52893725044</v>
@@ -5535,10 +5535,10 @@
         <v>67</v>
       </c>
       <c r="C224">
-        <v>161.8332524499002</v>
+        <v>151.6332524499002</v>
       </c>
       <c r="D224">
-        <v>93.80626270631031</v>
+        <v>63.92520017193581</v>
       </c>
       <c r="E224">
         <v>111811.9117885173</v>
@@ -5558,10 +5558,10 @@
         <v>68</v>
       </c>
       <c r="C225">
-        <v>156.0538470026586</v>
+        <v>150.6538470026586</v>
       </c>
       <c r="D225">
-        <v>58.41406524421978</v>
+        <v>44.78512533763779</v>
       </c>
       <c r="E225">
         <v>89035.9952730114</v>
@@ -5581,10 +5581,10 @@
         <v>31</v>
       </c>
       <c r="C226">
-        <v>177.8244164702798</v>
+        <v>172.4244164702798</v>
       </c>
       <c r="D226">
-        <v>55.46892492439856</v>
+        <v>61.90037013991719</v>
       </c>
       <c r="E226">
         <v>24797.92494756584</v>
@@ -5604,10 +5604,10 @@
         <v>48</v>
       </c>
       <c r="C227">
-        <v>180.4395119270175</v>
+        <v>175.0395119270175</v>
       </c>
       <c r="D227">
-        <v>54.04164992328724</v>
+        <v>63.06444391784738</v>
       </c>
       <c r="E227">
         <v>58357.07998263881</v>
@@ -5627,10 +5627,10 @@
         <v>63</v>
       </c>
       <c r="C228">
-        <v>158.2997163041705</v>
+        <v>148.0997163041706</v>
       </c>
       <c r="D228">
-        <v>48.53149247855069</v>
+        <v>37.77342509161392</v>
       </c>
       <c r="E228">
         <v>92248.06075380825</v>
@@ -5650,10 +5650,10 @@
         <v>41</v>
       </c>
       <c r="C229">
-        <v>166.9478365473958</v>
+        <v>156.7478365473958</v>
       </c>
       <c r="D229">
-        <v>42.00098569790195</v>
+        <v>40.85900167635922</v>
       </c>
       <c r="E229">
         <v>48430.86279369364</v>
@@ -5673,10 +5673,10 @@
         <v>52</v>
       </c>
       <c r="C230">
-        <v>171.7605029629051</v>
+        <v>166.3605029629051</v>
       </c>
       <c r="D230">
-        <v>38.02804221287983</v>
+        <v>45.14375096828442</v>
       </c>
       <c r="E230">
         <v>88822.92218002725</v>
@@ -5696,10 +5696,10 @@
         <v>53</v>
       </c>
       <c r="C231">
-        <v>179.2355755839854</v>
+        <v>173.8355755839854</v>
       </c>
       <c r="D231">
-        <v>84.33502542771465</v>
+        <v>84.41992411864913</v>
       </c>
       <c r="E231">
         <v>74829.86288981709</v>
@@ -5719,10 +5719,10 @@
         <v>27</v>
       </c>
       <c r="C232">
-        <v>161.5238595854396</v>
+        <v>156.1238595854396</v>
       </c>
       <c r="D232">
-        <v>75.51736806871084</v>
+        <v>59.22041949313477</v>
       </c>
       <c r="E232">
         <v>33232.70463707065</v>
@@ -5742,10 +5742,10 @@
         <v>44</v>
       </c>
       <c r="C233">
-        <v>162.1672032675608</v>
+        <v>156.7672032675608</v>
       </c>
       <c r="D233">
-        <v>84.75366439573955</v>
+        <v>65.14244592450402</v>
       </c>
       <c r="E233">
         <v>62556.09175576105</v>
@@ -5765,10 +5765,10 @@
         <v>73</v>
       </c>
       <c r="C234">
-        <v>148.2650639324958</v>
+        <v>138.0650639324959</v>
       </c>
       <c r="D234">
-        <v>66.5574796250898</v>
+        <v>36.7546663508971</v>
       </c>
       <c r="E234">
         <v>94204.53599121867</v>
@@ -5788,10 +5788,10 @@
         <v>44</v>
       </c>
       <c r="C235">
-        <v>158.4171249397968</v>
+        <v>148.2171249397968</v>
       </c>
       <c r="D235">
-        <v>80.65537298162162</v>
+        <v>53.35483944314662</v>
       </c>
       <c r="E235">
         <v>48718.73324527336</v>
@@ -5811,10 +5811,10 @@
         <v>72</v>
       </c>
       <c r="C236">
-        <v>169.8207452783187</v>
+        <v>159.6207452783187</v>
       </c>
       <c r="D236">
-        <v>76.39668346594635</v>
+        <v>63.43449563381094</v>
       </c>
       <c r="E236">
         <v>101980.1666732417</v>
@@ -5834,10 +5834,10 @@
         <v>40</v>
       </c>
       <c r="C237">
-        <v>184.9014495283322</v>
+        <v>179.5014495283322</v>
       </c>
       <c r="D237">
-        <v>91.97559189511169</v>
+        <v>96.97236362737664</v>
       </c>
       <c r="E237">
         <v>59925.27399713624</v>
@@ -5857,10 +5857,10 @@
         <v>30</v>
       </c>
       <c r="C238">
-        <v>160.0355663836509</v>
+        <v>154.6355663836509</v>
       </c>
       <c r="D238">
-        <v>79.62148093484203</v>
+        <v>59.89231698689684</v>
       </c>
       <c r="E238">
         <v>35218.63140904062</v>
@@ -5880,10 +5880,10 @@
         <v>33</v>
       </c>
       <c r="C239">
-        <v>164.5849668008424</v>
+        <v>154.3849668008424</v>
       </c>
       <c r="D239">
-        <v>87.7018781932538</v>
+        <v>64.01212737936906</v>
       </c>
       <c r="E239">
         <v>31643.74547295316</v>
@@ -5903,10 +5903,10 @@
         <v>52</v>
       </c>
       <c r="C240">
-        <v>164.9698879656359</v>
+        <v>159.5698879656359</v>
       </c>
       <c r="D240">
-        <v>78.20775464974471</v>
+        <v>64.45923821498313</v>
       </c>
       <c r="E240">
         <v>65801.63916515849</v>
@@ -5926,10 +5926,10 @@
         <v>44</v>
       </c>
       <c r="C241">
-        <v>163.5316426768769</v>
+        <v>153.331642676877</v>
       </c>
       <c r="D241">
-        <v>69.37659062432343</v>
+        <v>52.99916821622698</v>
       </c>
       <c r="E241">
         <v>44082.53279963582</v>
@@ -5949,10 +5949,10 @@
         <v>69</v>
       </c>
       <c r="C242">
-        <v>177.1860771920144</v>
+        <v>166.9860771920144</v>
       </c>
       <c r="D242">
-        <v>74.04598357095017</v>
+        <v>69.69632287002732</v>
       </c>
       <c r="E242">
         <v>86568.7528072569</v>
@@ -5972,10 +5972,10 @@
         <v>56</v>
       </c>
       <c r="C243">
-        <v>160.4229849153248</v>
+        <v>155.0229849153248</v>
       </c>
       <c r="D243">
-        <v>73.44183466148284</v>
+        <v>56.9167850819229</v>
       </c>
       <c r="E243">
         <v>99266.35655752553</v>
@@ -5995,10 +5995,10 @@
         <v>64</v>
       </c>
       <c r="C244">
-        <v>163.5899083853367</v>
+        <v>153.3899083853368</v>
       </c>
       <c r="D244">
-        <v>80.7838923538441</v>
+        <v>59.14741863342744</v>
       </c>
       <c r="E244">
         <v>77331.68719599453</v>
@@ -6018,10 +6018,10 @@
         <v>34</v>
       </c>
       <c r="C245">
-        <v>182.6604121293291</v>
+        <v>177.2604121293291</v>
       </c>
       <c r="D245">
-        <v>49.68437119040254</v>
+        <v>61.56447358436937</v>
       </c>
       <c r="E245">
         <v>42492.17572517615</v>
@@ -6041,10 +6041,10 @@
         <v>79</v>
       </c>
       <c r="C246">
-        <v>174.2904500167385</v>
+        <v>168.8904500167385</v>
       </c>
       <c r="D246">
-        <v>103.4168956916398</v>
+        <v>91.91149984033326</v>
       </c>
       <c r="E246">
         <v>166326.2049534825</v>
@@ -6064,10 +6064,10 @@
         <v>78</v>
       </c>
       <c r="C247">
-        <v>159.9031959132425</v>
+        <v>154.5031959132425</v>
       </c>
       <c r="D247">
-        <v>57.02654568865273</v>
+        <v>47.43224869321385</v>
       </c>
       <c r="E247">
         <v>147649.6756602444</v>
@@ -6087,10 +6087,10 @@
         <v>65</v>
       </c>
       <c r="C248">
-        <v>175.1394624547405</v>
+        <v>169.7394624547404</v>
       </c>
       <c r="D248">
-        <v>91.67775776535704</v>
+        <v>84.85741419254121</v>
       </c>
       <c r="E248">
         <v>112320.9138436629</v>
@@ -6110,10 +6110,10 @@
         <v>76</v>
       </c>
       <c r="C249">
-        <v>168.0123529132416</v>
+        <v>157.8123529132416</v>
       </c>
       <c r="D249">
-        <v>76.47391335889709</v>
+        <v>61.55507455158467</v>
       </c>
       <c r="E249">
         <v>110595.4757578443</v>
@@ -6133,10 +6133,10 @@
         <v>58</v>
       </c>
       <c r="C250">
-        <v>172.3893570634481</v>
+        <v>162.1893570634481</v>
       </c>
       <c r="D250">
-        <v>100.8903335945903</v>
+        <v>81.39985692067813</v>
       </c>
       <c r="E250">
         <v>81487.0153987349</v>
@@ -6156,10 +6156,10 @@
         <v>18</v>
       </c>
       <c r="C251">
-        <v>160.4742401296156</v>
+        <v>150.2742401296156</v>
       </c>
       <c r="D251">
-        <v>96.56694935422638</v>
+        <v>63.63057204307275</v>
       </c>
       <c r="E251">
         <v>12747.52083415521</v>
@@ -6179,10 +6179,10 @@
         <v>28</v>
       </c>
       <c r="C252">
-        <v>167.0627895990745</v>
+        <v>161.6627895990745</v>
       </c>
       <c r="D252">
-        <v>49.35864557616362</v>
+        <v>48.93475465030502</v>
       </c>
       <c r="E252">
         <v>23525.52346682849</v>
@@ -6202,10 +6202,10 @@
         <v>29</v>
       </c>
       <c r="C253">
-        <v>169.0853820727884</v>
+        <v>163.6853820727884</v>
       </c>
       <c r="D253">
-        <v>76.72738622218021</v>
+        <v>67.96974369189597</v>
       </c>
       <c r="E253">
         <v>30287.13141277245</v>
@@ -6225,10 +6225,10 @@
         <v>31</v>
       </c>
       <c r="C254">
-        <v>171.116904498405</v>
+        <v>165.716904498405</v>
       </c>
       <c r="D254">
-        <v>103.4933349909007</v>
+        <v>87.72768746770613</v>
       </c>
       <c r="E254">
         <v>24797.92494756584</v>
@@ -6248,10 +6248,10 @@
         <v>25</v>
       </c>
       <c r="C255">
-        <v>168.2474395905629</v>
+        <v>158.0474395905629</v>
       </c>
       <c r="D255">
-        <v>60.93933034293605</v>
+        <v>52.78795284487827</v>
       </c>
       <c r="E255">
         <v>23059.84766464043</v>
@@ -6271,10 +6271,10 @@
         <v>48</v>
       </c>
       <c r="C256">
-        <v>165.9053199333321</v>
+        <v>160.5053199333321</v>
       </c>
       <c r="D256">
-        <v>57.36185488562263</v>
+        <v>52.85856979823929</v>
       </c>
       <c r="E256">
         <v>52803.66957560888</v>
@@ -6294,10 +6294,10 @@
         <v>24</v>
       </c>
       <c r="C257">
-        <v>180.2505227535445</v>
+        <v>174.8505227535445</v>
       </c>
       <c r="D257">
-        <v>59.86250757806963</v>
+        <v>67.26255668162862</v>
       </c>
       <c r="E257">
         <v>18668.91641422341</v>
@@ -6317,10 +6317,10 @@
         <v>63</v>
       </c>
       <c r="C258">
-        <v>169.5826972721568</v>
+        <v>164.1826972721568</v>
       </c>
       <c r="D258">
-        <v>45.86933622311637</v>
+        <v>48.69498639047757</v>
       </c>
       <c r="E258">
         <v>79398.64170054614</v>
@@ -6340,10 +6340,10 @@
         <v>71</v>
       </c>
       <c r="C259">
-        <v>153.5128674141195</v>
+        <v>148.1128674141195</v>
       </c>
       <c r="D259">
-        <v>65.00767946837549</v>
+        <v>45.71091885585111</v>
       </c>
       <c r="E259">
         <v>141712.3058103183</v>
@@ -6363,10 +6363,10 @@
         <v>48</v>
       </c>
       <c r="C260">
-        <v>173.5475787647808</v>
+        <v>163.3475787647808</v>
       </c>
       <c r="D260">
-        <v>57.17630679215564</v>
+        <v>55.22407960938776</v>
       </c>
       <c r="E260">
         <v>50228.4042219323</v>
@@ -6386,10 +6386,10 @@
         <v>33</v>
       </c>
       <c r="C261">
-        <v>159.4514478538944</v>
+        <v>149.2514478538944</v>
       </c>
       <c r="D261">
-        <v>61.61207687095025</v>
+        <v>45.12027426796574</v>
       </c>
       <c r="E261">
         <v>25907.70756127892</v>
@@ -6409,10 +6409,10 @@
         <v>59</v>
       </c>
       <c r="C262">
-        <v>178.8266346759313</v>
+        <v>173.4266346759313</v>
       </c>
       <c r="D262">
-        <v>70.3428233361911</v>
+        <v>73.67835831458021</v>
       </c>
       <c r="E262">
         <v>107349.0137808568</v>
@@ -6432,10 +6432,10 @@
         <v>56</v>
       </c>
       <c r="C263">
-        <v>180.3647276419292</v>
+        <v>174.9647276419292</v>
       </c>
       <c r="D263">
-        <v>55.95544251282074</v>
+        <v>64.43626337315112</v>
       </c>
       <c r="E263">
         <v>81272.41885965034</v>
@@ -6455,10 +6455,10 @@
         <v>71</v>
       </c>
       <c r="C264">
-        <v>171.5811145770548</v>
+        <v>161.3811145770548</v>
       </c>
       <c r="D264">
-        <v>66.94184475183519</v>
+        <v>59.50398480023455</v>
       </c>
       <c r="E264">
         <v>81760.88796584468</v>
@@ -6478,10 +6478,10 @@
         <v>61</v>
       </c>
       <c r="C265">
-        <v>176.7165818221453</v>
+        <v>166.5165818221453</v>
       </c>
       <c r="D265">
-        <v>86.87783568873597</v>
+        <v>77.7431412078506</v>
       </c>
       <c r="E265">
         <v>79526.47361971285</v>
@@ -6501,10 +6501,10 @@
         <v>36</v>
       </c>
       <c r="C266">
-        <v>185.2114203545476</v>
+        <v>175.0114203545476</v>
       </c>
       <c r="D266">
-        <v>78.43081537131879</v>
+        <v>81.33549471204331</v>
       </c>
       <c r="E266">
         <v>39847.41676449867</v>
@@ -6524,10 +6524,10 @@
         <v>25</v>
       </c>
       <c r="C267">
-        <v>176.1104566980483</v>
+        <v>170.7104566980483</v>
       </c>
       <c r="D267">
-        <v>64.82231107191728</v>
+        <v>67.0492892105967</v>
       </c>
       <c r="E267">
         <v>21935.20562311005</v>
@@ -6547,10 +6547,10 @@
         <v>46</v>
       </c>
       <c r="C268">
-        <v>160.5212248025589</v>
+        <v>155.1212248025589</v>
       </c>
       <c r="D268">
-        <v>70.17109042589959</v>
+        <v>55.21553194083466</v>
       </c>
       <c r="E268">
         <v>54748.02342437852</v>
@@ -6570,10 +6570,10 @@
         <v>19</v>
       </c>
       <c r="C269">
-        <v>179.6914817848988</v>
+        <v>169.4914817848988</v>
       </c>
       <c r="D269">
-        <v>82.42547154138094</v>
+        <v>78.12612607776533</v>
       </c>
       <c r="E269">
         <v>18661.03462872306</v>
@@ -6593,10 +6593,10 @@
         <v>59</v>
       </c>
       <c r="C270">
-        <v>175.2092316747864</v>
+        <v>169.8092316747864</v>
       </c>
       <c r="D270">
-        <v>62.52692915448817</v>
+        <v>64.59233833502213</v>
       </c>
       <c r="E270">
         <v>79526.1053810716</v>
@@ -6616,10 +6616,10 @@
         <v>20</v>
       </c>
       <c r="C271">
-        <v>174.1659295825026</v>
+        <v>168.7659295825026</v>
       </c>
       <c r="D271">
-        <v>72.69481624034026</v>
+        <v>70.61904502071282</v>
       </c>
       <c r="E271">
         <v>21186.78380391846</v>
@@ -6639,10 +6639,10 @@
         <v>68</v>
       </c>
       <c r="C272">
-        <v>165.4626144667687</v>
+        <v>160.0626144667687</v>
       </c>
       <c r="D272">
-        <v>53.29056668676492</v>
+        <v>50.02649195625853</v>
       </c>
       <c r="E272">
         <v>89035.9952730114</v>
@@ -6662,10 +6662,10 @@
         <v>46</v>
       </c>
       <c r="C273">
-        <v>176.2693961483821</v>
+        <v>170.8693961483821</v>
       </c>
       <c r="D273">
-        <v>45.98965010635737</v>
+        <v>53.85340616564388</v>
       </c>
       <c r="E273">
         <v>60505.92331074748</v>
@@ -6685,10 +6685,10 @@
         <v>32</v>
       </c>
       <c r="C274">
-        <v>175.4431927796652</v>
+        <v>170.0431927796652</v>
       </c>
       <c r="D274">
-        <v>88.00830232422481</v>
+        <v>82.6567826929669</v>
       </c>
       <c r="E274">
         <v>38798.55585377616</v>
@@ -6708,10 +6708,10 @@
         <v>55</v>
       </c>
       <c r="C275">
-        <v>178.1294768612753</v>
+        <v>167.9294768612753</v>
       </c>
       <c r="D275">
-        <v>70.2826908687835</v>
+        <v>68.1215072895745</v>
       </c>
       <c r="E275">
         <v>75247.21923979165</v>
@@ -6731,10 +6731,10 @@
         <v>45</v>
       </c>
       <c r="C276">
-        <v>181.7618438824367</v>
+        <v>171.5618438824367</v>
       </c>
       <c r="D276">
-        <v>64.37078490184871</v>
+        <v>67.53347376209112</v>
       </c>
       <c r="E276">
         <v>45593.85306049644</v>
@@ -6754,10 +6754,10 @@
         <v>72</v>
       </c>
       <c r="C277">
-        <v>158.106742864177</v>
+        <v>147.906742864177</v>
       </c>
       <c r="D277">
-        <v>54.20705641555404</v>
+        <v>40.34085799049194</v>
       </c>
       <c r="E277">
         <v>112705.5144277741</v>
@@ -6777,10 +6777,10 @@
         <v>54</v>
       </c>
       <c r="C278">
-        <v>180.429037115842</v>
+        <v>175.029037115842</v>
       </c>
       <c r="D278">
-        <v>106.9436173867867</v>
+        <v>102.7474775169088</v>
       </c>
       <c r="E278">
         <v>93996.28322416914</v>
@@ -6800,10 +6800,10 @@
         <v>49</v>
       </c>
       <c r="C279">
-        <v>175.973792221197</v>
+        <v>165.773792221197</v>
       </c>
       <c r="D279">
-        <v>74.14964823389255</v>
+        <v>68.50317322846809</v>
       </c>
       <c r="E279">
         <v>51806.18888325414</v>
@@ -6823,10 +6823,10 @@
         <v>47</v>
       </c>
       <c r="C280">
-        <v>178.0522309208635</v>
+        <v>172.6522309208634</v>
       </c>
       <c r="D280">
-        <v>76.60897483050917</v>
+        <v>77.45379857622672</v>
       </c>
       <c r="E280">
         <v>62489.62694190904</v>
@@ -6846,10 +6846,10 @@
         <v>68</v>
       </c>
       <c r="C281">
-        <v>187.983281955681</v>
+        <v>177.783281955681</v>
       </c>
       <c r="D281">
-        <v>58.02712453467126</v>
+        <v>68.47038647428181</v>
       </c>
       <c r="E281">
         <v>103445.0681435782</v>
@@ -6869,10 +6869,10 @@
         <v>78</v>
       </c>
       <c r="C282">
-        <v>164.9676389967485</v>
+        <v>159.5676389967485</v>
       </c>
       <c r="D282">
-        <v>66.37620251485494</v>
+        <v>57.40902839282408</v>
       </c>
       <c r="E282">
         <v>163178.1276030039</v>
@@ -6892,10 +6892,10 @@
         <v>64</v>
       </c>
       <c r="C283">
-        <v>173.9157851033683</v>
+        <v>168.5157851033683</v>
       </c>
       <c r="D283">
-        <v>75.12557280201213</v>
+        <v>72.02761154971165</v>
       </c>
       <c r="E283">
         <v>89846.60223225878</v>
@@ -6915,10 +6915,10 @@
         <v>47</v>
       </c>
       <c r="C284">
-        <v>180.4066115016151</v>
+        <v>170.2066115016151</v>
       </c>
       <c r="D284">
-        <v>73.9416697864352</v>
+        <v>72.97392429525422</v>
       </c>
       <c r="E284">
         <v>44035.69583692892</v>
@@ -6938,10 +6938,10 @@
         <v>68</v>
       </c>
       <c r="C285">
-        <v>161.9188620576653</v>
+        <v>151.7188620576653</v>
       </c>
       <c r="D285">
-        <v>70.32100194247691</v>
+        <v>51.88488060949741</v>
       </c>
       <c r="E285">
         <v>103445.0681435782</v>
@@ -6961,10 +6961,10 @@
         <v>51</v>
       </c>
       <c r="C286">
-        <v>180.8884842732513</v>
+        <v>170.6884842732513</v>
       </c>
       <c r="D286">
-        <v>59.14808527697473</v>
+        <v>63.01743024091894</v>
       </c>
       <c r="E286">
         <v>74255.92857030044</v>
@@ -6984,10 +6984,10 @@
         <v>30</v>
       </c>
       <c r="C287">
-        <v>153.4986588738909</v>
+        <v>148.0986588738909</v>
       </c>
       <c r="D287">
-        <v>73.84532882360284</v>
+        <v>49.94821046733504</v>
       </c>
       <c r="E287">
         <v>23607.75462742032</v>
@@ -7007,10 +7007,10 @@
         <v>50</v>
       </c>
       <c r="C288">
-        <v>155.1224863033673</v>
+        <v>144.9224863033673</v>
       </c>
       <c r="D288">
-        <v>70.67096786807267</v>
+        <v>45.22390175200223</v>
       </c>
       <c r="E288">
         <v>72082.67178954354</v>
@@ -7030,10 +7030,10 @@
         <v>59</v>
       </c>
       <c r="C289">
-        <v>178.9679366869985</v>
+        <v>168.7679366869986</v>
       </c>
       <c r="D289">
-        <v>93.29441254105728</v>
+        <v>84.78702355484108</v>
       </c>
       <c r="E289">
         <v>102113.5405994836</v>
@@ -7053,10 +7053,10 @@
         <v>34</v>
       </c>
       <c r="C290">
-        <v>189.3055475854368</v>
+        <v>183.9055475854368</v>
       </c>
       <c r="D290">
-        <v>70.58874622983303</v>
+        <v>84.39953833346677</v>
       </c>
       <c r="E290">
         <v>38448.51056989866</v>
@@ -7076,10 +7076,10 @@
         <v>20</v>
       </c>
       <c r="C291">
-        <v>165.9162931791637</v>
+        <v>160.5162931791637</v>
       </c>
       <c r="D291">
-        <v>54.92538255424208</v>
+        <v>51.39369349005146</v>
       </c>
       <c r="E291">
         <v>14201.92589478975</v>
@@ -7099,10 +7099,10 @@
         <v>26</v>
       </c>
       <c r="C292">
-        <v>176.5346755180609</v>
+        <v>171.1346755180609</v>
       </c>
       <c r="D292">
-        <v>62.80519479255398</v>
+        <v>66.0166741795876</v>
       </c>
       <c r="E292">
         <v>31403.64529915113</v>
@@ -7122,10 +7122,10 @@
         <v>69</v>
       </c>
       <c r="C293">
-        <v>182.1471109952486</v>
+        <v>176.7471109952486</v>
       </c>
       <c r="D293">
-        <v>74.79655374271918</v>
+        <v>80.42832742012007</v>
       </c>
       <c r="E293">
         <v>111156.4788954761</v>
@@ -7145,10 +7145,10 @@
         <v>79</v>
       </c>
       <c r="C294">
-        <v>166.2963560294365</v>
+        <v>156.0963560294365</v>
       </c>
       <c r="D294">
-        <v>60.00750508389456</v>
+        <v>50.49093050507464</v>
       </c>
       <c r="E294">
         <v>117208.0956388328</v>
@@ -7168,10 +7168,10 @@
         <v>28</v>
       </c>
       <c r="C295">
-        <v>169.0965865269204</v>
+        <v>163.6965865269204</v>
       </c>
       <c r="D295">
-        <v>66.56046706611366</v>
+        <v>61.50572145556551</v>
       </c>
       <c r="E295">
         <v>23525.52346682849</v>
@@ -7191,10 +7191,10 @@
         <v>66</v>
       </c>
       <c r="C296">
-        <v>171.7935256968235</v>
+        <v>161.5935256968235</v>
       </c>
       <c r="D296">
-        <v>66.2073047085981</v>
+        <v>59.25747094791165</v>
       </c>
       <c r="E296">
         <v>109318.0238897663</v>
@@ -7214,10 +7214,10 @@
         <v>44</v>
       </c>
       <c r="C297">
-        <v>167.4825667933065</v>
+        <v>157.2825667933066</v>
       </c>
       <c r="D297">
-        <v>47.30591594028955</v>
+        <v>44.28281293367378</v>
       </c>
       <c r="E297">
         <v>53842.52714816134</v>
@@ -7237,10 +7237,10 @@
         <v>45</v>
       </c>
       <c r="C298">
-        <v>170.2054718396788</v>
+        <v>160.0054718396788</v>
       </c>
       <c r="D298">
-        <v>79.80920629938505</v>
+        <v>65.89153236335228</v>
       </c>
       <c r="E298">
         <v>68018.0360562756</v>
@@ -7260,10 +7260,10 @@
         <v>74</v>
       </c>
       <c r="C299">
-        <v>176.4068428373065</v>
+        <v>166.2068428373065</v>
       </c>
       <c r="D299">
-        <v>85.34403735947105</v>
+        <v>76.36564553678906</v>
       </c>
       <c r="E299">
         <v>143434.2599304699</v>
@@ -7283,10 +7283,10 @@
         <v>74</v>
       </c>
       <c r="C300">
-        <v>170.01593165209</v>
+        <v>164.61593165209</v>
       </c>
       <c r="D300">
-        <v>73.13208669977996</v>
+        <v>66.63975865330407</v>
       </c>
       <c r="E300">
         <v>123455.0116147806</v>
@@ -7306,10 +7306,10 @@
         <v>19</v>
       </c>
       <c r="C301">
-        <v>169.6595370107075</v>
+        <v>164.2595370107075</v>
       </c>
       <c r="D301">
-        <v>70.56346393632572</v>
+        <v>64.62161632741275</v>
       </c>
       <c r="E301">
         <v>13150.20884468961</v>
@@ -7329,10 +7329,10 @@
         <v>18</v>
       </c>
       <c r="C302">
-        <v>170.3564329751556</v>
+        <v>164.9564329751556</v>
       </c>
       <c r="D302">
-        <v>82.75577543070801</v>
+        <v>73.24212969326484</v>
       </c>
       <c r="E302">
         <v>14810.50621501373</v>
@@ -7352,10 +7352,10 @@
         <v>23</v>
       </c>
       <c r="C303">
-        <v>169.912313007898</v>
+        <v>159.712313007898</v>
       </c>
       <c r="D303">
-        <v>68.88447977879333</v>
+        <v>59.04621008174465</v>
       </c>
       <c r="E303">
         <v>15074.7400000075</v>
@@ -7375,10 +7375,10 @@
         <v>42</v>
       </c>
       <c r="C304">
-        <v>166.3223889097676</v>
+        <v>160.9223889097676</v>
       </c>
       <c r="D304">
-        <v>57.52643147397782</v>
+        <v>53.32319298141798</v>
       </c>
       <c r="E304">
         <v>58339.74531488949</v>
@@ -7398,10 +7398,10 @@
         <v>52</v>
       </c>
       <c r="C305">
-        <v>153.5283521641486</v>
+        <v>143.3283521641486</v>
       </c>
       <c r="D305">
-        <v>42.28354241343651</v>
+        <v>31.3192678136155</v>
       </c>
       <c r="E305">
         <v>69175.36134849566</v>
@@ -7421,10 +7421,10 @@
         <v>33</v>
       </c>
       <c r="C306">
-        <v>163.0562016338354</v>
+        <v>152.8562016338354</v>
       </c>
       <c r="D306">
-        <v>93.13888409998475</v>
+        <v>65.08653686954283</v>
       </c>
       <c r="E306">
         <v>34971.74723569577</v>
@@ -7444,10 +7444,10 @@
         <v>21</v>
       </c>
       <c r="C307">
-        <v>165.734602272302</v>
+        <v>160.334602272302</v>
       </c>
       <c r="D307">
-        <v>45.44810159224932</v>
+        <v>45.52131201768597</v>
       </c>
       <c r="E307">
         <v>15280.27571970032</v>
@@ -7467,10 +7467,10 @@
         <v>78</v>
       </c>
       <c r="C308">
-        <v>179.0898943788555</v>
+        <v>173.6898943788555</v>
       </c>
       <c r="D308">
-        <v>76.82844380735938</v>
+        <v>78.72176740821808</v>
       </c>
       <c r="E308">
         <v>120885.3301450317</v>
@@ -7490,10 +7490,10 @@
         <v>64</v>
       </c>
       <c r="C309">
-        <v>184.7077290913459</v>
+        <v>179.3077290913459</v>
       </c>
       <c r="D309">
-        <v>77.80653021679807</v>
+        <v>85.49891092711816</v>
       </c>
       <c r="E309">
         <v>121280.2273539923</v>
@@ -7513,10 +7513,10 @@
         <v>55</v>
       </c>
       <c r="C310">
-        <v>168.9997302468897</v>
+        <v>163.5997302468897</v>
       </c>
       <c r="D310">
-        <v>78.31487568668067</v>
+        <v>68.88796875398285</v>
       </c>
       <c r="E310">
         <v>87424.79598287241</v>
@@ -7536,10 +7536,10 @@
         <v>61</v>
       </c>
       <c r="C311">
-        <v>165.846019254297</v>
+        <v>160.446019254297</v>
       </c>
       <c r="D311">
-        <v>85.17462671237395</v>
+        <v>69.61847703862621</v>
       </c>
       <c r="E311">
         <v>68449.07018144379</v>
@@ -7559,10 +7559,10 @@
         <v>37</v>
       </c>
       <c r="C312">
-        <v>149.7635239636247</v>
+        <v>144.3635239636247</v>
       </c>
       <c r="D312">
-        <v>68.65624097347228</v>
+        <v>43.76738510587766</v>
       </c>
       <c r="E312">
         <v>53311.71179053087</v>
@@ -7582,10 +7582,10 @@
         <v>42</v>
       </c>
       <c r="C313">
-        <v>177.8486114718457</v>
+        <v>167.6486114718457</v>
       </c>
       <c r="D313">
-        <v>63.79266113010824</v>
+        <v>63.44943291701177</v>
       </c>
       <c r="E313">
         <v>37199.06397121798</v>
@@ -7605,10 +7605,10 @@
         <v>24</v>
       </c>
       <c r="C314">
-        <v>163.780413581655</v>
+        <v>153.580413581655</v>
       </c>
       <c r="D314">
-        <v>59.93490421092372</v>
+        <v>48.1874936304782</v>
       </c>
       <c r="E314">
         <v>17758.42261675367</v>
@@ -7628,10 +7628,10 @@
         <v>38</v>
       </c>
       <c r="C315">
-        <v>191.8945674011956</v>
+        <v>186.4945674011956</v>
       </c>
       <c r="D315">
-        <v>65.39495550964304</v>
+        <v>82.51145409062876</v>
       </c>
       <c r="E315">
         <v>33654.89155031444</v>
@@ -7651,10 +7651,10 @@
         <v>24</v>
       </c>
       <c r="C316">
-        <v>182.0229414760098</v>
+        <v>176.6229414760098</v>
       </c>
       <c r="D316">
-        <v>59.68078410001483</v>
+        <v>68.71605471618105</v>
       </c>
       <c r="E316">
         <v>20632.34349298482</v>
@@ -7674,10 +7674,10 @@
         <v>46</v>
       </c>
       <c r="C317">
-        <v>186.0613473844479</v>
+        <v>180.6613473844479</v>
       </c>
       <c r="D317">
-        <v>64.9377505180903</v>
+        <v>76.57806874437733</v>
       </c>
       <c r="E317">
         <v>60505.92331074748</v>
@@ -7697,10 +7697,10 @@
         <v>69</v>
       </c>
       <c r="C318">
-        <v>164.0836742243559</v>
+        <v>158.6836742243559</v>
       </c>
       <c r="D318">
-        <v>69.34864746282412</v>
+        <v>58.30143662338754</v>
       </c>
       <c r="E318">
         <v>122846.9078309697</v>
@@ -7720,10 +7720,10 @@
         <v>24</v>
       </c>
       <c r="C319">
-        <v>159.0892738030519</v>
+        <v>153.6892738030519</v>
       </c>
       <c r="D319">
-        <v>51.62096399769284</v>
+        <v>43.82170284141171</v>
       </c>
       <c r="E319">
         <v>27850.75058493899</v>
@@ -7743,10 +7743,10 @@
         <v>20</v>
       </c>
       <c r="C320">
-        <v>162.110237723164</v>
+        <v>156.710237723164</v>
       </c>
       <c r="D320">
-        <v>80.45355483343114</v>
+        <v>62.6384735197241</v>
       </c>
       <c r="E320">
         <v>17346.27145908255</v>
@@ -7766,10 +7766,10 @@
         <v>46</v>
       </c>
       <c r="C321">
-        <v>162.5080460677641</v>
+        <v>157.1080460677641</v>
       </c>
       <c r="D321">
-        <v>78.37160802684929</v>
+        <v>61.88890783634984</v>
       </c>
       <c r="E321">
         <v>49538.06015788689</v>
@@ -7789,10 +7789,10 @@
         <v>46</v>
       </c>
       <c r="C322">
-        <v>172.8932347862621</v>
+        <v>167.4932347862621</v>
       </c>
       <c r="D322">
-        <v>81.32184727159338</v>
+        <v>75.13471574742066</v>
       </c>
       <c r="E322">
         <v>60505.92331074748</v>
@@ -7812,10 +7812,10 @@
         <v>56</v>
       </c>
       <c r="C323">
-        <v>169.8580287612558</v>
+        <v>164.4580287612558</v>
       </c>
       <c r="D323">
-        <v>76.94147937831353</v>
+        <v>68.93236953538575</v>
       </c>
       <c r="E323">
         <v>73538.32563850307</v>
@@ -7835,10 +7835,10 @@
         <v>55</v>
       </c>
       <c r="C324">
-        <v>160.989558314586</v>
+        <v>155.589558314586</v>
       </c>
       <c r="D324">
-        <v>54.23377236818588</v>
+        <v>46.8251820111883</v>
       </c>
       <c r="E324">
         <v>58602.59326789542</v>
@@ -7858,10 +7858,10 @@
         <v>77</v>
       </c>
       <c r="C325">
-        <v>179.0747499630044</v>
+        <v>168.8747499630044</v>
       </c>
       <c r="D325">
-        <v>55.94583649781872</v>
+        <v>59.1949799914852</v>
       </c>
       <c r="E325">
         <v>152244.4273963244</v>
@@ -7881,10 +7881,10 @@
         <v>23</v>
       </c>
       <c r="C326">
-        <v>166.6567874982525</v>
+        <v>156.4567874982525</v>
       </c>
       <c r="D326">
-        <v>54.50614193697204</v>
+        <v>47.70945297632797</v>
       </c>
       <c r="E326">
         <v>22488.86944253196</v>
@@ -7904,10 +7904,10 @@
         <v>63</v>
       </c>
       <c r="C327">
-        <v>166.1254601629223</v>
+        <v>155.9254601629223</v>
       </c>
       <c r="D327">
-        <v>58.97388669113428</v>
+        <v>49.75905555685395</v>
       </c>
       <c r="E327">
         <v>83469.49711130024</v>
@@ -7927,10 +7927,10 @@
         <v>27</v>
       </c>
       <c r="C328">
-        <v>170.0001039558576</v>
+        <v>159.8001039558576</v>
       </c>
       <c r="D328">
-        <v>68.2399006460836</v>
+        <v>58.74756271248918</v>
       </c>
       <c r="E328">
         <v>31611.92650652292</v>
@@ -7950,10 +7950,10 @@
         <v>54</v>
       </c>
       <c r="C329">
-        <v>172.3940585692302</v>
+        <v>166.9940585692302</v>
       </c>
       <c r="D329">
-        <v>59.17135500065383</v>
+        <v>59.73950979611418</v>
       </c>
       <c r="E329">
         <v>63007.59289800404</v>
@@ -7973,10 +7973,10 @@
         <v>72</v>
       </c>
       <c r="C330">
-        <v>171.9709602468537</v>
+        <v>166.5709602468537</v>
       </c>
       <c r="D330">
-        <v>61.22969539831644</v>
+        <v>60.73248425693899</v>
       </c>
       <c r="E330">
         <v>130945.1260064945</v>
@@ -7996,10 +7996,10 @@
         <v>31</v>
       </c>
       <c r="C331">
-        <v>175.9152314065521</v>
+        <v>170.5152314065521</v>
       </c>
       <c r="D331">
-        <v>85.00263943990069</v>
+        <v>81.09437732468874</v>
       </c>
       <c r="E331">
         <v>33473.69740008045</v>
@@ -8019,10 +8019,10 @@
         <v>39</v>
       </c>
       <c r="C332">
-        <v>161.9506627300252</v>
+        <v>151.7506627300252</v>
       </c>
       <c r="D332">
-        <v>80.34431129308037</v>
+        <v>57.10391237905115</v>
       </c>
       <c r="E332">
         <v>36786.15827796586</v>
@@ -8042,10 +8042,10 @@
         <v>77</v>
       </c>
       <c r="C333">
-        <v>158.9722676184242</v>
+        <v>153.5722676184241</v>
       </c>
       <c r="D333">
-        <v>80.58910839565445</v>
+        <v>59.24509310654917</v>
       </c>
       <c r="E333">
         <v>131037.9930262821</v>
@@ -8065,10 +8065,10 @@
         <v>49</v>
       </c>
       <c r="C334">
-        <v>162.3770215620337</v>
+        <v>156.9770215620337</v>
       </c>
       <c r="D334">
-        <v>69.63465279296348</v>
+        <v>56.76885760510417</v>
       </c>
       <c r="E334">
         <v>60190.20422981401</v>
@@ -8088,10 +8088,10 @@
         <v>35</v>
       </c>
       <c r="C335">
-        <v>172.6131389490155</v>
+        <v>167.2131389490154</v>
       </c>
       <c r="D335">
-        <v>70.6557930466731</v>
+        <v>67.65391804069382</v>
       </c>
       <c r="E335">
         <v>49048.09089815187</v>
@@ -8111,10 +8111,10 @@
         <v>53</v>
       </c>
       <c r="C336">
-        <v>162.4615857210554</v>
+        <v>157.0615857210554</v>
       </c>
       <c r="D336">
-        <v>80.72770886197922</v>
+        <v>63.18298650923889</v>
       </c>
       <c r="E336">
         <v>67708.85992920698</v>
@@ -8134,10 +8134,10 @@
         <v>63</v>
       </c>
       <c r="C337">
-        <v>164.4038570694558</v>
+        <v>159.0038570694558</v>
       </c>
       <c r="D337">
-        <v>72.12449343578004</v>
+        <v>60.25739013975339</v>
       </c>
       <c r="E337">
         <v>79398.64170054614</v>
@@ -8157,10 +8157,10 @@
         <v>69</v>
       </c>
       <c r="C338">
-        <v>159.4414820398682</v>
+        <v>154.0414820398682</v>
       </c>
       <c r="D338">
-        <v>62.22738814995878</v>
+        <v>49.84104740289949</v>
       </c>
       <c r="E338">
         <v>82346.74491259157</v>
@@ -8180,10 +8180,10 @@
         <v>76</v>
       </c>
       <c r="C339">
-        <v>173.6676786442693</v>
+        <v>168.2676786442693</v>
       </c>
       <c r="D339">
-        <v>64.35618127990442</v>
+        <v>64.41477461716933</v>
       </c>
       <c r="E339">
         <v>105201.6707575169</v>
@@ -8203,10 +8203,10 @@
         <v>26</v>
       </c>
       <c r="C340">
-        <v>188.019037355451</v>
+        <v>177.819037355451</v>
       </c>
       <c r="D340">
-        <v>81.40282255895123</v>
+        <v>86.69260410217709</v>
       </c>
       <c r="E340">
         <v>18118.32720060131</v>
@@ -8226,10 +8226,10 @@
         <v>80</v>
       </c>
       <c r="C341">
-        <v>149.6745993170415</v>
+        <v>139.4745993170415</v>
       </c>
       <c r="D341">
-        <v>66.67841274161223</v>
+        <v>38.16341605582706</v>
       </c>
       <c r="E341">
         <v>108074.3183656211</v>
@@ -8249,10 +8249,10 @@
         <v>43</v>
       </c>
       <c r="C342">
-        <v>162.7732759513335</v>
+        <v>152.5732759513335</v>
       </c>
       <c r="D342">
-        <v>66.00355116094856</v>
+        <v>50.4722118749251</v>
       </c>
       <c r="E342">
         <v>42588.29051764905</v>
@@ -8272,10 +8272,10 @@
         <v>39</v>
       </c>
       <c r="C343">
-        <v>162.7921906864537</v>
+        <v>152.5921906864537</v>
       </c>
       <c r="D343">
-        <v>92.6719639400809</v>
+        <v>64.51587319418508</v>
       </c>
       <c r="E343">
         <v>49656.1197483971</v>
@@ -8295,10 +8295,10 @@
         <v>63</v>
       </c>
       <c r="C344">
-        <v>174.9545287882204</v>
+        <v>169.5545287882204</v>
       </c>
       <c r="D344">
-        <v>88.57347526357131</v>
+        <v>82.47322198739404</v>
       </c>
       <c r="E344">
         <v>71842.86195188444</v>
@@ -8318,10 +8318,10 @@
         <v>55</v>
       </c>
       <c r="C345">
-        <v>167.0919229916493</v>
+        <v>161.6919229916492</v>
       </c>
       <c r="D345">
-        <v>84.67645998042366</v>
+        <v>70.74611338067244</v>
       </c>
       <c r="E345">
         <v>58602.59326789542</v>
@@ -8341,10 +8341,10 @@
         <v>40</v>
       </c>
       <c r="C346">
-        <v>159.6620921911603</v>
+        <v>149.4620921911603</v>
       </c>
       <c r="D346">
-        <v>97.45033908110317</v>
+        <v>63.03960421424167</v>
       </c>
       <c r="E346">
         <v>57002.68389734349</v>
@@ -8364,10 +8364,10 @@
         <v>34</v>
       </c>
       <c r="C347">
-        <v>171.7854892142804</v>
+        <v>166.3854892142804</v>
       </c>
       <c r="D347">
-        <v>77.39501118166753</v>
+        <v>71.29470356468113</v>
       </c>
       <c r="E347">
         <v>34789.65103139541</v>
@@ -8387,10 +8387,10 @@
         <v>43</v>
       </c>
       <c r="C348">
-        <v>155.2467501326309</v>
+        <v>145.0467501326309</v>
       </c>
       <c r="D348">
-        <v>91.41016396670383</v>
+        <v>54.69133319769859</v>
       </c>
       <c r="E348">
         <v>52017.45550358317</v>
@@ -8410,10 +8410,10 @@
         <v>64</v>
       </c>
       <c r="C349">
-        <v>157.4870444945283</v>
+        <v>147.2870444945283</v>
       </c>
       <c r="D349">
-        <v>85.97640827744064</v>
+        <v>54.84181578530914</v>
       </c>
       <c r="E349">
         <v>85464.73173473608</v>
@@ -8433,10 +8433,10 @@
         <v>73</v>
       </c>
       <c r="C350">
-        <v>146.3239122681146</v>
+        <v>140.9239122681145</v>
       </c>
       <c r="D350">
-        <v>73.89518171390213</v>
+        <v>42.5179730153955</v>
       </c>
       <c r="E350">
         <v>89610.12655628375</v>
@@ -8456,10 +8456,10 @@
         <v>55</v>
       </c>
       <c r="C351">
-        <v>163.2876256254825</v>
+        <v>153.0876256254825</v>
       </c>
       <c r="D351">
-        <v>64.00679559977773</v>
+        <v>49.90597571052253</v>
       </c>
       <c r="E351">
         <v>83161.03836988004</v>
@@ -8479,10 +8479,10 @@
         <v>19</v>
       </c>
       <c r="C352">
-        <v>158.1308246288964</v>
+        <v>152.7308246288964</v>
       </c>
       <c r="D352">
-        <v>49.36112404554492</v>
+        <v>41.84777514397724</v>
       </c>
       <c r="E352">
         <v>11898.80101766259</v>
@@ -8502,10 +8502,10 @@
         <v>23</v>
       </c>
       <c r="C353">
-        <v>155.6241341977321</v>
+        <v>145.4241341977321</v>
       </c>
       <c r="D353">
-        <v>69.40023423916617</v>
+        <v>45.1516957936589</v>
       </c>
       <c r="E353">
         <v>24854.04448828642</v>
@@ -8525,10 +8525,10 @@
         <v>24</v>
       </c>
       <c r="C354">
-        <v>174.0515060633115</v>
+        <v>168.6515060633115</v>
       </c>
       <c r="D354">
-        <v>84.49665651337997</v>
+        <v>78.60367908857199</v>
       </c>
       <c r="E354">
         <v>22802.26600019414</v>
@@ -8548,10 +8548,10 @@
         <v>30</v>
       </c>
       <c r="C355">
-        <v>177.624526112339</v>
+        <v>167.424526112339</v>
       </c>
       <c r="D355">
-        <v>47.33477445699452</v>
+        <v>52.14260519767475</v>
       </c>
       <c r="E355">
         <v>30312.95697253534</v>
@@ -8571,10 +8571,10 @@
         <v>44</v>
       </c>
       <c r="C356">
-        <v>177.8398856570302</v>
+        <v>167.6398856570302</v>
       </c>
       <c r="D356">
-        <v>74.31071057358503</v>
+        <v>70.55564536000868</v>
       </c>
       <c r="E356">
         <v>44082.53279963582</v>
@@ -8594,10 +8594,10 @@
         <v>28</v>
       </c>
       <c r="C357">
-        <v>159.2131898368312</v>
+        <v>149.0131898368312</v>
       </c>
       <c r="D357">
-        <v>81.60951074048216</v>
+        <v>54.70338137519103</v>
       </c>
       <c r="E357">
         <v>30207.3700722917</v>
@@ -8617,10 +8617,10 @@
         <v>77</v>
       </c>
       <c r="C358">
-        <v>161.603368648667</v>
+        <v>151.4033686486671</v>
       </c>
       <c r="D358">
-        <v>35.17052765656643</v>
+        <v>33.49984658158637</v>
       </c>
       <c r="E358">
         <v>152244.4273963244</v>
@@ -8640,10 +8640,10 @@
         <v>72</v>
       </c>
       <c r="C359">
-        <v>178.0450509756169</v>
+        <v>172.6450509756169</v>
       </c>
       <c r="D359">
-        <v>69.32378822861207</v>
+        <v>72.15381658958904</v>
       </c>
       <c r="E359">
         <v>107208.8016271885</v>
@@ -8663,10 +8663,10 @@
         <v>32</v>
       </c>
       <c r="C360">
-        <v>153.253399319277</v>
+        <v>147.853399319277</v>
       </c>
       <c r="D360">
-        <v>64.75523724810684</v>
+        <v>45.34360205626489</v>
       </c>
       <c r="E360">
         <v>38798.55585377616</v>
@@ -8686,10 +8686,10 @@
         <v>80</v>
       </c>
       <c r="C361">
-        <v>170.6779237845873</v>
+        <v>165.2779237845872</v>
       </c>
       <c r="D361">
-        <v>62.88012654662009</v>
+        <v>60.63021821813085</v>
       </c>
       <c r="E361">
         <v>113615.407158318</v>
@@ -8709,10 +8709,10 @@
         <v>26</v>
       </c>
       <c r="C362">
-        <v>183.4317907513382</v>
+        <v>173.2317907513382</v>
       </c>
       <c r="D362">
-        <v>63.44747936030696</v>
+        <v>68.43326254753997</v>
       </c>
       <c r="E362">
         <v>18118.32720060131</v>
@@ -8732,10 +8732,10 @@
         <v>25</v>
       </c>
       <c r="C363">
-        <v>180.6709777645723</v>
+        <v>175.2709777645723</v>
       </c>
       <c r="D363">
-        <v>79.06546469948884</v>
+        <v>82.09464168277967</v>
       </c>
       <c r="E363">
         <v>29609.43050634577</v>
@@ -8755,10 +8755,10 @@
         <v>63</v>
       </c>
       <c r="C364">
-        <v>170.617910069703</v>
+        <v>160.417910069703</v>
       </c>
       <c r="D364">
-        <v>78.72572550887482</v>
+        <v>65.68981106058409</v>
       </c>
       <c r="E364">
         <v>92248.06075380825</v>
@@ -8778,10 +8778,10 @@
         <v>23</v>
       </c>
       <c r="C365">
-        <v>164.259992825299</v>
+        <v>158.859992825299</v>
       </c>
       <c r="D365">
-        <v>67.10090270898479</v>
+        <v>57.15358436780899</v>
       </c>
       <c r="E365">
         <v>15847.63844739139</v>
@@ -8801,10 +8801,10 @@
         <v>65</v>
       </c>
       <c r="C366">
-        <v>179.4323268780368</v>
+        <v>169.2323268780368</v>
       </c>
       <c r="D366">
-        <v>107.9044600408895</v>
+        <v>95.47446655490033</v>
       </c>
       <c r="E366">
         <v>71618.97668260324</v>
@@ -8824,10 +8824,10 @@
         <v>77</v>
       </c>
       <c r="C367">
-        <v>189.1796684439502</v>
+        <v>178.9796684439502</v>
       </c>
       <c r="D367">
-        <v>61.88942322174738</v>
+        <v>72.57396179559424</v>
       </c>
       <c r="E367">
         <v>102052.4915809737</v>
@@ -8847,10 +8847,10 @@
         <v>60</v>
       </c>
       <c r="C368">
-        <v>161.0724732509687</v>
+        <v>150.8724732509687</v>
       </c>
       <c r="D368">
-        <v>66.2008589303983</v>
+        <v>48.93975622656902</v>
       </c>
       <c r="E368">
         <v>77578.94125704313</v>
@@ -8870,10 +8870,10 @@
         <v>21</v>
       </c>
       <c r="C369">
-        <v>162.7626236064209</v>
+        <v>152.5626236064209</v>
       </c>
       <c r="D369">
-        <v>73.49693169495276</v>
+        <v>54.40070265101257</v>
       </c>
       <c r="E369">
         <v>13151.85519392021</v>
@@ -8893,10 +8893,10 @@
         <v>28</v>
       </c>
       <c r="C370">
-        <v>174.5501865412998</v>
+        <v>169.1501865412998</v>
       </c>
       <c r="D370">
-        <v>56.08561774218723</v>
+        <v>59.52836525395272</v>
       </c>
       <c r="E370">
         <v>28734.13924954612</v>
@@ -8916,10 +8916,10 @@
         <v>68</v>
       </c>
       <c r="C371">
-        <v>163.9344882767238</v>
+        <v>158.5344882767238</v>
       </c>
       <c r="D371">
-        <v>71.16959926054801</v>
+        <v>59.2191072187739</v>
       </c>
       <c r="E371">
         <v>108748.8102019919</v>
@@ -8939,10 +8939,10 @@
         <v>75</v>
       </c>
       <c r="C372">
-        <v>172.4461961099295</v>
+        <v>167.0461961099295</v>
       </c>
       <c r="D372">
-        <v>104.2784731116747</v>
+        <v>90.02860841587237</v>
       </c>
       <c r="E372">
         <v>113978.6718410915</v>
@@ -8962,10 +8962,10 @@
         <v>45</v>
       </c>
       <c r="C373">
-        <v>184.224846810812</v>
+        <v>174.024846810812</v>
       </c>
       <c r="D373">
-        <v>85.53872165674721</v>
+        <v>85.52736171357762</v>
       </c>
       <c r="E373">
         <v>50389.00044547503</v>
@@ -8985,10 +8985,10 @@
         <v>43</v>
       </c>
       <c r="C374">
-        <v>148.1819901224972</v>
+        <v>142.7819901224971</v>
       </c>
       <c r="D374">
-        <v>38.24713672916585</v>
+        <v>29.19748329435886</v>
       </c>
       <c r="E374">
         <v>44771.83886526954</v>
@@ -9008,10 +9008,10 @@
         <v>21</v>
       </c>
       <c r="C375">
-        <v>175.077852024291</v>
+        <v>164.8778520242911</v>
       </c>
       <c r="D375">
-        <v>80.78336796207751</v>
+        <v>71.87386953396252</v>
       </c>
       <c r="E375">
         <v>19620.26239809178</v>
@@ -9031,10 +9031,10 @@
         <v>79</v>
       </c>
       <c r="C376">
-        <v>167.0522496496484</v>
+        <v>156.8522496496484</v>
       </c>
       <c r="D376">
-        <v>63.09371330817611</v>
+        <v>52.92587029809226</v>
       </c>
       <c r="E376">
         <v>129534.9786630671</v>
@@ -9054,10 +9054,10 @@
         <v>32</v>
       </c>
       <c r="C377">
-        <v>173.7019237619788</v>
+        <v>168.3019237619788</v>
       </c>
       <c r="D377">
-        <v>82.64098895534977</v>
+        <v>76.93596240102195</v>
       </c>
       <c r="E377">
         <v>26007.44974601956</v>
@@ -9077,10 +9077,10 @@
         <v>36</v>
       </c>
       <c r="C378">
-        <v>188.632835786451</v>
+        <v>183.232835786451</v>
       </c>
       <c r="D378">
-        <v>65.4735968006308</v>
+        <v>79.46538204448734</v>
       </c>
       <c r="E378">
         <v>34296.98944913757</v>
@@ -9100,10 +9100,10 @@
         <v>23</v>
       </c>
       <c r="C379">
-        <v>160.8191690330474</v>
+        <v>155.4191690330474</v>
       </c>
       <c r="D379">
-        <v>93.18888806550547</v>
+        <v>68.270258106954</v>
       </c>
       <c r="E379">
         <v>19356.349309969</v>
@@ -9123,10 +9123,10 @@
         <v>76</v>
       </c>
       <c r="C380">
-        <v>153.9116687650833</v>
+        <v>143.7116687650833</v>
       </c>
       <c r="D380">
-        <v>78.51714165183809</v>
+        <v>47.43465351218776</v>
       </c>
       <c r="E380">
         <v>90547.91715423753</v>
@@ -9146,10 +9146,10 @@
         <v>22</v>
       </c>
       <c r="C381">
-        <v>173.4042788968874</v>
+        <v>168.0042788968874</v>
       </c>
       <c r="D381">
-        <v>78.92274781768043</v>
+        <v>74.07212920808877</v>
       </c>
       <c r="E381">
         <v>22116.91834251326</v>
@@ -9169,10 +9169,10 @@
         <v>35</v>
       </c>
       <c r="C382">
-        <v>180.696115941804</v>
+        <v>175.296115941804</v>
       </c>
       <c r="D382">
-        <v>78.28756952240755</v>
+        <v>81.53633389815357</v>
       </c>
       <c r="E382">
         <v>49048.09089815187</v>
@@ -9192,10 +9192,10 @@
         <v>23</v>
       </c>
       <c r="C383">
-        <v>163.4691607104996</v>
+        <v>153.2691607104996</v>
       </c>
       <c r="D383">
-        <v>83.93341116094287</v>
+        <v>60.69137189427693</v>
       </c>
       <c r="E383">
         <v>18412.32901455661</v>
@@ -9215,10 +9215,10 @@
         <v>48</v>
       </c>
       <c r="C384">
-        <v>154.7401475293899</v>
+        <v>149.3401475293899</v>
       </c>
       <c r="D384">
-        <v>81.52428863080608</v>
+        <v>55.02624854154229</v>
       </c>
       <c r="E384">
         <v>71277.49844896869</v>
@@ -9238,10 +9238,10 @@
         <v>42</v>
       </c>
       <c r="C385">
-        <v>170.7219888981523</v>
+        <v>160.5219888981524</v>
       </c>
       <c r="D385">
-        <v>80.62679481141848</v>
+        <v>66.95353647414848</v>
       </c>
       <c r="E385">
         <v>55494.48236140054</v>
@@ -9261,10 +9261,10 @@
         <v>21</v>
       </c>
       <c r="C386">
-        <v>171.517767185934</v>
+        <v>166.117767185934</v>
       </c>
       <c r="D386">
-        <v>60.80754595400521</v>
+        <v>60.03992182112923</v>
       </c>
       <c r="E386">
         <v>18663.37090948985</v>
@@ -9284,10 +9284,10 @@
         <v>23</v>
       </c>
       <c r="C387">
-        <v>154.3235375350447</v>
+        <v>148.9235375350447</v>
       </c>
       <c r="D387">
-        <v>91.40927930653893</v>
+        <v>59.39771433256188</v>
       </c>
       <c r="E387">
         <v>26128.33859857935</v>
@@ -9307,10 +9307,10 @@
         <v>58</v>
       </c>
       <c r="C388">
-        <v>177.8885864590811</v>
+        <v>167.6885864590811</v>
       </c>
       <c r="D388">
-        <v>78.15491552025476</v>
+        <v>73.20853350167378</v>
       </c>
       <c r="E388">
         <v>81487.0153987349</v>
@@ -9330,10 +9330,10 @@
         <v>54</v>
       </c>
       <c r="C389">
-        <v>169.9729688004931</v>
+        <v>159.7729688004931</v>
       </c>
       <c r="D389">
-        <v>62.89149526596943</v>
+        <v>55.52400448363942</v>
       </c>
       <c r="E389">
         <v>80903.35072535119</v>
@@ -9353,10 +9353,10 @@
         <v>76</v>
       </c>
       <c r="C390">
-        <v>155.8765016814403</v>
+        <v>150.4765016814403</v>
       </c>
       <c r="D390">
-        <v>81.21066729889601</v>
+        <v>56.1352543490682</v>
       </c>
       <c r="E390">
         <v>156942.4506691892</v>
@@ -9376,10 +9376,10 @@
         <v>67</v>
       </c>
       <c r="C391">
-        <v>170.1604470480651</v>
+        <v>164.7604470480651</v>
       </c>
       <c r="D391">
-        <v>67.845699465313</v>
+        <v>63.36531239104293</v>
       </c>
       <c r="E391">
         <v>106358.7805029159</v>
@@ -9399,10 +9399,10 @@
         <v>73</v>
       </c>
       <c r="C392">
-        <v>175.619184972451</v>
+        <v>165.419184972451</v>
       </c>
       <c r="D392">
-        <v>73.832575155081</v>
+        <v>67.92642440236168</v>
       </c>
       <c r="E392">
         <v>140536.6534215359</v>
@@ -9422,10 +9422,10 @@
         <v>42</v>
       </c>
       <c r="C393">
-        <v>143.6975241043996</v>
+        <v>138.2975241043996</v>
       </c>
       <c r="D393">
-        <v>103.3246555562917</v>
+        <v>51.0600420987786</v>
       </c>
       <c r="E393">
         <v>64475.38988995588</v>
@@ -9445,10 +9445,10 @@
         <v>51</v>
       </c>
       <c r="C394">
-        <v>165.759297435428</v>
+        <v>160.359297435428</v>
       </c>
       <c r="D394">
-        <v>89.59226894853467</v>
+        <v>72.18505332442305</v>
       </c>
       <c r="E394">
         <v>63912.67001730693</v>
@@ -9468,10 +9468,10 @@
         <v>36</v>
       </c>
       <c r="C395">
-        <v>191.5753114943031</v>
+        <v>186.1753114943031</v>
       </c>
       <c r="D395">
-        <v>106.1369358824884</v>
+        <v>117.3164285555341</v>
       </c>
       <c r="E395">
         <v>46296.09328125959</v>
@@ -9491,10 +9491,10 @@
         <v>51</v>
       </c>
       <c r="C396">
-        <v>183.9211123777825</v>
+        <v>178.5211123777825</v>
       </c>
       <c r="D396">
-        <v>75.99435847990716</v>
+        <v>83.22794933611752</v>
       </c>
       <c r="E396">
         <v>78063.11144051945</v>
@@ -9514,10 +9514,10 @@
         <v>32</v>
       </c>
       <c r="C397">
-        <v>176.1893821970552</v>
+        <v>170.7893821970551</v>
       </c>
       <c r="D397">
-        <v>57.30924720247736</v>
+        <v>61.80567669553337</v>
       </c>
       <c r="E397">
         <v>28742.6771126147</v>
@@ -9537,10 +9537,10 @@
         <v>67</v>
       </c>
       <c r="C398">
-        <v>183.7094850490669</v>
+        <v>178.3094850490669</v>
       </c>
       <c r="D398">
-        <v>75.73109034666949</v>
+        <v>82.79747238724056</v>
       </c>
       <c r="E398">
         <v>87079.20445760812</v>
@@ -9560,10 +9560,10 @@
         <v>25</v>
       </c>
       <c r="C399">
-        <v>153.483936427625</v>
+        <v>143.283936427625</v>
       </c>
       <c r="D399">
-        <v>64.55519009274745</v>
+        <v>40.92720836876476</v>
       </c>
       <c r="E399">
         <v>18879.8064443346</v>
@@ -9583,10 +9583,10 @@
         <v>71</v>
       </c>
       <c r="C400">
-        <v>187.5880567712906</v>
+        <v>177.3880567712906</v>
       </c>
       <c r="D400">
-        <v>67.30821824559762</v>
+        <v>75.30493917903441</v>
       </c>
       <c r="E400">
         <v>90359.75561589275</v>
@@ -9606,10 +9606,10 @@
         <v>61</v>
       </c>
       <c r="C401">
-        <v>167.5934158802003</v>
+        <v>162.1934158802003</v>
       </c>
       <c r="D401">
-        <v>67.25732002455733</v>
+        <v>60.48764951681025</v>
       </c>
       <c r="E401">
         <v>68449.07018144379</v>
@@ -9629,10 +9629,10 @@
         <v>64</v>
       </c>
       <c r="C402">
-        <v>180.1104108167605</v>
+        <v>169.9104108167605</v>
       </c>
       <c r="D402">
-        <v>41.63985942186628</v>
+        <v>50.0837200303764</v>
       </c>
       <c r="E402">
         <v>77331.68719599453</v>
@@ -9652,10 +9652,10 @@
         <v>66</v>
       </c>
       <c r="C403">
-        <v>170.6282898934051</v>
+        <v>165.2282898934051</v>
       </c>
       <c r="D403">
-        <v>84.66477534454057</v>
+        <v>74.79387206735862</v>
       </c>
       <c r="E403">
         <v>94090.8951289469</v>
@@ -9675,10 +9675,10 @@
         <v>70</v>
       </c>
       <c r="C404">
-        <v>173.6701906568325</v>
+        <v>163.4701906568325</v>
       </c>
       <c r="D404">
-        <v>67.25466782832983</v>
+        <v>61.72772309331008</v>
       </c>
       <c r="E404">
         <v>80039.64180835082</v>
@@ -9698,10 +9698,10 @@
         <v>51</v>
       </c>
       <c r="C405">
-        <v>174.8415424853406</v>
+        <v>164.6415424853406</v>
       </c>
       <c r="D405">
-        <v>78.91007391971654</v>
+        <v>70.40115170362942</v>
       </c>
       <c r="E405">
         <v>60795.61231886692</v>
@@ -9721,10 +9721,10 @@
         <v>35</v>
       </c>
       <c r="C406">
-        <v>176.1477538277319</v>
+        <v>170.7477538277319</v>
       </c>
       <c r="D406">
-        <v>78.11443429003918</v>
+        <v>76.48853382376184</v>
       </c>
       <c r="E406">
         <v>32877.91854880939</v>
@@ -9744,10 +9744,10 @@
         <v>47</v>
       </c>
       <c r="C407">
-        <v>176.4928771422125</v>
+        <v>171.0928771422125</v>
       </c>
       <c r="D407">
-        <v>63.3683265273992</v>
+        <v>66.37822966786372</v>
       </c>
       <c r="E407">
         <v>69061.71837759434</v>
@@ -9767,10 +9767,10 @@
         <v>30</v>
       </c>
       <c r="C408">
-        <v>186.5034753653972</v>
+        <v>181.1034753653971</v>
       </c>
       <c r="D408">
-        <v>62.38786907274819</v>
+        <v>74.92977263403169</v>
       </c>
       <c r="E408">
         <v>23607.75462742032</v>
@@ -9790,10 +9790,10 @@
         <v>72</v>
       </c>
       <c r="C409">
-        <v>175.0711339016949</v>
+        <v>169.6711339016949</v>
       </c>
       <c r="D409">
-        <v>59.32141105192505</v>
+        <v>62.23123989687004</v>
       </c>
       <c r="E409">
         <v>130945.1260064945</v>
@@ -9813,10 +9813,10 @@
         <v>64</v>
       </c>
       <c r="C410">
-        <v>183.9109855360056</v>
+        <v>178.5109855360056</v>
       </c>
       <c r="D410">
-        <v>87.82204893998795</v>
+        <v>92.5032518014994</v>
       </c>
       <c r="E410">
         <v>89846.60223225878</v>
@@ -9836,10 +9836,10 @@
         <v>72</v>
       </c>
       <c r="C411">
-        <v>168.0275981625068</v>
+        <v>157.8275981625068</v>
       </c>
       <c r="D411">
-        <v>42.74095328391326</v>
+        <v>42.06434616459818</v>
       </c>
       <c r="E411">
         <v>101980.1666732417</v>
@@ -9859,10 +9859,10 @@
         <v>50</v>
       </c>
       <c r="C412">
-        <v>175.9621598557372</v>
+        <v>170.5621598557372</v>
       </c>
       <c r="D412">
-        <v>47.71410754034784</v>
+        <v>54.83675279307979</v>
       </c>
       <c r="E412">
         <v>50795.80028519442</v>
@@ -9882,10 +9882,10 @@
         <v>52</v>
       </c>
       <c r="C413">
-        <v>173.9639788197808</v>
+        <v>168.5639788197808</v>
       </c>
       <c r="D413">
-        <v>59.64769419079619</v>
+        <v>61.46602605739938</v>
       </c>
       <c r="E413">
         <v>88822.92218002725</v>
@@ -9905,10 +9905,10 @@
         <v>69</v>
       </c>
       <c r="C414">
-        <v>178.4773007783251</v>
+        <v>173.0773007783251</v>
       </c>
       <c r="D414">
-        <v>115.4075299787018</v>
+        <v>106.2598980368692</v>
       </c>
       <c r="E414">
         <v>100578.5413617513</v>
@@ -9928,10 +9928,10 @@
         <v>41</v>
       </c>
       <c r="C415">
-        <v>169.6021270964665</v>
+        <v>159.4021270964665</v>
       </c>
       <c r="D415">
-        <v>51.39203738863998</v>
+        <v>48.34860149600346</v>
       </c>
       <c r="E415">
         <v>59153.58939629416</v>
@@ -9951,10 +9951,10 @@
         <v>78</v>
       </c>
       <c r="C416">
-        <v>152.0918740311012</v>
+        <v>141.8918740311013</v>
       </c>
       <c r="D416">
-        <v>71.09554436274863</v>
+        <v>42.35081809549874</v>
       </c>
       <c r="E416">
         <v>94145.58977879593</v>
@@ -9974,10 +9974,10 @@
         <v>43</v>
       </c>
       <c r="C417">
-        <v>151.8033231985277</v>
+        <v>146.4033231985277</v>
       </c>
       <c r="D417">
-        <v>72.87910020505491</v>
+        <v>47.73932137188876</v>
       </c>
       <c r="E417">
         <v>49480.5342626649</v>
@@ -9997,10 +9997,10 @@
         <v>64</v>
       </c>
       <c r="C418">
-        <v>148.5157102176279</v>
+        <v>143.1157102176279</v>
       </c>
       <c r="D418">
-        <v>78.97534638989197</v>
+        <v>46.98549455812208</v>
       </c>
       <c r="E418">
         <v>109738.8877778005</v>
@@ -10020,10 +10020,10 @@
         <v>68</v>
       </c>
       <c r="C419">
-        <v>192.8328668152497</v>
+        <v>182.6328668152497</v>
       </c>
       <c r="D419">
-        <v>59.42773953933288</v>
+        <v>73.89670490942537</v>
       </c>
       <c r="E419">
         <v>103445.0681435782</v>
@@ -10043,10 +10043,10 @@
         <v>61</v>
       </c>
       <c r="C420">
-        <v>173.9311886235982</v>
+        <v>168.5311886235982</v>
       </c>
       <c r="D420">
-        <v>85.29495823427149</v>
+        <v>79.01300530102731</v>
       </c>
       <c r="E420">
         <v>75647.92173385067</v>
@@ -10066,10 +10066,10 @@
         <v>70</v>
       </c>
       <c r="C421">
-        <v>188.6108658115419</v>
+        <v>183.2108658115419</v>
       </c>
       <c r="D421">
-        <v>53.66981837258135</v>
+        <v>69.6223802907695</v>
       </c>
       <c r="E421">
         <v>92992.79662864834</v>
@@ -10089,10 +10089,10 @@
         <v>59</v>
       </c>
       <c r="C422">
-        <v>190.0014027321737</v>
+        <v>184.6014027321737</v>
       </c>
       <c r="D422">
-        <v>59.88993425785428</v>
+        <v>76.04814529717343</v>
       </c>
       <c r="E422">
         <v>87889.93889497957</v>
@@ -10112,10 +10112,10 @@
         <v>64</v>
       </c>
       <c r="C423">
-        <v>175.0646011261308</v>
+        <v>164.8646011261308</v>
       </c>
       <c r="D423">
-        <v>65.82087573174094</v>
+        <v>62.15382883895919</v>
       </c>
       <c r="E423">
         <v>94453.13603436721</v>
@@ -10135,10 +10135,10 @@
         <v>18</v>
       </c>
       <c r="C424">
-        <v>162.7601217162712</v>
+        <v>152.5601217162713</v>
       </c>
       <c r="D424">
-        <v>89.11960962737996</v>
+        <v>62.60941180809808</v>
       </c>
       <c r="E424">
         <v>10436.78733242516</v>
@@ -10158,10 +10158,10 @@
         <v>30</v>
       </c>
       <c r="C425">
-        <v>170.3702058804962</v>
+        <v>160.1702058804962</v>
       </c>
       <c r="D425">
-        <v>79.02700153167112</v>
+        <v>65.60177128693826</v>
       </c>
       <c r="E425">
         <v>27428.29772006401</v>
@@ -10181,10 +10181,10 @@
         <v>72</v>
       </c>
       <c r="C426">
-        <v>164.0009707544342</v>
+        <v>158.6009707544342</v>
       </c>
       <c r="D426">
-        <v>95.51009352267766</v>
+        <v>73.55013319908736</v>
       </c>
       <c r="E426">
         <v>130945.1260064945</v>
@@ -10204,10 +10204,10 @@
         <v>27</v>
       </c>
       <c r="C427">
-        <v>178.7440048557962</v>
+        <v>168.5440048557962</v>
       </c>
       <c r="D427">
-        <v>55.47869105814499</v>
+        <v>58.59051814956594</v>
       </c>
       <c r="E427">
         <v>21190.10803112769</v>
@@ -10227,10 +10227,10 @@
         <v>36</v>
       </c>
       <c r="C428">
-        <v>172.6701120362424</v>
+        <v>162.4701120362424</v>
       </c>
       <c r="D428">
-        <v>96.55756752674043</v>
+        <v>79.06065422429792</v>
       </c>
       <c r="E428">
         <v>39847.41676449867</v>
@@ -10250,10 +10250,10 @@
         <v>22</v>
       </c>
       <c r="C429">
-        <v>177.5400670299458</v>
+        <v>167.3400670299459</v>
       </c>
       <c r="D429">
-        <v>86.46048444512577</v>
+        <v>78.42456828874737</v>
       </c>
       <c r="E429">
         <v>23250.87699439291</v>
@@ -10273,10 +10273,10 @@
         <v>25</v>
       </c>
       <c r="C430">
-        <v>162.3613592271286</v>
+        <v>152.1613592271286</v>
       </c>
       <c r="D430">
-        <v>58.62970483277699</v>
+        <v>46.23045871976858</v>
       </c>
       <c r="E430">
         <v>28165.36154034517</v>
@@ -10296,10 +10296,10 @@
         <v>21</v>
       </c>
       <c r="C431">
-        <v>180.7504881911293</v>
+        <v>170.5504881911293</v>
       </c>
       <c r="D431">
-        <v>31.21383549451534</v>
+        <v>43.18665978189539</v>
       </c>
       <c r="E431">
         <v>17753.14756947739</v>
@@ -10319,10 +10319,10 @@
         <v>66</v>
       </c>
       <c r="C432">
-        <v>174.3082074277476</v>
+        <v>164.1082074277477</v>
       </c>
       <c r="D432">
-        <v>75.21626219228067</v>
+        <v>67.45225961395012</v>
       </c>
       <c r="E432">
         <v>98915.03848120944</v>
@@ -10342,10 +10342,10 @@
         <v>30</v>
       </c>
       <c r="C433">
-        <v>160.2183355503661</v>
+        <v>154.8183355503661</v>
       </c>
       <c r="D433">
-        <v>88.8570009990578</v>
+        <v>65.15542963276553</v>
       </c>
       <c r="E433">
         <v>28834.5766158997</v>
@@ -10365,10 +10365,10 @@
         <v>55</v>
       </c>
       <c r="C434">
-        <v>161.9821403137176</v>
+        <v>156.5821403137176</v>
       </c>
       <c r="D434">
-        <v>114.9242109077378</v>
+        <v>82.0012203643642</v>
       </c>
       <c r="E434">
         <v>96619.34203896731</v>
@@ -10388,10 +10388,10 @@
         <v>70</v>
       </c>
       <c r="C435">
-        <v>151.2761394051802</v>
+        <v>145.8761394051802</v>
       </c>
       <c r="D435">
-        <v>81.31822783824121</v>
+        <v>51.06850538644765</v>
       </c>
       <c r="E435">
         <v>125527.145570305</v>
@@ -10411,10 +10411,10 @@
         <v>63</v>
       </c>
       <c r="C436">
-        <v>158.3394460016644</v>
+        <v>148.1394460016644</v>
       </c>
       <c r="D436">
-        <v>78.75165378943174</v>
+        <v>52.35244365188051</v>
       </c>
       <c r="E436">
         <v>92248.06075380825</v>
@@ -10434,10 +10434,10 @@
         <v>66</v>
       </c>
       <c r="C437">
-        <v>170.2048247074236</v>
+        <v>160.0048247074236</v>
       </c>
       <c r="D437">
-        <v>82.00760198517987</v>
+        <v>67.20996523019593</v>
       </c>
       <c r="E437">
         <v>109318.0238897663</v>
@@ -10457,10 +10457,10 @@
         <v>63</v>
       </c>
       <c r="C438">
-        <v>159.2892323532332</v>
+        <v>153.8892323532332</v>
       </c>
       <c r="D438">
-        <v>80.23263009394724</v>
+        <v>59.40351816040724</v>
       </c>
       <c r="E438">
         <v>79398.64170054614</v>
@@ -10480,10 +10480,10 @@
         <v>36</v>
       </c>
       <c r="C439">
-        <v>166.8338211156876</v>
+        <v>161.4338211156876</v>
       </c>
       <c r="D439">
-        <v>60.42887151414148</v>
+        <v>55.55391116293265</v>
       </c>
       <c r="E439">
         <v>31033.19937956419</v>
@@ -10503,10 +10503,10 @@
         <v>69</v>
       </c>
       <c r="C440">
-        <v>159.2499376602543</v>
+        <v>153.8499376602543</v>
       </c>
       <c r="D440">
-        <v>50.46990164904988</v>
+        <v>43.33299187328132</v>
       </c>
       <c r="E440">
         <v>82346.74491259157</v>
@@ -10526,10 +10526,10 @@
         <v>67</v>
       </c>
       <c r="C441">
-        <v>160.9427596543367</v>
+        <v>150.7427596543367</v>
       </c>
       <c r="D441">
-        <v>79.45394264662546</v>
+        <v>55.53995104937271</v>
       </c>
       <c r="E441">
         <v>82832.30154219057</v>
@@ -10549,10 +10549,10 @@
         <v>25</v>
       </c>
       <c r="C442">
-        <v>171.618620187848</v>
+        <v>166.218620187848</v>
       </c>
       <c r="D442">
-        <v>45.81787923653317</v>
+        <v>50.20555348612115</v>
       </c>
       <c r="E442">
         <v>17959.02741872927</v>
@@ -10572,10 +10572,10 @@
         <v>44</v>
       </c>
       <c r="C443">
-        <v>185.4941712391744</v>
+        <v>175.2941712391744</v>
       </c>
       <c r="D443">
-        <v>71.47651211603832</v>
+        <v>76.40589880019145</v>
       </c>
       <c r="E443">
         <v>53842.52714816134</v>
@@ -10595,10 +10595,10 @@
         <v>67</v>
       </c>
       <c r="C444">
-        <v>164.7062952883733</v>
+        <v>159.3062952883733</v>
       </c>
       <c r="D444">
-        <v>55.58937558774302</v>
+        <v>50.75988782154179</v>
       </c>
       <c r="E444">
         <v>129906.9078608136</v>
@@ -10618,10 +10618,10 @@
         <v>64</v>
       </c>
       <c r="C445">
-        <v>184.4159259286041</v>
+        <v>174.2159259286041</v>
       </c>
       <c r="D445">
-        <v>86.12624592871929</v>
+        <v>86.18416866212696</v>
       </c>
       <c r="E445">
         <v>85464.73173473608</v>
@@ -10641,10 +10641,10 @@
         <v>47</v>
       </c>
       <c r="C446">
-        <v>171.596380645191</v>
+        <v>166.196380645191</v>
       </c>
       <c r="D446">
-        <v>84.31268555663019</v>
+        <v>75.67086045680715</v>
       </c>
       <c r="E446">
         <v>46293.45424216939</v>
@@ -10664,10 +10664,10 @@
         <v>21</v>
       </c>
       <c r="C447">
-        <v>166.7193342067525</v>
+        <v>161.3193342067525</v>
       </c>
       <c r="D447">
-        <v>69.88298222934007</v>
+        <v>61.24757968888028</v>
       </c>
       <c r="E447">
         <v>15280.27571970032</v>
@@ -10687,10 +10687,10 @@
         <v>28</v>
       </c>
       <c r="C448">
-        <v>158.5489659877894</v>
+        <v>153.1489659877894</v>
       </c>
       <c r="D448">
-        <v>62.46292585594794</v>
+        <v>49.14308901449268</v>
       </c>
       <c r="E448">
         <v>25999.72436804503</v>
@@ -10710,10 +10710,10 @@
         <v>38</v>
       </c>
       <c r="C449">
-        <v>172.2938641207116</v>
+        <v>162.0938641207116</v>
       </c>
       <c r="D449">
-        <v>75.6034732794262</v>
+        <v>65.57327720487889</v>
       </c>
       <c r="E449">
         <v>35380.41473851525</v>
@@ -10733,10 +10733,10 @@
         <v>60</v>
       </c>
       <c r="C450">
-        <v>184.7834195868453</v>
+        <v>179.3834195868453</v>
       </c>
       <c r="D450">
-        <v>77.52385288940106</v>
+        <v>85.35611129513552</v>
       </c>
       <c r="E450">
         <v>90133.87046703867</v>
@@ -10756,10 +10756,10 @@
         <v>19</v>
       </c>
       <c r="C451">
-        <v>181.9677330233416</v>
+        <v>171.7677330233416</v>
       </c>
       <c r="D451">
-        <v>69.4850122443128</v>
+        <v>71.39813798573708</v>
       </c>
       <c r="E451">
         <v>12508.8655913983</v>
@@ -10779,10 +10779,10 @@
         <v>73</v>
       </c>
       <c r="C452">
-        <v>169.3716606392863</v>
+        <v>159.1716606392863</v>
       </c>
       <c r="D452">
-        <v>54.94565294063489</v>
+        <v>50.26375348585837</v>
       </c>
       <c r="E452">
         <v>140536.6534215359</v>
@@ -10802,10 +10802,10 @@
         <v>38</v>
       </c>
       <c r="C453">
-        <v>176.6376248806019</v>
+        <v>171.2376248806019</v>
       </c>
       <c r="D453">
-        <v>63.50125642477614</v>
+        <v>66.60807431053172</v>
       </c>
       <c r="E453">
         <v>45429.35177720714</v>
@@ -10825,10 +10825,10 @@
         <v>34</v>
       </c>
       <c r="C454">
-        <v>178.9747919274694</v>
+        <v>168.7747919274694</v>
       </c>
       <c r="D454">
-        <v>73.24554069905675</v>
+        <v>71.006905790167</v>
       </c>
       <c r="E454">
         <v>27094.20746603165</v>
@@ -10848,10 +10848,10 @@
         <v>60</v>
       </c>
       <c r="C455">
-        <v>170.2743453221273</v>
+        <v>164.8743453221273</v>
       </c>
       <c r="D455">
-        <v>49.69824257911698</v>
+        <v>51.70371310644301</v>
       </c>
       <c r="E455">
         <v>81556.49863098291</v>
@@ -10871,10 +10871,10 @@
         <v>68</v>
       </c>
       <c r="C456">
-        <v>161.7486905852887</v>
+        <v>151.5486905852887</v>
       </c>
       <c r="D456">
-        <v>49.80189770366572</v>
+        <v>41.13683332845127</v>
       </c>
       <c r="E456">
         <v>114324.4809306362</v>
@@ -10894,10 +10894,10 @@
         <v>46</v>
       </c>
       <c r="C457">
-        <v>161.157903479224</v>
+        <v>150.957903479224</v>
       </c>
       <c r="D457">
-        <v>62.15627582524699</v>
+        <v>46.9609060850768</v>
       </c>
       <c r="E457">
         <v>70297.85359031787</v>
@@ -10917,10 +10917,10 @@
         <v>44</v>
       </c>
       <c r="C458">
-        <v>168.1357531713039</v>
+        <v>162.7357531713039</v>
       </c>
       <c r="D458">
-        <v>83.69491827173194</v>
+        <v>71.32736329526944</v>
       </c>
       <c r="E458">
         <v>51216.59611280959</v>
@@ -10940,10 +10940,10 @@
         <v>41</v>
       </c>
       <c r="C459">
-        <v>176.3360382141785</v>
+        <v>166.1360382141785</v>
       </c>
       <c r="D459">
-        <v>60.58511569784765</v>
+        <v>59.90940673428637</v>
       </c>
       <c r="E459">
         <v>53524.38109690213</v>
@@ -10963,10 +10963,10 @@
         <v>70</v>
       </c>
       <c r="C460">
-        <v>163.1031657075015</v>
+        <v>152.9031657075015</v>
       </c>
       <c r="D460">
-        <v>67.17674417813312</v>
+        <v>51.40957400171261</v>
       </c>
       <c r="E460">
         <v>80039.64180835082</v>
@@ -10986,10 +10986,10 @@
         <v>66</v>
       </c>
       <c r="C461">
-        <v>181.6972861619584</v>
+        <v>171.4972861619584</v>
       </c>
       <c r="D461">
-        <v>71.7696636305114</v>
+        <v>72.76254763196928</v>
       </c>
       <c r="E461">
         <v>80984.78394645819</v>
@@ -11009,10 +11009,10 @@
         <v>20</v>
       </c>
       <c r="C462">
-        <v>163.0438948982598</v>
+        <v>152.8438948982598</v>
       </c>
       <c r="D462">
-        <v>64.3956283910851</v>
+        <v>49.88232665553688</v>
       </c>
       <c r="E462">
         <v>20153.4921648224</v>
@@ -11032,10 +11032,10 @@
         <v>56</v>
       </c>
       <c r="C463">
-        <v>159.7441048998214</v>
+        <v>149.5441048998214</v>
       </c>
       <c r="D463">
-        <v>75.65698005810199</v>
+        <v>52.3468050339694</v>
       </c>
       <c r="E463">
         <v>94425.07922049768</v>
@@ -11055,10 +11055,10 @@
         <v>27</v>
       </c>
       <c r="C464">
-        <v>154.6961527241386</v>
+        <v>144.4961527241387</v>
       </c>
       <c r="D464">
-        <v>67.66666937205589</v>
+        <v>43.45791036436954</v>
       </c>
       <c r="E464">
         <v>25881.65639493133</v>
@@ -11078,10 +11078,10 @@
         <v>20</v>
       </c>
       <c r="C465">
-        <v>170.3831601188517</v>
+        <v>160.1831601188517</v>
       </c>
       <c r="D465">
-        <v>67.45705476471237</v>
+        <v>58.65273531616383</v>
       </c>
       <c r="E465">
         <v>16500.28381725625</v>
@@ -11101,10 +11101,10 @@
         <v>70</v>
       </c>
       <c r="C466">
-        <v>166.7593791836794</v>
+        <v>156.5593791836794</v>
       </c>
       <c r="D466">
-        <v>70.11521653102068</v>
+        <v>56.62454493834169</v>
       </c>
       <c r="E466">
         <v>108042.2154502308</v>
@@ -11124,10 +11124,10 @@
         <v>62</v>
       </c>
       <c r="C467">
-        <v>171.7534427258464</v>
+        <v>161.5534427258465</v>
       </c>
       <c r="D467">
-        <v>68.28762204074647</v>
+        <v>60.49941513944731</v>
       </c>
       <c r="E467">
         <v>66718.39813812188</v>
@@ -11147,10 +11147,10 @@
         <v>59</v>
       </c>
       <c r="C468">
-        <v>191.2690234978222</v>
+        <v>185.8690234978222</v>
       </c>
       <c r="D468">
-        <v>55.25081896635678</v>
+        <v>73.20404577030678</v>
       </c>
       <c r="E468">
         <v>65110.46814800367</v>
@@ -11170,10 +11170,10 @@
         <v>43</v>
       </c>
       <c r="C469">
-        <v>184.7927420911545</v>
+        <v>174.5927420911545</v>
       </c>
       <c r="D469">
-        <v>64.58299541835531</v>
+        <v>70.55204983450221</v>
       </c>
       <c r="E469">
         <v>63534.26362455036</v>
@@ -11193,10 +11193,10 @@
         <v>78</v>
       </c>
       <c r="C470">
-        <v>167.5598542999072</v>
+        <v>162.1598542999072</v>
       </c>
       <c r="D470">
-        <v>70.27834790130034</v>
+        <v>62.33287494980237</v>
       </c>
       <c r="E470">
         <v>147649.6756602444</v>
@@ -11216,10 +11216,10 @@
         <v>71</v>
       </c>
       <c r="C471">
-        <v>169.0126058022466</v>
+        <v>163.6126058022465</v>
       </c>
       <c r="D471">
-        <v>86.54955600833537</v>
+        <v>74.14020962785094</v>
       </c>
       <c r="E471">
         <v>104983.0582391035</v>
@@ -11239,10 +11239,10 @@
         <v>54</v>
       </c>
       <c r="C472">
-        <v>162.6227669132678</v>
+        <v>152.4227669132678</v>
       </c>
       <c r="D472">
-        <v>76.86694700848609</v>
+        <v>56.02261053758414</v>
       </c>
       <c r="E472">
         <v>66238.06126589888</v>
@@ -11262,10 +11262,10 @@
         <v>44</v>
       </c>
       <c r="C473">
-        <v>170.2082060122681</v>
+        <v>164.8082060122681</v>
       </c>
       <c r="D473">
-        <v>38.24892096758282</v>
+        <v>44.2309013018211</v>
       </c>
       <c r="E473">
         <v>46342.69258730519</v>
@@ -11285,10 +11285,10 @@
         <v>22</v>
       </c>
       <c r="C474">
-        <v>165.207026709301</v>
+        <v>159.807026709301</v>
       </c>
       <c r="D474">
-        <v>63.02023599902594</v>
+        <v>55.63263738899229</v>
       </c>
       <c r="E474">
         <v>22116.91834251326</v>
@@ -11308,10 +11308,10 @@
         <v>59</v>
       </c>
       <c r="C475">
-        <v>167.173918590594</v>
+        <v>161.773918590594</v>
       </c>
       <c r="D475">
-        <v>76.55865810812912</v>
+        <v>65.82545871094511</v>
       </c>
       <c r="E475">
         <v>65110.46814800367</v>
@@ -11331,10 +11331,10 @@
         <v>28</v>
       </c>
       <c r="C476">
-        <v>161.0553172499236</v>
+        <v>150.8553172499236</v>
       </c>
       <c r="D476">
-        <v>73.65225326563375</v>
+        <v>52.71268223493239</v>
       </c>
       <c r="E476">
         <v>20248.60569747416</v>
@@ -11354,10 +11354,10 @@
         <v>30</v>
       </c>
       <c r="C477">
-        <v>163.7114017677937</v>
+        <v>153.5114017677938</v>
       </c>
       <c r="D477">
-        <v>85.63048490105942</v>
+        <v>61.875493341454</v>
       </c>
       <c r="E477">
         <v>30312.95697253534</v>
@@ -11377,10 +11377,10 @@
         <v>58</v>
       </c>
       <c r="C478">
-        <v>163.2653560405976</v>
+        <v>157.8653560405976</v>
       </c>
       <c r="D478">
-        <v>90.2719667638265</v>
+        <v>69.59580178491737</v>
       </c>
       <c r="E478">
         <v>94674.40482797709</v>
@@ -11400,10 +11400,10 @@
         <v>51</v>
       </c>
       <c r="C479">
-        <v>179.8741751364348</v>
+        <v>174.4741751364348</v>
       </c>
       <c r="D479">
-        <v>96.45133566162212</v>
+        <v>94.17358918299743</v>
       </c>
       <c r="E479">
         <v>78063.11144051945</v>
@@ -11423,10 +11423,10 @@
         <v>55</v>
       </c>
       <c r="C480">
-        <v>172.3968267139929</v>
+        <v>166.9968267139929</v>
       </c>
       <c r="D480">
-        <v>60.66437674060737</v>
+        <v>60.74225537622637</v>
       </c>
       <c r="E480">
         <v>58602.59326789542</v>
@@ -11446,10 +11446,10 @@
         <v>57</v>
       </c>
       <c r="C481">
-        <v>170.7379199088894</v>
+        <v>165.3379199088893</v>
       </c>
       <c r="D481">
-        <v>61.74761259277656</v>
+        <v>59.94598163418643</v>
       </c>
       <c r="E481">
         <v>92236.51314158122</v>
@@ -11469,10 +11469,10 @@
         <v>50</v>
       </c>
       <c r="C482">
-        <v>176.9232993729036</v>
+        <v>166.7232993729037</v>
       </c>
       <c r="D482">
-        <v>37.0688662303148</v>
+        <v>44.75056040086523</v>
       </c>
       <c r="E482">
         <v>65223.09862718407</v>
@@ -11492,10 +11492,10 @@
         <v>76</v>
       </c>
       <c r="C483">
-        <v>177.9405508744167</v>
+        <v>172.5405508744167</v>
       </c>
       <c r="D483">
-        <v>64.80838011173068</v>
+        <v>68.77452120816034</v>
       </c>
       <c r="E483">
         <v>128493.6108262892</v>
@@ -11515,10 +11515,10 @@
         <v>51</v>
       </c>
       <c r="C484">
-        <v>153.9439865480214</v>
+        <v>143.7439865480214</v>
       </c>
       <c r="D484">
-        <v>77.01230272497602</v>
+        <v>46.81144730874146</v>
       </c>
       <c r="E484">
         <v>82065.49275059866</v>
@@ -11538,10 +11538,10 @@
         <v>44</v>
       </c>
       <c r="C485">
-        <v>183.2863550504158</v>
+        <v>177.8863550504158</v>
       </c>
       <c r="D485">
-        <v>47.63812329196859</v>
+        <v>60.46950436166225</v>
       </c>
       <c r="E485">
         <v>41932.60230553143</v>
@@ -11561,10 +11561,10 @@
         <v>53</v>
       </c>
       <c r="C486">
-        <v>158.5442488100006</v>
+        <v>148.3442488100006</v>
       </c>
       <c r="D486">
-        <v>72.70427730314086</v>
+        <v>49.65161135794337</v>
       </c>
       <c r="E486">
         <v>52731.71313373845</v>
@@ -11584,10 +11584,10 @@
         <v>43</v>
       </c>
       <c r="C487">
-        <v>172.8291795186642</v>
+        <v>162.6291795186642</v>
       </c>
       <c r="D487">
-        <v>86.92900234390412</v>
+        <v>73.23167478734679</v>
       </c>
       <c r="E487">
         <v>57488.17905485414</v>
@@ -11607,10 +11607,10 @@
         <v>68</v>
       </c>
       <c r="C488">
-        <v>168.9660867694446</v>
+        <v>158.7660867694446</v>
       </c>
       <c r="D488">
-        <v>74.03802768393339</v>
+        <v>61.13907762195912</v>
       </c>
       <c r="E488">
         <v>126348.0915486331</v>
@@ -11630,10 +11630,10 @@
         <v>42</v>
       </c>
       <c r="C489">
-        <v>165.5438402746455</v>
+        <v>155.3438402746455</v>
       </c>
       <c r="D489">
-        <v>77.5719089153627</v>
+        <v>59.53442545050552</v>
       </c>
       <c r="E489">
         <v>55494.48236140054</v>
@@ -11653,10 +11653,10 @@
         <v>36</v>
       </c>
       <c r="C490">
-        <v>167.9977406969906</v>
+        <v>162.5977406969906</v>
       </c>
       <c r="D490">
-        <v>69.34181167815913</v>
+        <v>62.18572967798678</v>
       </c>
       <c r="E490">
         <v>51165.0959149655</v>
@@ -11676,10 +11676,10 @@
         <v>38</v>
       </c>
       <c r="C491">
-        <v>168.0057409635558</v>
+        <v>162.6057409635558</v>
       </c>
       <c r="D491">
-        <v>70.88358236109525</v>
+        <v>63.15891424774274</v>
       </c>
       <c r="E491">
         <v>55487.53556210942</v>
@@ -11699,10 +11699,10 @@
         <v>48</v>
       </c>
       <c r="C492">
-        <v>156.8375887483464</v>
+        <v>151.4375887483464</v>
       </c>
       <c r="D492">
-        <v>43.25937802067087</v>
+        <v>37.68285758586917</v>
       </c>
       <c r="E492">
         <v>78773.81839898224</v>
@@ -11722,10 +11722,10 @@
         <v>46</v>
       </c>
       <c r="C493">
-        <v>169.1782342442177</v>
+        <v>163.7782342442177</v>
       </c>
       <c r="D493">
-        <v>86.07073235037637</v>
+        <v>74.02786356740201</v>
       </c>
       <c r="E493">
         <v>54748.02342437852</v>
@@ -11745,10 +11745,10 @@
         <v>26</v>
       </c>
       <c r="C494">
-        <v>173.3653423539232</v>
+        <v>167.9653423539231</v>
       </c>
       <c r="D494">
-        <v>64.95126111585682</v>
+        <v>64.5339496867596</v>
       </c>
       <c r="E494">
         <v>28415.19332940101</v>
@@ -11768,10 +11768,10 @@
         <v>36</v>
       </c>
       <c r="C495">
-        <v>156.558106973135</v>
+        <v>146.358106973135</v>
       </c>
       <c r="D495">
-        <v>94.54898860356025</v>
+        <v>57.73855337079617</v>
       </c>
       <c r="E495">
         <v>44038.20616856395</v>
@@ -11791,10 +11791,10 @@
         <v>43</v>
       </c>
       <c r="C496">
-        <v>187.6671423591712</v>
+        <v>182.2671423591712</v>
       </c>
       <c r="D496">
-        <v>53.84728350321984</v>
+        <v>68.97876408389175</v>
       </c>
       <c r="E496">
         <v>44771.83886526954</v>
@@ -11814,10 +11814,10 @@
         <v>42</v>
       </c>
       <c r="C497">
-        <v>166.5221872928535</v>
+        <v>156.3221872928536</v>
       </c>
       <c r="D497">
-        <v>66.02681071796229</v>
+        <v>54.08440018392469</v>
       </c>
       <c r="E497">
         <v>61330.88801948188</v>
@@ -11837,10 +11837,10 @@
         <v>57</v>
       </c>
       <c r="C498">
-        <v>151.0023598682254</v>
+        <v>145.6023598682254</v>
       </c>
       <c r="D498">
-        <v>90.42332814620842</v>
+        <v>54.91587946652792</v>
       </c>
       <c r="E498">
         <v>61827.98373523159</v>
@@ -11860,10 +11860,10 @@
         <v>60</v>
       </c>
       <c r="C499">
-        <v>166.3571055109524</v>
+        <v>156.1571055109524</v>
       </c>
       <c r="D499">
-        <v>52.29785041085185</v>
+        <v>46.21609068846784</v>
       </c>
       <c r="E499">
         <v>94755.13282649826</v>
@@ -11883,10 +11883,10 @@
         <v>77</v>
       </c>
       <c r="C500">
-        <v>167.1136309202301</v>
+        <v>161.7136309202301</v>
       </c>
       <c r="D500">
-        <v>118.5361180380182</v>
+        <v>91.66703166921988</v>
       </c>
       <c r="E500">
         <v>107284.8347122352</v>
@@ -11906,10 +11906,10 @@
         <v>46</v>
       </c>
       <c r="C501">
-        <v>192.5742320684814</v>
+        <v>182.3742320684814</v>
       </c>
       <c r="D501">
-        <v>92.25529570522377</v>
+        <v>100.7068610002293</v>
       </c>
       <c r="E501">
         <v>63608.12833613312</v>

--- a/static/course_data/subjects.xlsx
+++ b/static/course_data/subjects.xlsx
@@ -441,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4722777238463001</v>
+        <v>0.8491677981605887</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,7 +464,7 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>0.7761547671427564</v>
+        <v>0.7723859632085759</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>0.8521311398164599</v>
+        <v>0.6849686434590107</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,7 +510,7 @@
         <v>4</v>
       </c>
       <c r="G5">
-        <v>0.7795373773096899</v>
+        <v>0.4944097202441572</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="G6">
-        <v>0.4377720999198036</v>
+        <v>0.4796409715614344</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>0.7836797033794513</v>
+        <v>0.4182311763765975</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4520536880073199</v>
+        <v>0.8292091300608783</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -602,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>0.347299867773276</v>
+        <v>0.4149378744645645</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -625,7 +625,7 @@
         <v>3</v>
       </c>
       <c r="G10">
-        <v>0.351527583534658</v>
+        <v>0.3719659903562893</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -648,7 +648,7 @@
         <v>3</v>
       </c>
       <c r="G11">
-        <v>0.6557464376960802</v>
+        <v>0.6152954047992178</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -671,7 +671,7 @@
         <v>3</v>
       </c>
       <c r="G12">
-        <v>0.772724688847597</v>
+        <v>0.6599983927921722</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5439999779440052</v>
+        <v>0.7650783312204882</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -717,7 +717,7 @@
         <v>3</v>
       </c>
       <c r="G14">
-        <v>0.4221481356336573</v>
+        <v>0.470489115488017</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -740,7 +740,7 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>0.8173519834484563</v>
+        <v>0.7865524780453598</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -763,7 +763,7 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>0.3276141946728874</v>
+        <v>0.483924011257387</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -786,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>0.3982149331592433</v>
+        <v>0.5523928978350134</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -809,7 +809,7 @@
         <v>4</v>
       </c>
       <c r="G18">
-        <v>0.7795373773096899</v>
+        <v>0.4944097202441572</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -832,7 +832,7 @@
         <v>3</v>
       </c>
       <c r="G19">
-        <v>0.4665678913492643</v>
+        <v>0.4968036142363831</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5872082966778365</v>
+        <v>0.907553500123203</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -878,7 +878,7 @@
         <v>4</v>
       </c>
       <c r="G21">
-        <v>0.7795942244167546</v>
+        <v>0.5395888920802145</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -901,7 +901,7 @@
         <v>5</v>
       </c>
       <c r="G22">
-        <v>0.6181100448558602</v>
+        <v>0.3197260294040347</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -924,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3822858728062785</v>
+        <v>0.6132652609609879</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -947,7 +947,7 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>0.6687027970071611</v>
+        <v>0.7290134954065851</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2958800492147244</v>
+        <v>0.5644038803861399</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -993,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="G26">
-        <v>0.7432814259548653</v>
+        <v>0.4839942998610416</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1016,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.3659858070786579</v>
+        <v>0.5819868947169489</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1039,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="G28">
-        <v>0.6543279129364101</v>
+        <v>0.4919632623128883</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1062,7 +1062,7 @@
         <v>5</v>
       </c>
       <c r="G29">
-        <v>0.709076053338385</v>
+        <v>0.3916530952949716</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1085,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.3767462886442774</v>
+        <v>0.6032429704482737</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1108,7 +1108,7 @@
         <v>2</v>
       </c>
       <c r="G31">
-        <v>0.3082678123618235</v>
+        <v>0.4593934282058102</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1131,7 +1131,7 @@
         <v>5</v>
       </c>
       <c r="G32">
-        <v>0.9297963236582877</v>
+        <v>0.4609677124567014</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1154,7 +1154,7 @@
         <v>3</v>
       </c>
       <c r="G33">
-        <v>0.2491489022258505</v>
+        <v>0.297258174669975</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1177,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="G34">
-        <v>0.4388227972604585</v>
+        <v>0.5694724822919107</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1200,7 +1200,7 @@
         <v>5</v>
       </c>
       <c r="G35">
-        <v>0.7930267150276797</v>
+        <v>0.3754192414221778</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1223,7 +1223,7 @@
         <v>2</v>
       </c>
       <c r="G36">
-        <v>0.4822161398022782</v>
+        <v>0.6126308757744025</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1246,7 +1246,7 @@
         <v>2</v>
       </c>
       <c r="G37">
-        <v>0.7863508404846586</v>
+        <v>0.7759990689976908</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1269,7 +1269,7 @@
         <v>3</v>
       </c>
       <c r="G38">
-        <v>0.3029694589627219</v>
+        <v>0.3709858306935775</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1292,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="G39">
-        <v>0.5051994074515435</v>
+        <v>0.6318362912851561</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1315,7 +1315,7 @@
         <v>4</v>
       </c>
       <c r="G40">
-        <v>0.3768880117333277</v>
+        <v>0.2882116139072844</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1338,7 +1338,7 @@
         <v>5</v>
       </c>
       <c r="G41">
-        <v>0.5377728789159922</v>
+        <v>0.2867827098757236</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <v>0.2583295064198891</v>
+        <v>0.4964384236824252</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1384,7 +1384,7 @@
         <v>3</v>
       </c>
       <c r="G43">
-        <v>0.4299408667766249</v>
+        <v>0.4721599366036439</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0.2552785016787867</v>
+        <v>0.6122895312109643</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1430,7 +1430,7 @@
         <v>5</v>
       </c>
       <c r="G45">
-        <v>0.4992067504402891</v>
+        <v>0.2839781140898264</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1453,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="G46">
-        <v>0.5215634590035082</v>
+        <v>0.4218153869244965</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1476,7 +1476,7 @@
         <v>5</v>
       </c>
       <c r="G47">
-        <v>0.3442284831113022</v>
+        <v>0.1135279230671618</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1499,7 +1499,7 @@
         <v>3</v>
       </c>
       <c r="G48">
-        <v>0.8521311398164599</v>
+        <v>0.6849686434590107</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1522,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>0.4238644554840234</v>
+        <v>0.6744829344722404</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1545,7 +1545,7 @@
         <v>3</v>
       </c>
       <c r="G50">
-        <v>0.6755520568150297</v>
+        <v>0.5854401457828373</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1568,7 +1568,7 @@
         <v>4</v>
       </c>
       <c r="G51">
-        <v>0.7915286056948826</v>
+        <v>0.5435231740975025</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1591,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="G52">
-        <v>0.6055912238475708</v>
+        <v>0.4376931575224037</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1614,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="G53">
-        <v>0.5294739445961635</v>
+        <v>0.3041568691592294</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>0.4583263609469006</v>
+        <v>0.8356084560731012</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1660,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="G55">
-        <v>0.3634505663736035</v>
+        <v>0.4538697727032857</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1683,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <v>0.5663176046310514</v>
+        <v>0.7973368571272392</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1706,7 +1706,7 @@
         <v>5</v>
       </c>
       <c r="G57">
-        <v>0.6419636369789886</v>
+        <v>0.3284336678310721</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1729,7 +1729,7 @@
         <v>4</v>
       </c>
       <c r="G58">
-        <v>0.7795942244167546</v>
+        <v>0.5395888920802145</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1752,7 +1752,7 @@
         <v>4</v>
       </c>
       <c r="G59">
-        <v>0.3867942996096109</v>
+        <v>0.3236188503050357</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1775,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="G60">
-        <v>0.4050359554461264</v>
+        <v>0.6805100198486765</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1798,7 +1798,7 @@
         <v>5</v>
       </c>
       <c r="G61">
-        <v>0.9023637538451655</v>
+        <v>0.4536916633670262</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1821,7 +1821,7 @@
         <v>4</v>
       </c>
       <c r="G62">
-        <v>0.5215634590035082</v>
+        <v>0.4218153869244965</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>0.3227371553346751</v>
+        <v>0.7234819039569517</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0.5180615725640193</v>
+        <v>0.8871683678577154</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1890,7 +1890,7 @@
         <v>2</v>
       </c>
       <c r="G65">
-        <v>0.4857227198224454</v>
+        <v>0.6116507161116905</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1913,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="G66">
-        <v>0.9436528950758842</v>
+        <v>0.4645323187152355</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1936,7 +1936,7 @@
         <v>5</v>
       </c>
       <c r="G67">
-        <v>0.4122282887776589</v>
+        <v>0.2186083981247059</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1959,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="G68">
-        <v>0.452279789510907</v>
+        <v>0.2433294144429285</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1982,7 +1982,7 @@
         <v>3</v>
       </c>
       <c r="G69">
-        <v>0.4135312636196253</v>
+        <v>0.4648981894271831</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2005,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="G70">
-        <v>0.4266409012210355</v>
+        <v>0.696609444642862</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>0.5320080081078782</v>
+        <v>0.8818933569723455</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>0.6699893114646338</v>
+        <v>0.9750297493331613</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>0.6865136458719472</v>
+        <v>0.9824068675692353</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>0.5320080081078782</v>
+        <v>0.8818933569723455</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2120,7 +2120,7 @@
         <v>2</v>
       </c>
       <c r="G75">
-        <v>0.3688912189261049</v>
+        <v>0.5270824047398788</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2143,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="G76">
-        <v>0.7077435327578451</v>
+        <v>0.4731536445128324</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2166,7 +2166,7 @@
         <v>5</v>
       </c>
       <c r="G77">
-        <v>0.3822838354099491</v>
+        <v>0.172785741343839</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>0.5758188530279217</v>
+        <v>0.9258634767994663</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2212,7 +2212,7 @@
         <v>5</v>
       </c>
       <c r="G79">
-        <v>0.7032814147297072</v>
+        <v>0.3490299688653611</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2235,7 +2235,7 @@
         <v>2</v>
       </c>
       <c r="G80">
-        <v>0.392871356870211</v>
+        <v>0.5082548087806581</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2258,7 +2258,7 @@
         <v>3</v>
       </c>
       <c r="G81">
-        <v>0.6541875499629092</v>
+        <v>0.5781640966931622</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2281,7 +2281,7 @@
         <v>5</v>
       </c>
       <c r="G82">
-        <v>0.2227060578589692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2304,7 +2304,7 @@
         <v>4</v>
       </c>
       <c r="G83">
-        <v>0.4664537200613883</v>
+        <v>0.38190656847078</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2327,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="G84">
-        <v>0.6755520568150297</v>
+        <v>0.5854401457828373</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2350,7 +2350,7 @@
         <v>4</v>
       </c>
       <c r="G85">
-        <v>0.6327825222818484</v>
+        <v>0.4823055005862499</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2373,7 +2373,7 @@
         <v>5</v>
       </c>
       <c r="G86">
-        <v>0.4701119369033608</v>
+        <v>0.2621390322429844</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2396,7 +2396,7 @@
         <v>4</v>
       </c>
       <c r="G87">
-        <v>0.4753490371070594</v>
+        <v>0.3889885662701562</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2419,7 +2419,7 @@
         <v>4</v>
       </c>
       <c r="G88">
-        <v>0.8278576724877229</v>
+        <v>0.5549879406118423</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2442,7 +2442,7 @@
         <v>2</v>
       </c>
       <c r="G89">
-        <v>0.7067587342183763</v>
+        <v>0.7456163500746822</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2465,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="G90">
-        <v>0.3506751903569041</v>
+        <v>0.5465264077265201</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2488,7 +2488,7 @@
         <v>3</v>
       </c>
       <c r="G91">
-        <v>0.7413744970048629</v>
+        <v>0.6061435487258003</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2511,7 +2511,7 @@
         <v>4</v>
       </c>
       <c r="G92">
-        <v>0.5950342198962906</v>
+        <v>0.4335884542162834</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2534,7 +2534,7 @@
         <v>4</v>
       </c>
       <c r="G93">
-        <v>0.328704525728251</v>
+        <v>0.2049169701039049</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0.3227371553346751</v>
+        <v>0.7234819039569517</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2580,7 +2580,7 @@
         <v>5</v>
       </c>
       <c r="G95">
-        <v>0.5489425156655141</v>
+        <v>0.2917465773713965</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0.3486200247777719</v>
+        <v>0.6638906770639452</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2626,7 +2626,7 @@
         <v>2</v>
       </c>
       <c r="G97">
-        <v>0.3276141946728874</v>
+        <v>0.483924011257387</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2649,7 +2649,7 @@
         <v>4</v>
       </c>
       <c r="G98">
-        <v>0.6388821298988018</v>
+        <v>0.4500469746794989</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2672,7 +2672,7 @@
         <v>3</v>
       </c>
       <c r="G99">
-        <v>0.7076982398295756</v>
+        <v>0.6365514805305428</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2695,7 +2695,7 @@
         <v>5</v>
       </c>
       <c r="G100">
-        <v>0.4070731567989884</v>
+        <v>0.2028812139663073</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2718,7 +2718,7 @@
         <v>3</v>
       </c>
       <c r="G101">
-        <v>0.5617563185221248</v>
+        <v>0.5427036097027333</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>0.5683713989604571</v>
+        <v>0.9213238931118257</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>0.3834394859512593</v>
+        <v>0.7855204720290063</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2787,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="G104">
-        <v>0.3840960438689594</v>
+        <v>0.6633712231642477</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2810,7 +2810,7 @@
         <v>4</v>
       </c>
       <c r="G105">
-        <v>0.7098753329289684</v>
+        <v>0.5146744604737933</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2833,7 +2833,7 @@
         <v>4</v>
       </c>
       <c r="G106">
-        <v>0.4609231595769736</v>
+        <v>0.3709543042879361</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2856,7 +2856,7 @@
         <v>5</v>
       </c>
       <c r="G107">
-        <v>0.3834372430995152</v>
+        <v>0.1984296430553029</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="G108">
-        <v>0.2506940014051346</v>
+        <v>0.601448875862755</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>0.372707730737209</v>
+        <v>0.7182757131413178</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>0.7288150571820369</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2948,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="G111">
-        <v>0.3840960438689594</v>
+        <v>0.6633712231642477</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2971,7 +2971,7 @@
         <v>5</v>
       </c>
       <c r="G112">
-        <v>0.8093655584495583</v>
+        <v>0.4265305761698831</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="G113">
-        <v>0.4414037754947052</v>
+        <v>0.7068245185970427</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3017,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="G114">
-        <v>0.3316810810129083</v>
+        <v>0.6113894539772456</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3040,7 +3040,7 @@
         <v>4</v>
       </c>
       <c r="G115">
-        <v>0.2963242957789028</v>
+        <v>0.2406648854181131</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3063,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="G116">
-        <v>0.3254968033162551</v>
+        <v>0.6041134048875704</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3086,7 +3086,7 @@
         <v>4</v>
       </c>
       <c r="G117">
-        <v>0.6501500586073572</v>
+        <v>0.4540404210456909</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>0.3778138574353532</v>
+        <v>0.7279334748679562</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3132,7 +3132,7 @@
         <v>4</v>
       </c>
       <c r="G119">
-        <v>0.4903799392660088</v>
+        <v>0.3867347390390121</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3155,7 +3155,7 @@
         <v>3</v>
       </c>
       <c r="G120">
-        <v>0.5676436923774949</v>
+        <v>0.572137011316726</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3178,7 +3178,7 @@
         <v>5</v>
       </c>
       <c r="G121">
-        <v>0.6299879592372211</v>
+        <v>0.3241155372589398</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3201,7 +3201,7 @@
         <v>2</v>
       </c>
       <c r="G122">
-        <v>0.3579361499266382</v>
+        <v>0.4415159555461904</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="G123">
-        <v>0.3883005538310135</v>
+        <v>0.7462551651739558</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3247,7 +3247,7 @@
         <v>3</v>
       </c>
       <c r="G124">
-        <v>0.5962133936123363</v>
+        <v>0.5873159527665796</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3270,7 +3270,7 @@
         <v>2</v>
       </c>
       <c r="G125">
-        <v>0.8069499064742363</v>
+        <v>0.7830810667970671</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3293,7 +3293,7 @@
         <v>3</v>
       </c>
       <c r="G126">
-        <v>0.3210722443292318</v>
+        <v>0.3099274222842346</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3316,7 +3316,7 @@
         <v>2</v>
       </c>
       <c r="G127">
-        <v>0.5917081415456117</v>
+        <v>0.6640613254063507</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3339,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="G128">
-        <v>0.3421846660798683</v>
+        <v>0.4005798275755129</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3362,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="G129">
-        <v>0.5903676110482619</v>
+        <v>0.8116949040162907</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3385,7 +3385,7 @@
         <v>3</v>
       </c>
       <c r="G130">
-        <v>0.487009590853711</v>
+        <v>0.520577099532112</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3408,7 +3408,7 @@
         <v>5</v>
       </c>
       <c r="G131">
-        <v>0.9576021543121584</v>
+        <v>0.4680497102560778</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3431,7 +3431,7 @@
         <v>3</v>
       </c>
       <c r="G132">
-        <v>0.4757128164568077</v>
+        <v>0.5017674817320561</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="G133">
-        <v>0.5321044529633385</v>
+        <v>0.8973834418118962</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3477,7 +3477,7 @@
         <v>5</v>
       </c>
       <c r="G134">
-        <v>0.3665555039703979</v>
+        <v>0.1506429897338237</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3500,7 +3500,7 @@
         <v>4</v>
       </c>
       <c r="G135">
-        <v>0.2532673278475838</v>
+        <v>0.181407067141436</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3523,7 +3523,7 @@
         <v>5</v>
       </c>
       <c r="G136">
-        <v>0.2429313634687682</v>
+        <v>0.04093612797067749</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3546,7 +3546,7 @@
         <v>5</v>
       </c>
       <c r="G137">
-        <v>0.6498232878038794</v>
+        <v>0.367272757893206</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3569,7 +3569,7 @@
         <v>5</v>
       </c>
       <c r="G138">
-        <v>0.8062074934827932</v>
+        <v>0.3789838476807119</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3592,7 +3592,7 @@
         <v>3</v>
       </c>
       <c r="G139">
-        <v>0.5131355717952063</v>
+        <v>0.5207440655363128</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3615,7 +3615,7 @@
         <v>3</v>
       </c>
       <c r="G140">
-        <v>0.7191493068980754</v>
+        <v>0.599420172424487</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="G141">
-        <v>0.402988449303035</v>
+        <v>0.8016198968231919</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="G142">
-        <v>0.4841596764541625</v>
+        <v>0.8597668468017239</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3684,7 +3684,7 @@
         <v>1</v>
       </c>
       <c r="G143">
-        <v>0.3556648406967512</v>
+        <v>0.5588802248836154</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3707,7 +3707,7 @@
         <v>5</v>
       </c>
       <c r="G144">
-        <v>0.4420929031832289</v>
+        <v>0.237361541294024</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3730,7 +3730,7 @@
         <v>4</v>
       </c>
       <c r="G145">
-        <v>0.4706446990530113</v>
+        <v>0.3763193186558965</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3753,7 +3753,7 @@
         <v>4</v>
       </c>
       <c r="G146">
-        <v>0.864962594770839</v>
+        <v>0.5659781646370312</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3776,7 +3776,7 @@
         <v>1</v>
       </c>
       <c r="G147">
-        <v>0.5193374681582501</v>
+        <v>0.7527245140633929</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3799,7 +3799,7 @@
         <v>5</v>
       </c>
       <c r="G148">
-        <v>0.861926087561127</v>
+        <v>0.4423895671052202</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3822,7 +3822,7 @@
         <v>5</v>
       </c>
       <c r="G149">
-        <v>0.3986545771008683</v>
+        <v>0.1932234522396688</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3845,7 +3845,7 @@
         <v>5</v>
       </c>
       <c r="G150">
-        <v>0.8887890426335308</v>
+        <v>0.4499774884315125</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="G151">
-        <v>0.3532386587352208</v>
+        <v>0.6756952506354725</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="G152">
-        <v>0.402988449303035</v>
+        <v>0.8016198968231919</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="G153">
-        <v>0.2552785016787867</v>
+        <v>0.6122895312109643</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3937,7 +3937,7 @@
         <v>3</v>
       </c>
       <c r="G154">
-        <v>0.7302267349244468</v>
+        <v>0.6028031376506604</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3960,7 +3960,7 @@
         <v>4</v>
       </c>
       <c r="G155">
-        <v>0.4670067505292742</v>
+        <v>0.3743306359396062</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3983,7 +3983,7 @@
         <v>4</v>
       </c>
       <c r="G156">
-        <v>0.267084059673639</v>
+        <v>0.2026631428727608</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4006,7 +4006,7 @@
         <v>2</v>
       </c>
       <c r="G157">
-        <v>0.7660282929269743</v>
+        <v>0.7687230199080156</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4029,7 +4029,7 @@
         <v>2</v>
       </c>
       <c r="G158">
-        <v>0.4673622390092005</v>
+        <v>0.5990094706308158</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4052,7 +4052,7 @@
         <v>3</v>
       </c>
       <c r="G159">
-        <v>0.3580332990995145</v>
+        <v>0.3828066457044985</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4075,7 +4075,7 @@
         <v>3</v>
       </c>
       <c r="G160">
-        <v>0.2251720753685049</v>
+        <v>0.2509570323313369</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4098,7 +4098,7 @@
         <v>4</v>
       </c>
       <c r="G161">
-        <v>0.4843621814787267</v>
+        <v>0.3958865951124295</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4121,7 +4121,7 @@
         <v>5</v>
       </c>
       <c r="G162">
-        <v>0.452279789510907</v>
+        <v>0.2433294144429285</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4144,7 +4144,7 @@
         <v>2</v>
       </c>
       <c r="G163">
-        <v>0.5462828145361674</v>
+        <v>0.6434650243720615</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4167,7 +4167,7 @@
         <v>5</v>
       </c>
       <c r="G164">
-        <v>0.3514969803135961</v>
+        <v>0.1264845990052011</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4190,7 +4190,7 @@
         <v>1</v>
       </c>
       <c r="G165">
-        <v>0.4640737870974525</v>
+        <v>0.7214461478193539</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="G166">
-        <v>0.433695706768307</v>
+        <v>0.8090303749914752</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4236,7 +4236,7 @@
         <v>4</v>
       </c>
       <c r="G167">
-        <v>0.3695528085617686</v>
+        <v>0.2777961935241688</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4259,7 +4259,7 @@
         <v>1</v>
       </c>
       <c r="G168">
-        <v>0.3316810810129083</v>
+        <v>0.6113894539772456</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4282,7 +4282,7 @@
         <v>3</v>
       </c>
       <c r="G169">
-        <v>0.4308552407752575</v>
+        <v>0.4759647564682658</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="G170">
-        <v>0.3312089782154009</v>
+        <v>0.6106007319361725</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4328,7 +4328,7 @@
         <v>3</v>
       </c>
       <c r="G171">
-        <v>0.2368996653843214</v>
+        <v>0.2751154230599597</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4351,7 +4351,7 @@
         <v>2</v>
       </c>
       <c r="G172">
-        <v>0.520976868063022</v>
+        <v>0.6439092420184416</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4374,7 +4374,7 @@
         <v>5</v>
       </c>
       <c r="G173">
-        <v>0.6299879592372211</v>
+        <v>0.3241155372589398</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4397,7 +4397,7 @@
         <v>1</v>
       </c>
       <c r="G174">
-        <v>0.5202140565919037</v>
+        <v>0.7660584908832002</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4420,7 +4420,7 @@
         <v>5</v>
       </c>
       <c r="G175">
-        <v>0.2877890571215618</v>
+        <v>0.1076749812051452</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="G176">
-        <v>0.4277329974367512</v>
+        <v>0.801948377192099</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="G177">
-        <v>0.2552785016787867</v>
+        <v>0.6122895312109643</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4489,7 +4489,7 @@
         <v>3</v>
       </c>
       <c r="G178">
-        <v>0.4619171156560226</v>
+        <v>0.5008970472927593</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4512,7 +4512,7 @@
         <v>5</v>
       </c>
       <c r="G179">
-        <v>0.5602160597420341</v>
+        <v>0.2966193595707012</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4535,7 +4535,7 @@
         <v>4</v>
       </c>
       <c r="G180">
-        <v>0.4323548659300354</v>
+        <v>0.3541765670458812</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4558,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="G181">
-        <v>0.2685651931069038</v>
+        <v>0.5176944994137501</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="G182">
-        <v>0.590903384180217</v>
+        <v>0.9347162691951124</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="G183">
-        <v>0.4942445512244961</v>
+        <v>0.8619170869901125</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4627,7 +4627,7 @@
         <v>5</v>
       </c>
       <c r="G184">
-        <v>0.3302347011106426</v>
+        <v>0.08554847103452365</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4650,7 +4650,7 @@
         <v>2</v>
       </c>
       <c r="G185">
-        <v>0.5112325822750889</v>
+        <v>0.6257545177166426</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4673,7 +4673,7 @@
         <v>1</v>
       </c>
       <c r="G186">
-        <v>0.6928260530249992</v>
+        <v>0.8624313758265394</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4696,7 +4696,7 @@
         <v>1</v>
       </c>
       <c r="G187">
-        <v>0.4640737870974525</v>
+        <v>0.7214461478193539</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="G188">
-        <v>0.3522047717467765</v>
+        <v>0.7563087246112919</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4742,7 +4742,7 @@
         <v>5</v>
       </c>
       <c r="G189">
-        <v>0.295797057842918</v>
+        <v>0.1173327429317836</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4765,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="G190">
-        <v>0.5692295654750991</v>
+        <v>0.7768829047920156</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4788,7 +4788,7 @@
         <v>1</v>
       </c>
       <c r="G191">
-        <v>0.4339868493120823</v>
+        <v>0.7017660955800015</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="G192">
-        <v>0.7202430738026293</v>
+        <v>0.9965733824060192</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="G193">
-        <v>0.3401998072636562</v>
+        <v>0.7436606590263547</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4857,7 +4857,7 @@
         <v>3</v>
       </c>
       <c r="G194">
-        <v>0.4396516534540901</v>
+        <v>0.4813297708362262</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4880,7 +4880,7 @@
         <v>5</v>
       </c>
       <c r="G195">
-        <v>0.4893759047343509</v>
+        <v>0.2768961162904502</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4903,7 +4903,7 @@
         <v>3</v>
       </c>
       <c r="G196">
-        <v>0.3882317527630957</v>
+        <v>0.4473824456546837</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4926,7 +4926,7 @@
         <v>5</v>
       </c>
       <c r="G197">
-        <v>0.3292476537012631</v>
+        <v>0.1527932299222123</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4949,7 +4949,7 @@
         <v>3</v>
       </c>
       <c r="G198">
-        <v>0.4396516534540901</v>
+        <v>0.4813297708362262</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4972,7 +4972,7 @@
         <v>3</v>
       </c>
       <c r="G199">
-        <v>0.7507311614112675</v>
+        <v>0.6524104714658797</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4995,7 +4995,7 @@
         <v>1</v>
       </c>
       <c r="G200">
-        <v>0.2583295064198891</v>
+        <v>0.4964384236824252</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5018,7 +5018,7 @@
         <v>2</v>
       </c>
       <c r="G201">
-        <v>0.4527809032219923</v>
+        <v>0.5915989924625322</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="G202">
-        <v>0.5985394134431183</v>
+        <v>0.9390343997672448</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="G203">
-        <v>0.5953094423709282</v>
+        <v>0.9110249113714955</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5087,7 +5087,7 @@
         <v>4</v>
       </c>
       <c r="G204">
-        <v>0.8775005390751677</v>
+        <v>0.5695427708955654</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5110,7 +5110,7 @@
         <v>2</v>
       </c>
       <c r="G205">
-        <v>0.6010026470304904</v>
+        <v>0.6679956074236384</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5133,7 +5133,7 @@
         <v>5</v>
       </c>
       <c r="G206">
-        <v>0.654036286409853</v>
+        <v>0.3326827053420739</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5156,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="G207">
-        <v>0.6409518418490951</v>
+        <v>0.7158425724388069</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="G208">
-        <v>0.3486200247777719</v>
+        <v>0.6638906770639452</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5202,7 +5202,7 @@
         <v>2</v>
       </c>
       <c r="G209">
-        <v>0.6679576560692193</v>
+        <v>0.6940152042217012</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5225,7 +5225,7 @@
         <v>5</v>
       </c>
       <c r="G210">
-        <v>0.4729937955234972</v>
+        <v>0.2548772850665234</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5248,7 +5248,7 @@
         <v>4</v>
       </c>
       <c r="G211">
-        <v>0.4230343961215485</v>
+        <v>0.3483398666232583</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5271,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="G212">
-        <v>0.4301851735186706</v>
+        <v>0.6821808409643035</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5294,7 +5294,7 @@
         <v>5</v>
       </c>
       <c r="G213">
-        <v>0.6614553435149679</v>
+        <v>0.3723311809102473</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5317,7 +5317,7 @@
         <v>3</v>
       </c>
       <c r="G214">
-        <v>0.2195113640556061</v>
+        <v>0.2380003563932978</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5340,7 +5340,7 @@
         <v>4</v>
       </c>
       <c r="G215">
-        <v>0.360743084175644</v>
+        <v>0.3034400952356326</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5363,7 +5363,7 @@
         <v>5</v>
       </c>
       <c r="G216">
-        <v>0.654036286409853</v>
+        <v>0.3326827053420739</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5386,7 +5386,7 @@
         <v>5</v>
       </c>
       <c r="G217">
-        <v>0.8062074934827932</v>
+        <v>0.3789838476807119</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5409,7 +5409,7 @@
         <v>3</v>
       </c>
       <c r="G218">
-        <v>0.3029694589627219</v>
+        <v>0.3709858306935775</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="G219">
-        <v>0.6865136458719472</v>
+        <v>0.9824068675692353</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="G220">
-        <v>0.448891006914846</v>
+        <v>0.7117883860927156</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5478,7 +5478,7 @@
         <v>4</v>
       </c>
       <c r="G221">
-        <v>0.6873718568036351</v>
+        <v>0.5058216680781472</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5501,7 +5501,7 @@
         <v>2</v>
       </c>
       <c r="G222">
-        <v>0.7177517020570972</v>
+        <v>0.7111540009061301</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5524,7 +5524,7 @@
         <v>1</v>
       </c>
       <c r="G223">
-        <v>0.2485118995081367</v>
+        <v>0.4733317538490918</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5547,7 +5547,7 @@
         <v>4</v>
       </c>
       <c r="G224">
-        <v>0.6501500586073572</v>
+        <v>0.4540404210456909</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5570,7 +5570,7 @@
         <v>1</v>
       </c>
       <c r="G225">
-        <v>0.6839195956852872</v>
+        <v>0.8585545306384917</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="G226">
-        <v>0.393678002562833</v>
+        <v>0.7549628036009932</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5616,7 +5616,7 @@
         <v>2</v>
       </c>
       <c r="G227">
-        <v>0.545305574373077</v>
+        <v>0.6610480387028704</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5639,7 +5639,7 @@
         <v>3</v>
       </c>
       <c r="G228">
-        <v>0.5617563185221248</v>
+        <v>0.5427036097027333</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5662,7 +5662,7 @@
         <v>3</v>
       </c>
       <c r="G229">
-        <v>0.3637806745204398</v>
+        <v>0.4286293024853653</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5685,7 +5685,7 @@
         <v>5</v>
       </c>
       <c r="G230">
-        <v>0.6498232878038794</v>
+        <v>0.367272757893206</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5708,7 +5708,7 @@
         <v>3</v>
       </c>
       <c r="G231">
-        <v>0.5865995981682524</v>
+        <v>0.5823520852709066</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5731,7 +5731,7 @@
         <v>5</v>
       </c>
       <c r="G232">
-        <v>0.3986545771008683</v>
+        <v>0.1932234522396688</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5754,7 +5754,7 @@
         <v>4</v>
       </c>
       <c r="G233">
-        <v>0.5311440268921999</v>
+        <v>0.4279204645088774</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5777,7 +5777,7 @@
         <v>1</v>
       </c>
       <c r="G234">
-        <v>0.6037296970142751</v>
+        <v>0.791847944354382</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5800,7 +5800,7 @@
         <v>2</v>
       </c>
       <c r="G235">
-        <v>0.3982149331592433</v>
+        <v>0.5523928978350134</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5823,7 +5823,7 @@
         <v>2</v>
       </c>
       <c r="G236">
-        <v>0.6388616900092179</v>
+        <v>0.6831745488734919</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5846,7 +5846,7 @@
         <v>5</v>
       </c>
       <c r="G237">
-        <v>0.5192574192526855</v>
+        <v>0.2975995192334132</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5869,7 +5869,7 @@
         <v>4</v>
       </c>
       <c r="G238">
-        <v>0.4076274268020021</v>
+        <v>0.3262133564526367</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5892,7 +5892,7 @@
         <v>2</v>
       </c>
       <c r="G239">
-        <v>0.3210664193810897</v>
+        <v>0.4759962828739072</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5915,7 +5915,7 @@
         <v>2</v>
       </c>
       <c r="G240">
-        <v>0.4753992228527099</v>
+        <v>0.6056076160315905</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5938,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="G241">
-        <v>0.3772675697568303</v>
+        <v>0.6574033500153432</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5961,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="G242">
-        <v>0.5692295654750991</v>
+        <v>0.7768829047920156</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5984,7 +5984,7 @@
         <v>5</v>
       </c>
       <c r="G243">
-        <v>0.6970089989567601</v>
+        <v>0.3869528101325584</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6007,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="G244">
-        <v>0.5274944911615818</v>
+        <v>0.7569066348097827</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6030,7 +6030,7 @@
         <v>4</v>
       </c>
       <c r="G245">
-        <v>0.4404908842387945</v>
+        <v>0.3594515779312512</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6053,7 +6053,7 @@
         <v>5</v>
       </c>
       <c r="G246">
-        <v>1</v>
+        <v>0.4783307043245247</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6076,7 +6076,7 @@
         <v>4</v>
       </c>
       <c r="G247">
-        <v>0.9156153728061098</v>
+        <v>0.5799581912786809</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6099,7 +6099,7 @@
         <v>4</v>
       </c>
       <c r="G248">
-        <v>0.7559923321272771</v>
+        <v>0.5315410283502129</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6122,7 +6122,7 @@
         <v>2</v>
       </c>
       <c r="G249">
-        <v>0.6777875329134205</v>
+        <v>0.6975325957625436</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6145,7 +6145,7 @@
         <v>3</v>
       </c>
       <c r="G250">
-        <v>0.5131355717952063</v>
+        <v>0.5207440655363128</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6168,7 +6168,7 @@
         <v>2</v>
       </c>
       <c r="G251">
-        <v>0.23568916076515</v>
+        <v>0.3150313565409892</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6191,7 +6191,7 @@
         <v>1</v>
       </c>
       <c r="G252">
-        <v>0.3879290155370771</v>
+        <v>0.6229230226876263</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6214,7 +6214,7 @@
         <v>3</v>
       </c>
       <c r="G253">
-        <v>0.3853458357120332</v>
+        <v>0.4222209404045851</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="G254">
-        <v>0.393678002562833</v>
+        <v>0.7549628036009932</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6260,7 +6260,7 @@
         <v>3</v>
       </c>
       <c r="G255">
-        <v>0.2491489022258505</v>
+        <v>0.297258174669975</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6283,7 +6283,7 @@
         <v>1</v>
       </c>
       <c r="G256">
-        <v>0.5202140565919037</v>
+        <v>0.7660584908832002</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6306,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="G257">
-        <v>0.3659858070786579</v>
+        <v>0.5819868947169489</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6329,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="G258">
-        <v>0.6403759331782162</v>
+        <v>0.8382729850979166</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6352,7 +6352,7 @@
         <v>5</v>
       </c>
       <c r="G259">
-        <v>0.8887890426335308</v>
+        <v>0.4499774884315125</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6375,7 +6375,7 @@
         <v>1</v>
       </c>
       <c r="G260">
-        <v>0.4050359554461264</v>
+        <v>0.6805100198486765</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6398,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="G261">
-        <v>0.2951497507566952</v>
+        <v>0.6860171872345667</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6421,7 +6421,7 @@
         <v>5</v>
       </c>
       <c r="G262">
-        <v>0.7335282047373411</v>
+        <v>0.4008112158978174</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6444,7 +6444,7 @@
         <v>3</v>
       </c>
       <c r="G263">
-        <v>0.615708469262786</v>
+        <v>0.596973714493218</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="G264">
-        <v>0.5475065849431611</v>
+        <v>0.8894812782986378</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6490,7 +6490,7 @@
         <v>2</v>
       </c>
       <c r="G265">
-        <v>0.5374110142600536</v>
+        <v>0.6391468937999292</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6513,7 +6513,7 @@
         <v>3</v>
       </c>
       <c r="G266">
-        <v>0.3249987958405112</v>
+        <v>0.3940925005269108</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6536,7 +6536,7 @@
         <v>2</v>
       </c>
       <c r="G267">
-        <v>0.3807436131395044</v>
+        <v>0.4878170978848284</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6559,7 +6559,7 @@
         <v>2</v>
       </c>
       <c r="G268">
-        <v>0.5289990707712156</v>
+        <v>0.6497459424410644</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6582,7 +6582,7 @@
         <v>5</v>
       </c>
       <c r="G269">
-        <v>0.2292741068447889</v>
+        <v>0.0143580468890515</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6605,7 +6605,7 @@
         <v>2</v>
       </c>
       <c r="G270">
-        <v>0.6409518418490951</v>
+        <v>0.7158425724388069</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6628,7 +6628,7 @@
         <v>5</v>
       </c>
       <c r="G271">
-        <v>0.3442284831113022</v>
+        <v>0.1135279230671618</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6651,7 +6651,7 @@
         <v>1</v>
       </c>
       <c r="G272">
-        <v>0.6839195956852872</v>
+        <v>0.8585545306384917</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6674,7 +6674,7 @@
         <v>3</v>
       </c>
       <c r="G273">
-        <v>0.5218809193200782</v>
+        <v>0.5447354902607345</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6697,7 +6697,7 @@
         <v>4</v>
       </c>
       <c r="G274">
-        <v>0.4238023051698301</v>
+        <v>0.3433521531370658</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6720,7 +6720,7 @@
         <v>3</v>
       </c>
       <c r="G275">
-        <v>0.4849428136884348</v>
+        <v>0.5066402639313609</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6743,7 +6743,7 @@
         <v>1</v>
       </c>
       <c r="G276">
-        <v>0.3840960438689594</v>
+        <v>0.6633712231642477</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6766,7 +6766,7 @@
         <v>3</v>
       </c>
       <c r="G277">
-        <v>0.6541875499629092</v>
+        <v>0.5781640966931622</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6789,7 +6789,7 @@
         <v>5</v>
       </c>
       <c r="G278">
-        <v>0.6731976597867596</v>
+        <v>0.3772950484059202</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6812,7 +6812,7 @@
         <v>1</v>
       </c>
       <c r="G279">
-        <v>0.4121647301958378</v>
+        <v>0.6859856608289252</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6835,7 +6835,7 @@
         <v>3</v>
       </c>
       <c r="G280">
-        <v>0.5308437243868279</v>
+        <v>0.5504466604617066</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6858,7 +6858,7 @@
         <v>3</v>
       </c>
       <c r="G281">
-        <v>0.6123468366766438</v>
+        <v>0.5629851552433086</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6881,7 +6881,7 @@
         <v>5</v>
       </c>
       <c r="G282">
-        <v>0.9857763008626103</v>
+        <v>0.4749477390983511</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6904,7 +6904,7 @@
         <v>2</v>
       </c>
       <c r="G283">
-        <v>0.6875820944816575</v>
+        <v>0.7374446536639766</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6927,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="G284">
-        <v>0.377055950157982</v>
+        <v>0.7799295459681722</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6950,7 +6950,7 @@
         <v>3</v>
       </c>
       <c r="G285">
-        <v>0.6123468366766438</v>
+        <v>0.5629851552433086</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6973,7 +6973,7 @@
         <v>4</v>
       </c>
       <c r="G286">
-        <v>0.4804639465353132</v>
+        <v>0.3815780881018727</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -6996,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="G287">
-        <v>0.3883005538310135</v>
+        <v>0.7462551651739558</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -7019,7 +7019,7 @@
         <v>4</v>
       </c>
       <c r="G288">
-        <v>0.4706446990530113</v>
+        <v>0.3763193186558965</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7042,7 +7042,7 @@
         <v>5</v>
       </c>
       <c r="G289">
-        <v>0.6063307052186703</v>
+        <v>0.3152627448632938</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7065,7 +7065,7 @@
         <v>3</v>
       </c>
       <c r="G290">
-        <v>0.4222207243355541</v>
+        <v>0.4644620301115809</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -7088,7 +7088,7 @@
         <v>1</v>
       </c>
       <c r="G291">
-        <v>0.3458029709776526</v>
+        <v>0.5335697317884809</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7111,7 +7111,7 @@
         <v>5</v>
       </c>
       <c r="G292">
-        <v>0.3903904886333325</v>
+        <v>0.1832011617269546</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7134,7 +7134,7 @@
         <v>3</v>
       </c>
       <c r="G293">
-        <v>0.7507311614112675</v>
+        <v>0.6524104714658797</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7157,7 +7157,7 @@
         <v>2</v>
       </c>
       <c r="G294">
-        <v>0.7076647897993745</v>
+        <v>0.7078135898309904</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7180,7 +7180,7 @@
         <v>1</v>
       </c>
       <c r="G295">
-        <v>0.3879290155370771</v>
+        <v>0.6229230226876263</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7203,7 +7203,7 @@
         <v>4</v>
       </c>
       <c r="G296">
-        <v>0.6388821298988018</v>
+        <v>0.4500469746794989</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -7226,7 +7226,7 @@
         <v>3</v>
       </c>
       <c r="G297">
-        <v>0.3882317527630957</v>
+        <v>0.4473824456546837</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -7249,7 +7249,7 @@
         <v>5</v>
       </c>
       <c r="G298">
-        <v>0.452279789510907</v>
+        <v>0.2433294144429285</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -7272,7 +7272,7 @@
         <v>5</v>
       </c>
       <c r="G299">
-        <v>0.7930267150276797</v>
+        <v>0.3754192414221778</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -7295,7 +7295,7 @@
         <v>3</v>
       </c>
       <c r="G300">
-        <v>0.8062986109226766</v>
+        <v>0.670988616817361</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -7318,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="G301">
-        <v>0.3410510842757539</v>
+        <v>0.5199483266448942</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -7341,7 +7341,7 @@
         <v>3</v>
       </c>
       <c r="G302">
-        <v>0.3154190721775862</v>
+        <v>0.2955693753951831</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -7364,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="G303">
-        <v>0.2462040438371361</v>
+        <v>0.590146779600949</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -7387,7 +7387,7 @@
         <v>4</v>
       </c>
       <c r="G304">
-        <v>0.5120936553297465</v>
+        <v>0.4155666473517822</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -7410,7 +7410,7 @@
         <v>3</v>
       </c>
       <c r="G305">
-        <v>0.4575088372527382</v>
+        <v>0.4917451912193418</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -7433,7 +7433,7 @@
         <v>3</v>
       </c>
       <c r="G306">
-        <v>0.3029694589627219</v>
+        <v>0.3709858306935775</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -7456,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="G307">
-        <v>0.3506751903569041</v>
+        <v>0.5465264077265201</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -7479,7 +7479,7 @@
         <v>2</v>
       </c>
       <c r="G308">
-        <v>0.8278218275909679</v>
+        <v>0.7899790956393404</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -7502,7 +7502,7 @@
         <v>5</v>
       </c>
       <c r="G309">
-        <v>0.7964724619528998</v>
+        <v>0.4224132971229873</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -7525,7 +7525,7 @@
         <v>4</v>
       </c>
       <c r="G310">
-        <v>0.64350624912584</v>
+        <v>0.4871782827855547</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -7548,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="G311">
-        <v>0.590903384180217</v>
+        <v>0.9347162691951124</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -7571,7 +7571,7 @@
         <v>5</v>
       </c>
       <c r="G312">
-        <v>0.4893759047343509</v>
+        <v>0.2768961162904502</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -7594,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="G313">
-        <v>0.3461665583340547</v>
+        <v>0.7500599850385776</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -7617,7 +7617,7 @@
         <v>1</v>
       </c>
       <c r="G314">
-        <v>0.2583295064198891</v>
+        <v>0.4964384236824252</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -7640,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="G315">
-        <v>0.433695706768307</v>
+        <v>0.8090303749914752</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -7663,7 +7663,7 @@
         <v>2</v>
       </c>
       <c r="G316">
-        <v>0.3748569982653232</v>
+        <v>0.4769764425366191</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -7686,7 +7686,7 @@
         <v>3</v>
       </c>
       <c r="G317">
-        <v>0.5218809193200782</v>
+        <v>0.5447354902607345</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -7709,7 +7709,7 @@
         <v>4</v>
       </c>
       <c r="G318">
-        <v>0.803551065579193</v>
+        <v>0.5474000192855499</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -7732,7 +7732,7 @@
         <v>5</v>
       </c>
       <c r="G319">
-        <v>0.3743377364752278</v>
+        <v>0.1619450859956297</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -7755,7 +7755,7 @@
         <v>3</v>
       </c>
       <c r="G320">
-        <v>0.3268762118533953</v>
+        <v>0.3235488274278214</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -7778,7 +7778,7 @@
         <v>1</v>
       </c>
       <c r="G321">
-        <v>0.5054593219756013</v>
+        <v>0.754756394621394</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -7801,7 +7801,7 @@
         <v>3</v>
       </c>
       <c r="G322">
-        <v>0.5218809193200782</v>
+        <v>0.5447354902607345</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -7824,7 +7824,7 @@
         <v>2</v>
       </c>
       <c r="G323">
-        <v>0.6138977488020155</v>
+        <v>0.7019841666735479</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -7847,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="G324">
-        <v>0.5464148568699608</v>
+        <v>0.9072200915068738</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -7870,7 +7870,7 @@
         <v>5</v>
       </c>
       <c r="G325">
-        <v>0.8328329705395664</v>
+        <v>0.3859726504698467</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -7893,7 +7893,7 @@
         <v>4</v>
       </c>
       <c r="G326">
-        <v>0.2465690982562823</v>
+        <v>0.1701049708796299</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -7916,7 +7916,7 @@
         <v>2</v>
       </c>
       <c r="G327">
-        <v>0.5552264532064545</v>
+        <v>0.6477140618830632</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -7939,7 +7939,7 @@
         <v>5</v>
       </c>
       <c r="G328">
-        <v>0.2877890571215618</v>
+        <v>0.1076749812051452</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -7962,7 +7962,7 @@
         <v>1</v>
       </c>
       <c r="G329">
-        <v>0.5663176046310514</v>
+        <v>0.7973368571272392</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -7985,7 +7985,7 @@
         <v>4</v>
       </c>
       <c r="G330">
-        <v>0.840140579131042</v>
+        <v>0.558702115547356</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -8008,7 +8008,7 @@
         <v>3</v>
       </c>
       <c r="G331">
-        <v>0.2962009435222202</v>
+        <v>0.3632349486573994</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -8031,7 +8031,7 @@
         <v>1</v>
       </c>
       <c r="G332">
-        <v>0.3443009604788939</v>
+        <v>0.6253694806188953</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -8054,7 +8054,7 @@
         <v>3</v>
       </c>
       <c r="G333">
-        <v>0.8405601725533712</v>
+        <v>0.68154202586503</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -8077,7 +8077,7 @@
         <v>2</v>
       </c>
       <c r="G334">
-        <v>0.5535880289859887</v>
+        <v>0.6665236796831192</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -8100,7 +8100,7 @@
         <v>5</v>
       </c>
       <c r="G335">
-        <v>0.4701119369033608</v>
+        <v>0.2621390322429844</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -8123,7 +8123,7 @@
         <v>2</v>
       </c>
       <c r="G336">
-        <v>0.484016461667469</v>
+        <v>0.6106660390486318</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -8146,7 +8146,7 @@
         <v>1</v>
       </c>
       <c r="G337">
-        <v>0.6403759331782162</v>
+        <v>0.8382729850979166</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -8169,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="G338">
-        <v>0.6536961056027378</v>
+        <v>0.9674418280068691</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -8192,7 +8192,7 @@
         <v>1</v>
       </c>
       <c r="G339">
-        <v>0.7569596384940596</v>
+        <v>0.8880915189773969</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="G340">
-        <v>0.2599556337188381</v>
+        <v>0.6227049515940799</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -8238,7 +8238,7 @@
         <v>1</v>
       </c>
       <c r="G341">
-        <v>0.6663963946939175</v>
+        <v>0.8161644530864598</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -8261,7 +8261,7 @@
         <v>1</v>
       </c>
       <c r="G342">
-        <v>0.3705162576729277</v>
+        <v>0.6512982724309623</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -8284,7 +8284,7 @@
         <v>4</v>
       </c>
       <c r="G343">
-        <v>0.369316652309247</v>
+        <v>0.310338124077906</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="G344">
-        <v>0.6062372745848981</v>
+        <v>0.9432834372782464</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="G345">
-        <v>0.5464148568699608</v>
+        <v>0.9072200915068738</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -8353,7 +8353,7 @@
         <v>5</v>
       </c>
       <c r="G346">
-        <v>0.4025100292547852</v>
+        <v>0.2120510481988896</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -8376,7 +8376,7 @@
         <v>2</v>
       </c>
       <c r="G347">
-        <v>0.4388227972604585</v>
+        <v>0.5694724822919107</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -8399,7 +8399,7 @@
         <v>3</v>
       </c>
       <c r="G348">
-        <v>0.3799856815626169</v>
+        <v>0.4412773680703026</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -8422,7 +8422,7 @@
         <v>2</v>
       </c>
       <c r="G349">
-        <v>0.5642413578078107</v>
+        <v>0.651896182629453</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -8445,7 +8445,7 @@
         <v>0</v>
       </c>
       <c r="G350">
-        <v>0.6865136458719472</v>
+        <v>0.9824068675692353</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -8468,7 +8468,7 @@
         <v>4</v>
       </c>
       <c r="G351">
-        <v>0.5206991721899131</v>
+        <v>0.401629811751031</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="G352">
-        <v>0.3353969511499904</v>
+        <v>0.624958778825224</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -8514,7 +8514,7 @@
         <v>5</v>
       </c>
       <c r="G353">
-        <v>0.2572554742606581</v>
+        <v>0.06509451869930011</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -8537,7 +8537,7 @@
         <v>3</v>
       </c>
       <c r="G354">
-        <v>0.351527583534658</v>
+        <v>0.3719659903562893</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -8560,7 +8560,7 @@
         <v>3</v>
       </c>
       <c r="G355">
-        <v>0.2819200298445586</v>
+        <v>0.3456753375984429</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="G356">
-        <v>0.3772675697568303</v>
+        <v>0.6574033500153432</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -8606,7 +8606,7 @@
         <v>4</v>
       </c>
       <c r="G357">
-        <v>0.2814429652318715</v>
+        <v>0.2223431951121135</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -8629,7 +8629,7 @@
         <v>5</v>
       </c>
       <c r="G358">
-        <v>0.8328329705395664</v>
+        <v>0.3859726504698467</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -8652,7 +8652,7 @@
         <v>2</v>
       </c>
       <c r="G359">
-        <v>0.7660282929269743</v>
+        <v>0.7687230199080156</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -8675,7 +8675,7 @@
         <v>4</v>
       </c>
       <c r="G360">
-        <v>0.4238023051698301</v>
+        <v>0.3433521531370658</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -8698,7 +8698,7 @@
         <v>1</v>
       </c>
       <c r="G361">
-        <v>0.6914322407378213</v>
+        <v>0.8250164257183787</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="G362">
-        <v>0.2599556337188381</v>
+        <v>0.6227049515940799</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -8744,7 +8744,7 @@
         <v>5</v>
       </c>
       <c r="G363">
-        <v>0.3822838354099491</v>
+        <v>0.172785741343839</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -8767,7 +8767,7 @@
         <v>3</v>
       </c>
       <c r="G364">
-        <v>0.5617563185221248</v>
+        <v>0.5427036097027333</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="G365">
-        <v>0.3532386587352208</v>
+        <v>0.6756952506354725</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -8813,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="G366">
-        <v>0.5016832208034605</v>
+        <v>0.8660343660370083</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -8836,7 +8836,7 @@
         <v>1</v>
       </c>
       <c r="G367">
-        <v>0.6391884696950993</v>
+        <v>0.8060144591911659</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -8859,7 +8859,7 @@
         <v>2</v>
       </c>
       <c r="G368">
-        <v>0.528611638862644</v>
+        <v>0.6347573859450241</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -8882,7 +8882,7 @@
         <v>0</v>
       </c>
       <c r="G369">
-        <v>0.2375160314687343</v>
+        <v>0.5659883888723263</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -8905,7 +8905,7 @@
         <v>3</v>
       </c>
       <c r="G370">
-        <v>0.3783290788686547</v>
+        <v>0.4129021183269668</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -8928,7 +8928,7 @@
         <v>3</v>
       </c>
       <c r="G371">
-        <v>0.739852789851107</v>
+        <v>0.6485336262778322</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -8951,7 +8951,7 @@
         <v>2</v>
       </c>
       <c r="G372">
-        <v>0.7966160410669916</v>
+        <v>0.7795636752562248</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -8974,7 +8974,7 @@
         <v>2</v>
       </c>
       <c r="G373">
-        <v>0.4057615641628008</v>
+        <v>0.5583607709839179</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -8997,7 +8997,7 @@
         <v>1</v>
       </c>
       <c r="G374">
-        <v>0.4839244960673041</v>
+        <v>0.7368467434654858</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -9020,7 +9020,7 @@
         <v>4</v>
       </c>
       <c r="G375">
-        <v>0.2336081068316876</v>
+        <v>0.1459465801510073</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -9043,7 +9043,7 @@
         <v>3</v>
       </c>
       <c r="G376">
-        <v>0.7302267349244468</v>
+        <v>0.6028031376506604</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -9066,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="G377">
-        <v>0.3991428990431568</v>
+        <v>0.7633939618583848</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -9089,7 +9089,7 @@
         <v>1</v>
       </c>
       <c r="G378">
-        <v>0.4365968449275145</v>
+        <v>0.689661875922094</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -9112,7 +9112,7 @@
         <v>2</v>
       </c>
       <c r="G379">
-        <v>0.3690917786281637</v>
+        <v>0.465674346274813</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="G380">
-        <v>0.5872082966778365</v>
+        <v>0.907553500123203</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -9158,7 +9158,7 @@
         <v>4</v>
       </c>
       <c r="G381">
-        <v>0.3484310335449045</v>
+        <v>0.2438488683426262</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -9181,7 +9181,7 @@
         <v>5</v>
       </c>
       <c r="G382">
-        <v>0.4701119369033608</v>
+        <v>0.2621390322429844</v>
       </c>
     </row>
     <row r="383" spans="1:7">
@@ -9204,7 +9204,7 @@
         <v>2</v>
       </c>
       <c r="G383">
-        <v>0.261283997949441</v>
+        <v>0.3801258752402894</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -9227,7 +9227,7 @@
         <v>4</v>
       </c>
       <c r="G384">
-        <v>0.5705492419007013</v>
+        <v>0.4510271343422109</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -9250,7 +9250,7 @@
         <v>4</v>
       </c>
       <c r="G385">
-        <v>0.395695646221109</v>
+        <v>0.3300181763172585</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -9273,7 +9273,7 @@
         <v>3</v>
       </c>
       <c r="G386">
-        <v>0.3328271540415747</v>
+        <v>0.3365055033658606</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -9296,7 +9296,7 @@
         <v>5</v>
       </c>
       <c r="G387">
-        <v>0.3665555039703979</v>
+        <v>0.1506429897338237</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -9319,7 +9319,7 @@
         <v>3</v>
       </c>
       <c r="G388">
-        <v>0.5131355717952063</v>
+        <v>0.5207440655363128</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -9342,7 +9342,7 @@
         <v>4</v>
       </c>
       <c r="G389">
-        <v>0.5104984476756002</v>
+        <v>0.3967570295517263</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -9365,7 +9365,7 @@
         <v>5</v>
       </c>
       <c r="G390">
-        <v>0.9576021543121584</v>
+        <v>0.4680497102560778</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -9388,7 +9388,7 @@
         <v>3</v>
       </c>
       <c r="G391">
-        <v>0.7290541151095492</v>
+        <v>0.6445993442605443</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -9411,7 +9411,7 @@
         <v>5</v>
       </c>
       <c r="G392">
-        <v>0.7799346977062653</v>
+        <v>0.3718061356330629</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -9434,7 +9434,7 @@
         <v>5</v>
       </c>
       <c r="G393">
-        <v>0.5398158338957955</v>
+        <v>0.3105561951714524</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -9457,7 +9457,7 @@
         <v>2</v>
       </c>
       <c r="G394">
-        <v>0.5704069401866542</v>
+        <v>0.6771474634970559</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -9480,7 +9480,7 @@
         <v>4</v>
       </c>
       <c r="G395">
-        <v>0.4576778122705788</v>
+        <v>0.3746305193811047</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -9503,7 +9503,7 @@
         <v>4</v>
       </c>
       <c r="G396">
-        <v>0.6012081193389918</v>
+        <v>0.4671265591363963</v>
       </c>
     </row>
     <row r="397" spans="1:7">
@@ -9526,7 +9526,7 @@
         <v>1</v>
       </c>
       <c r="G397">
-        <v>0.4115012520324471</v>
+        <v>0.6583835096780551</v>
       </c>
     </row>
     <row r="398" spans="1:7">
@@ -9549,7 +9549,7 @@
         <v>1</v>
       </c>
       <c r="G398">
-        <v>0.6750783885818872</v>
+        <v>0.854620248621204</v>
       </c>
     </row>
     <row r="399" spans="1:7">
@@ -9572,7 +9572,7 @@
         <v>1</v>
       </c>
       <c r="G399">
-        <v>0.2633961627962392</v>
+        <v>0.5072790790306344</v>
       </c>
     </row>
     <row r="400" spans="1:7">
@@ -9595,7 +9595,7 @@
         <v>1</v>
       </c>
       <c r="G400">
-        <v>0.5863581418650148</v>
+        <v>0.7844708261183079</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -9618,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="G401">
-        <v>0.590903384180217</v>
+        <v>0.9347162691951124</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -9641,7 +9641,7 @@
         <v>1</v>
       </c>
       <c r="G402">
-        <v>0.5274944911615818</v>
+        <v>0.7569066348097827</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -9664,7 +9664,7 @@
         <v>2</v>
       </c>
       <c r="G403">
-        <v>0.7067587342183763</v>
+        <v>0.7456163500746822</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="G404">
-        <v>0.5397296199070705</v>
+        <v>0.8857144182763609</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -9710,7 +9710,7 @@
         <v>2</v>
       </c>
       <c r="G405">
-        <v>0.4527809032219923</v>
+        <v>0.5915989924625322</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -9733,7 +9733,7 @@
         <v>1</v>
       </c>
       <c r="G406">
-        <v>0.4301851735186706</v>
+        <v>0.6821808409643035</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -9756,7 +9756,7 @@
         <v>4</v>
       </c>
       <c r="G407">
-        <v>0.5605378649295919</v>
+        <v>0.4454362082813769</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -9779,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="G408">
-        <v>0.3883005538310135</v>
+        <v>0.7462551651739558</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -9802,7 +9802,7 @@
         <v>4</v>
       </c>
       <c r="G409">
-        <v>0.840140579131042</v>
+        <v>0.558702115547356</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -9825,7 +9825,7 @@
         <v>2</v>
       </c>
       <c r="G410">
-        <v>0.6875820944816575</v>
+        <v>0.7374446536639766</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -9848,7 +9848,7 @@
         <v>2</v>
       </c>
       <c r="G411">
-        <v>0.6388616900092179</v>
+        <v>0.6831745488734919</v>
       </c>
     </row>
     <row r="412" spans="1:7">
@@ -9871,7 +9871,7 @@
         <v>0</v>
       </c>
       <c r="G412">
-        <v>0.5111420658132407</v>
+        <v>0.8819095984117391</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -9894,7 +9894,7 @@
         <v>5</v>
       </c>
       <c r="G413">
-        <v>0.6498232878038794</v>
+        <v>0.367272757893206</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -9917,7 +9917,7 @@
         <v>2</v>
       </c>
       <c r="G414">
-        <v>0.7360713329419118</v>
+        <v>0.7574209236462095</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -9940,7 +9940,7 @@
         <v>5</v>
       </c>
       <c r="G415">
-        <v>0.4122282887776589</v>
+        <v>0.2186083981247059</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="G416">
-        <v>0.6034633651877517</v>
+        <v>0.9144515289654762</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -9986,7 +9986,7 @@
         <v>2</v>
       </c>
       <c r="G417">
-        <v>0.5051994074515435</v>
+        <v>0.6318362912851561</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -10009,7 +10009,7 @@
         <v>4</v>
       </c>
       <c r="G418">
-        <v>0.7443261759827524</v>
+        <v>0.527423749303317</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -10032,7 +10032,7 @@
         <v>3</v>
       </c>
       <c r="G419">
-        <v>0.6123468366766438</v>
+        <v>0.5629851552433086</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -10055,7 +10055,7 @@
         <v>1</v>
       </c>
       <c r="G420">
-        <v>0.5198868720705764</v>
+        <v>0.7530093186121778</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -10078,7 +10078,7 @@
         <v>1</v>
       </c>
       <c r="G421">
-        <v>0.7017972860223557</v>
+        <v>0.8662524371305548</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -10101,7 +10101,7 @@
         <v>3</v>
       </c>
       <c r="G422">
-        <v>0.645607866113331</v>
+        <v>0.6108321202584769</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -10124,7 +10124,7 @@
         <v>3</v>
       </c>
       <c r="G423">
-        <v>0.5717193289167702</v>
+        <v>0.5468857304491231</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -10147,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="G424">
-        <v>0.2252487635143333</v>
+        <v>0.5250522609016489</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -10170,7 +10170,7 @@
         <v>2</v>
       </c>
       <c r="G425">
-        <v>0.3020201082866799</v>
+        <v>0.4506857897787727</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -10193,7 +10193,7 @@
         <v>4</v>
       </c>
       <c r="G426">
-        <v>0.840140579131042</v>
+        <v>0.558702115547356</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -10216,7 +10216,7 @@
         <v>1</v>
       </c>
       <c r="G427">
-        <v>0.2738346085612974</v>
+        <v>0.5277167899264642</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -10239,7 +10239,7 @@
         <v>3</v>
       </c>
       <c r="G428">
-        <v>0.3249987958405112</v>
+        <v>0.3940925005269108</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -10262,7 +10262,7 @@
         <v>5</v>
       </c>
       <c r="G429">
-        <v>0.2500120143448724</v>
+        <v>0.05328994512777283</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -10285,7 +10285,7 @@
         <v>5</v>
       </c>
       <c r="G430">
-        <v>0.2722167259242589</v>
+        <v>0.08723727030931537</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -10308,7 +10308,7 @@
         <v>3</v>
       </c>
       <c r="G431">
-        <v>0.2251720753685049</v>
+        <v>0.2509570323313369</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -10331,7 +10331,7 @@
         <v>3</v>
       </c>
       <c r="G432">
-        <v>0.5918791759975983</v>
+        <v>0.5550574268598287</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -10354,7 +10354,7 @@
         <v>2</v>
       </c>
       <c r="G433">
-        <v>0.4119164740044874</v>
+        <v>0.5362342608132963</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -10377,7 +10377,7 @@
         <v>5</v>
       </c>
       <c r="G434">
-        <v>0.6850492108281263</v>
+        <v>0.3821678306052249</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -10400,7 +10400,7 @@
         <v>4</v>
       </c>
       <c r="G435">
-        <v>0.815660963455491</v>
+        <v>0.5512210805895654</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -10423,7 +10423,7 @@
         <v>3</v>
       </c>
       <c r="G436">
-        <v>0.5617563185221248</v>
+        <v>0.5427036097027333</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -10446,7 +10446,7 @@
         <v>4</v>
       </c>
       <c r="G437">
-        <v>0.6388821298988018</v>
+        <v>0.4500469746794989</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -10469,7 +10469,7 @@
         <v>1</v>
       </c>
       <c r="G438">
-        <v>0.6403759331782162</v>
+        <v>0.8382729850979166</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -10492,7 +10492,7 @@
         <v>0</v>
       </c>
       <c r="G439">
-        <v>0.4218503305224113</v>
+        <v>0.7946723281024237</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -10515,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="G440">
-        <v>0.6536961056027378</v>
+        <v>0.9674418280068691</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -10538,7 +10538,7 @@
         <v>1</v>
       </c>
       <c r="G441">
-        <v>0.5523474648406458</v>
+        <v>0.7690717775866802</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -10561,7 +10561,7 @@
         <v>0</v>
       </c>
       <c r="G442">
-        <v>0.3627783739794308</v>
+        <v>0.6978380022454879</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -10584,7 +10584,7 @@
         <v>3</v>
       </c>
       <c r="G443">
-        <v>0.3882317527630957</v>
+        <v>0.4473824456546837</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -10607,7 +10607,7 @@
         <v>5</v>
       </c>
       <c r="G444">
-        <v>0.8354496834194425</v>
+        <v>0.4345784398998848</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -10630,7 +10630,7 @@
         <v>2</v>
       </c>
       <c r="G445">
-        <v>0.5642413578078107</v>
+        <v>0.651896182629453</v>
       </c>
     </row>
     <row r="446" spans="1:7">
@@ -10653,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="G446">
-        <v>0.4907994857560291</v>
+        <v>0.865478017002696</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -10676,7 +10676,7 @@
         <v>1</v>
       </c>
       <c r="G447">
-        <v>0.3506751903569041</v>
+        <v>0.5465264077265201</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -10699,7 +10699,7 @@
         <v>2</v>
       </c>
       <c r="G448">
-        <v>0.3991079941028397</v>
+        <v>0.5179125705072966</v>
       </c>
     </row>
     <row r="449" spans="1:7">
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="G449">
-        <v>0.3379495049892646</v>
+        <v>0.618471451776622</v>
       </c>
     </row>
     <row r="450" spans="1:7">
@@ -10745,7 +10745,7 @@
         <v>3</v>
       </c>
       <c r="G450">
-        <v>0.6557464376960802</v>
+        <v>0.6152954047992178</v>
       </c>
     </row>
     <row r="451" spans="1:7">
@@ -10768,7 +10768,7 @@
         <v>1</v>
       </c>
       <c r="G451">
-        <v>0.2346108643979979</v>
+        <v>0.4343998556103706</v>
       </c>
     </row>
     <row r="452" spans="1:7">
@@ -10791,7 +10791,7 @@
         <v>5</v>
       </c>
       <c r="G452">
-        <v>0.7799346977062653</v>
+        <v>0.3718061356330629</v>
       </c>
     </row>
     <row r="453" spans="1:7">
@@ -10814,7 +10814,7 @@
         <v>3</v>
       </c>
       <c r="G453">
-        <v>0.4537616853743777</v>
+        <v>0.4939990184504859</v>
       </c>
     </row>
     <row r="454" spans="1:7">
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="G454">
-        <v>0.3005106157523341</v>
+        <v>0.6939449156180466</v>
       </c>
     </row>
     <row r="455" spans="1:7">
@@ -10860,7 +10860,7 @@
         <v>2</v>
       </c>
       <c r="G455">
-        <v>0.6501256007826026</v>
+        <v>0.7203058569795476</v>
       </c>
     </row>
     <row r="456" spans="1:7">
@@ -10883,7 +10883,7 @@
         <v>4</v>
       </c>
       <c r="G456">
-        <v>0.661502393242323</v>
+        <v>0.4579747030629788</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -10906,7 +10906,7 @@
         <v>5</v>
       </c>
       <c r="G457">
-        <v>0.462580501686049</v>
+        <v>0.2491661148655514</v>
       </c>
     </row>
     <row r="458" spans="1:7">
@@ -10929,7 +10929,7 @@
         <v>2</v>
       </c>
       <c r="G458">
-        <v>0.513043313013967</v>
+        <v>0.637941368869537</v>
       </c>
     </row>
     <row r="459" spans="1:7">
@@ -10952,7 +10952,7 @@
         <v>4</v>
       </c>
       <c r="G459">
-        <v>0.3867942996096109</v>
+        <v>0.3236188503050357</v>
       </c>
     </row>
     <row r="460" spans="1:7">
@@ -10975,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="G460">
-        <v>0.5397296199070705</v>
+        <v>0.8857144182763609</v>
       </c>
     </row>
     <row r="461" spans="1:7">
@@ -10998,7 +10998,7 @@
         <v>1</v>
       </c>
       <c r="G461">
-        <v>0.5439999779440052</v>
+        <v>0.7650783312204882</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -11021,7 +11021,7 @@
         <v>5</v>
       </c>
       <c r="G462">
-        <v>0.2360173550580451</v>
+        <v>0.02797945203263821</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -11044,7 +11044,7 @@
         <v>5</v>
       </c>
       <c r="G463">
-        <v>0.5715925621207849</v>
+        <v>0.3014043390980348</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -11067,7 +11067,7 @@
         <v>3</v>
       </c>
       <c r="G464">
-        <v>0.261898448674198</v>
+        <v>0.3176958855658047</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -11090,7 +11090,7 @@
         <v>3</v>
       </c>
       <c r="G465">
-        <v>0.2195113640556061</v>
+        <v>0.2380003563932978</v>
       </c>
     </row>
     <row r="466" spans="1:7">
@@ -11113,7 +11113,7 @@
         <v>3</v>
       </c>
       <c r="G466">
-        <v>0.6331177494911424</v>
+        <v>0.5706830617353715</v>
       </c>
     </row>
     <row r="467" spans="1:7">
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="G467">
-        <v>0.4795413395675203</v>
+        <v>0.853485928732721</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="G468">
-        <v>0.4722763616564946</v>
+        <v>0.8491669783968616</v>
       </c>
     </row>
     <row r="469" spans="1:7">
@@ -11182,7 +11182,7 @@
         <v>5</v>
       </c>
       <c r="G469">
-        <v>0.4320211290749789</v>
+        <v>0.2312564637096431</v>
       </c>
     </row>
     <row r="470" spans="1:7">
@@ -11205,7 +11205,7 @@
         <v>4</v>
       </c>
       <c r="G470">
-        <v>0.9156153728061098</v>
+        <v>0.5799581912786809</v>
       </c>
     </row>
     <row r="471" spans="1:7">
@@ -11228,7 +11228,7 @@
         <v>2</v>
       </c>
       <c r="G471">
-        <v>0.7559718995209029</v>
+        <v>0.7650088449725019</v>
       </c>
     </row>
     <row r="472" spans="1:7">
@@ -11251,7 +11251,7 @@
         <v>2</v>
       </c>
       <c r="G472">
-        <v>0.4773710729589009</v>
+        <v>0.6067779339123859</v>
       </c>
     </row>
     <row r="473" spans="1:7">
@@ -11274,7 +11274,7 @@
         <v>1</v>
       </c>
       <c r="G473">
-        <v>0.4910219553237251</v>
+        <v>0.7429518210498668</v>
       </c>
     </row>
     <row r="474" spans="1:7">
@@ -11297,7 +11297,7 @@
         <v>4</v>
       </c>
       <c r="G474">
-        <v>0.3484310335449045</v>
+        <v>0.2438488683426262</v>
       </c>
     </row>
     <row r="475" spans="1:7">
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="G475">
-        <v>0.5758188530279217</v>
+        <v>0.9258634767994663</v>
       </c>
     </row>
     <row r="476" spans="1:7">
@@ -11343,7 +11343,7 @@
         <v>0</v>
       </c>
       <c r="G476">
-        <v>0.2695806959536538</v>
+        <v>0.6423850038334326</v>
       </c>
     </row>
     <row r="477" spans="1:7">
@@ -11366,7 +11366,7 @@
         <v>3</v>
       </c>
       <c r="G477">
-        <v>0.2819200298445586</v>
+        <v>0.3456753375984429</v>
       </c>
     </row>
     <row r="478" spans="1:7">
@@ -11389,7 +11389,7 @@
         <v>4</v>
       </c>
       <c r="G478">
-        <v>0.6762615608912425</v>
+        <v>0.5012820843905066</v>
       </c>
     </row>
     <row r="479" spans="1:7">
@@ -11412,7 +11412,7 @@
         <v>4</v>
       </c>
       <c r="G479">
-        <v>0.6012081193389918</v>
+        <v>0.4671265591363963</v>
       </c>
     </row>
     <row r="480" spans="1:7">
@@ -11435,7 +11435,7 @@
         <v>0</v>
       </c>
       <c r="G480">
-        <v>0.5464148568699608</v>
+        <v>0.9072200915068738</v>
       </c>
     </row>
     <row r="481" spans="1:7">
@@ -11458,7 +11458,7 @@
         <v>4</v>
       </c>
       <c r="G481">
-        <v>0.6652466352663791</v>
+        <v>0.4966635474753013</v>
       </c>
     </row>
     <row r="482" spans="1:7">
@@ -11481,7 +11481,7 @@
         <v>3</v>
       </c>
       <c r="G482">
-        <v>0.4396516534540901</v>
+        <v>0.4813297708362262</v>
       </c>
     </row>
     <row r="483" spans="1:7">
@@ -11504,7 +11504,7 @@
         <v>3</v>
       </c>
       <c r="G483">
-        <v>0.8290640995938786</v>
+        <v>0.6780706146167373</v>
       </c>
     </row>
     <row r="484" spans="1:7">
@@ -11527,7 +11527,7 @@
         <v>5</v>
       </c>
       <c r="G484">
-        <v>0.5157492584663591</v>
+        <v>0.2765676359215429</v>
       </c>
     </row>
     <row r="485" spans="1:7">
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="G485">
-        <v>0.4710962068896405</v>
+        <v>0.8479622732301967</v>
       </c>
     </row>
     <row r="486" spans="1:7">
@@ -11573,7 +11573,7 @@
         <v>0</v>
       </c>
       <c r="G486">
-        <v>0.4163464503436116</v>
+        <v>0.8118349707773724</v>
       </c>
     </row>
     <row r="487" spans="1:7">
@@ -11596,7 +11596,7 @@
         <v>4</v>
       </c>
       <c r="G487">
-        <v>0.4047036021198361</v>
+        <v>0.3362669158899729</v>
       </c>
     </row>
     <row r="488" spans="1:7">
@@ -11619,7 +11619,7 @@
         <v>5</v>
       </c>
       <c r="G488">
-        <v>0.7158276848205343</v>
+        <v>0.352964250882649</v>
       </c>
     </row>
     <row r="489" spans="1:7">
@@ -11642,7 +11642,7 @@
         <v>4</v>
       </c>
       <c r="G489">
-        <v>0.395695646221109</v>
+        <v>0.3300181763172585</v>
       </c>
     </row>
     <row r="490" spans="1:7">
@@ -11665,7 +11665,7 @@
         <v>5</v>
       </c>
       <c r="G490">
-        <v>0.4796770266642348</v>
+        <v>0.2696200672007749</v>
       </c>
     </row>
     <row r="491" spans="1:7">
@@ -11688,7 +11688,7 @@
         <v>5</v>
       </c>
       <c r="G491">
-        <v>0.4992067504402891</v>
+        <v>0.2839781140898264</v>
       </c>
     </row>
     <row r="492" spans="1:7">
@@ -11711,7 +11711,7 @@
         <v>5</v>
       </c>
       <c r="G492">
-        <v>0.6044192481730681</v>
+        <v>0.346016682161881</v>
       </c>
     </row>
     <row r="493" spans="1:7">
@@ -11734,7 +11734,7 @@
         <v>2</v>
       </c>
       <c r="G493">
-        <v>0.5289990707712156</v>
+        <v>0.6497459424410644</v>
       </c>
     </row>
     <row r="494" spans="1:7">
@@ -11757,7 +11757,7 @@
         <v>4</v>
       </c>
       <c r="G494">
-        <v>0.3768880117333277</v>
+        <v>0.2882116139072844</v>
       </c>
     </row>
     <row r="495" spans="1:7">
@@ -11780,7 +11780,7 @@
         <v>4</v>
       </c>
       <c r="G495">
-        <v>0.3439336951442158</v>
+        <v>0.2890820483465811</v>
       </c>
     </row>
     <row r="496" spans="1:7">
@@ -11803,7 +11803,7 @@
         <v>1</v>
       </c>
       <c r="G496">
-        <v>0.4839244960673041</v>
+        <v>0.7368467434654858</v>
       </c>
     </row>
     <row r="497" spans="1:7">
@@ -11826,7 +11826,7 @@
         <v>5</v>
       </c>
       <c r="G497">
-        <v>0.4220657981843978</v>
+        <v>0.2250077241369288</v>
       </c>
     </row>
     <row r="498" spans="1:7">
@@ -11849,7 +11849,7 @@
         <v>0</v>
       </c>
       <c r="G498">
-        <v>0.5609878735085195</v>
+        <v>0.9167053561966205</v>
       </c>
     </row>
     <row r="499" spans="1:7">
@@ -11872,7 +11872,7 @@
         <v>4</v>
       </c>
       <c r="G499">
-        <v>0.5730838162001197</v>
+        <v>0.4247364815843645</v>
       </c>
     </row>
     <row r="500" spans="1:7">
@@ -11895,7 +11895,7 @@
         <v>1</v>
       </c>
       <c r="G500">
-        <v>0.7663718269656241</v>
+        <v>0.8915629302256894</v>
       </c>
     </row>
     <row r="501" spans="1:7">
@@ -11918,7 +11918,7 @@
         <v>4</v>
       </c>
       <c r="G501">
-        <v>0.4323548659300354</v>
+        <v>0.3541765670458812</v>
       </c>
     </row>
   </sheetData>
